--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -23,28 +23,34 @@
     <t>NameId</t>
   </si>
   <si>
-    <t>ImageName</t>
+    <t>ImagePath</t>
   </si>
   <si>
-    <t>BaseHp</t>
+    <t>Hp</t>
   </si>
   <si>
-    <t>BaseMp</t>
+    <t>Mp</t>
   </si>
   <si>
-    <t>BaseAtk</t>
+    <t>Atk</t>
   </si>
   <si>
-    <t>BaseSpd</t>
+    <t>Def</t>
   </si>
   <si>
-    <t>slime</t>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>AttributeType</t>
+  </si>
+  <si>
+    <t>NY_CJ_monster_013_1</t>
   </si>
   <si>
     <t>Text</t>
   </si>
   <si>
-    <t>スライム</t>
+    <t>ネレイドジェム</t>
   </si>
 </sst>
 </file>
@@ -52,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,47 +72,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,45 +185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -164,31 +194,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -219,79 +225,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,19 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,79 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,35 +434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -468,6 +445,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +484,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,150 +524,153 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,22 +1021,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1042,8 +1051,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1051,19 +1066,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
         <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1079,17 +1100,20 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1097,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -58,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,67 +72,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,6 +84,30 @@
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,6 +119,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -161,43 +187,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,187 +225,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +416,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,6 +454,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,48 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,6 +507,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,145 +524,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1"/>
@@ -1075,7 +1075,7 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>10</v>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -58,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,16 +72,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,6 +126,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -119,98 +148,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,25 +225,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,157 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,21 +416,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,6 +439,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,17 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,6 +505,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,145 +524,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1075,7 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>10</v>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
-    <sheet name="TextData" sheetId="2" r:id="rId2"/>
+    <sheet name="Learning" sheetId="3" r:id="rId2"/>
+    <sheet name="TextData" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -47,10 +48,34 @@
     <t>NY_CJ_monster_013_1</t>
   </si>
   <si>
+    <t>NY_CJ_monster_018_1</t>
+  </si>
+  <si>
+    <t>Bee</t>
+  </si>
+  <si>
+    <t>NY_CJ_monster_002_4</t>
+  </si>
+  <si>
+    <t>ActorId</t>
+  </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
     <t>ネレイドジェム</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>ネームレス</t>
+  </si>
+  <si>
+    <t>ケルベロス</t>
   </si>
 </sst>
 </file>
@@ -58,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +97,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -79,6 +126,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -86,25 +148,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,98 +226,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,8 +447,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,30 +482,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,11 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,145 +549,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,13 +1046,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
+    <col min="3" max="3" width="21.0909090909091" customWidth="1"/>
+    <col min="4" max="4" width="3.81818181818182" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="7" width="4.45454545454545" customWidth="1"/>
+    <col min="8" max="8" width="4.72727272727273" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1085,6 +1118,93 @@
       </c>
       <c r="I2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1097,13 +1217,70 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
   </cols>
@@ -1113,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1121,7 +1298,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,6 +94,135 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,136 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +250,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,169 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +448,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,15 +458,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +507,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -530,17 +541,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -549,145 +549,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,13 +1046,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
     <col min="3" max="3" width="21.0909090909091" customWidth="1"/>
@@ -1207,6 +1207,64 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1217,13 +1275,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1263,6 +1321,22 @@
       </c>
       <c r="B5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -1274,13 +1348,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
   </cols>
@@ -1325,6 +1399,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -42,7 +42,13 @@
     <t>Spd</t>
   </si>
   <si>
-    <t>AttributeType</t>
+    <t>Kind1</t>
+  </si>
+  <si>
+    <t>Kind2</t>
+  </si>
+  <si>
+    <t>Kind3</t>
   </si>
   <si>
     <t>NY_CJ_monster_013_1</t>
@@ -83,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,11 +103,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -120,91 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,17 +234,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,31 +256,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,145 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,18 +452,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,32 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -541,6 +514,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -549,145 +555,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
@@ -1062,7 +1068,7 @@
     <col min="8" max="8" width="4.72727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,8 +1096,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1099,28 +1111,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1128,28 +1146,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1157,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>39</v>
@@ -1175,10 +1199,16 @@
         <v>37</v>
       </c>
       <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1186,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>49</v>
@@ -1204,10 +1234,16 @@
         <v>22</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1215,28 +1251,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1244,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>45</v>
@@ -1262,7 +1304,13 @@
         <v>17</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1325,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1285,10 +1333,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1364,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1372,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1380,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1388,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1396,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1404,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1412,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -51,16 +51,64 @@
     <t>Kind3</t>
   </si>
   <si>
-    <t>NY_CJ_monster_013_1</t>
-  </si>
-  <si>
-    <t>NY_CJ_monster_018_1</t>
+    <t>Jelslime</t>
+  </si>
+  <si>
+    <t>氷</t>
+  </si>
+  <si>
+    <t>Cursed</t>
+  </si>
+  <si>
+    <t>闇</t>
   </si>
   <si>
     <t>Bee</t>
   </si>
   <si>
-    <t>NY_CJ_monster_002_4</t>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>炎</t>
+  </si>
+  <si>
+    <t>Crow</t>
+  </si>
+  <si>
+    <t>Nameless</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>Seacher</t>
+  </si>
+  <si>
+    <t>Shiled</t>
+  </si>
+  <si>
+    <t>Dryad</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>Creeper</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Sword</t>
   </si>
   <si>
     <t>ActorId</t>
@@ -75,13 +123,46 @@
     <t>ネレイドジェム</t>
   </si>
   <si>
-    <t>""</t>
+    <t>カースド</t>
+  </si>
+  <si>
+    <t>ビー</t>
+  </si>
+  <si>
+    <t>ウルフ</t>
+  </si>
+  <si>
+    <t>クロウ</t>
   </si>
   <si>
     <t>ネームレス</t>
   </si>
   <si>
-    <t>ケルベロス</t>
+    <t>サーチャー</t>
+  </si>
+  <si>
+    <t>シールド</t>
+  </si>
+  <si>
+    <t>ドライアド</t>
+  </si>
+  <si>
+    <t>スコーピオン</t>
+  </si>
+  <si>
+    <t>スクイッド</t>
+  </si>
+  <si>
+    <t>クリーパー</t>
+  </si>
+  <si>
+    <t>インプ</t>
+  </si>
+  <si>
+    <t>ゴーストアーマー</t>
+  </si>
+  <si>
+    <t>ソード</t>
   </si>
 </sst>
 </file>
@@ -89,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -103,8 +184,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,23 +229,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,46 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -197,6 +261,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,15 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -234,7 +307,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +337,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,19 +421,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,139 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,13 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +561,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -487,15 +581,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,17 +618,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,145 +636,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,13 +1133,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="7.63636363636364" customWidth="1"/>
     <col min="3" max="3" width="21.0909090909091" customWidth="1"/>
@@ -1103,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1137,8 +1218,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1146,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -1172,8 +1256,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1181,7 +1268,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>39</v>
@@ -1207,8 +1294,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1216,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>49</v>
@@ -1242,8 +1332,11 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1251,7 +1344,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>53</v>
@@ -1277,8 +1370,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1286,7 +1382,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>45</v>
@@ -1311,6 +1407,351 @@
       </c>
       <c r="K7">
         <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>26</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1333,10 +1774,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1396,13 +1837,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="13.5454545454545" customWidth="1"/>
   </cols>
@@ -1412,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1420,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1428,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1436,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1444,7 +1885,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1452,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1460,7 +1901,79 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -170,15 +170,61 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -199,16 +245,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,8 +274,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,86 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +337,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,103 +379,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,67 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +528,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,7 +588,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -585,30 +620,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -617,17 +628,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,145 +636,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,7 +1135,7 @@
   <sheetPr/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1764,13 +1764,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1825,7 +1825,79 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>301</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
     <sheet name="Learning" sheetId="3" r:id="rId2"/>
-    <sheet name="TextData" sheetId="2" r:id="rId3"/>
+    <sheet name="Triggers" sheetId="4" r:id="rId3"/>
+    <sheet name="TextData" sheetId="2" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -111,12 +115,48 @@
     <t>Sword</t>
   </si>
   <si>
+    <t>Bifrons</t>
+  </si>
+  <si>
+    <t>Andras</t>
+  </si>
+  <si>
+    <t>Ammon</t>
+  </si>
+  <si>
+    <t>Berith</t>
+  </si>
+  <si>
+    <t>Paimon</t>
+  </si>
+  <si>
     <t>ActorId</t>
   </si>
   <si>
     <t>SkillId</t>
   </si>
   <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Whight</t>
+  </si>
+  <si>
+    <t>TriggerType</t>
+  </si>
+  <si>
+    <t>TriggerTiming</t>
+  </si>
+  <si>
+    <t>Param1</t>
+  </si>
+  <si>
+    <t>Param2</t>
+  </si>
+  <si>
+    <t>Param3</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
@@ -163,6 +203,21 @@
   </si>
   <si>
     <t>ソード</t>
+  </si>
+  <si>
+    <t>ビフロンス</t>
+  </si>
+  <si>
+    <t>アンドラス</t>
+  </si>
+  <si>
+    <t>アモン</t>
+  </si>
+  <si>
+    <t>ベリト</t>
+  </si>
+  <si>
+    <t>パイモン</t>
   </si>
 </sst>
 </file>
@@ -170,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -185,54 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,16 +253,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,7 +268,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,24 +305,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,9 +354,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,7 +392,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,19 +452,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,13 +524,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,133 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,45 +587,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -581,26 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,6 +618,65 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -636,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -844,6 +899,572 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Skills"/>
+      <sheetName val="Features"/>
+      <sheetName val="Triggers"/>
+      <sheetName val="TextData"/>
+      <sheetName val="Define"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Text</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>何もしない</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>攻撃</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>11</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>神化</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>21</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>神化解除</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>31</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>拘束制御</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>32</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>拘束ダメージ解除</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>101</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>ファイアボール</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>102</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>バーンストーム</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>103</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>ヒートスタンプ</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>104</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>ソードアダプト</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>105</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>プリディカメント</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>111</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>インフェルノ</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>112</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>スベテモヤシツクス</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>201</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>ライトニングウェブ</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>202</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>シャープコード</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>203</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>ショックインパルス</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>204</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>トラストチェイン</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>205</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>スパークフォグ</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>211</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>ステップリーダー</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>212</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>ユビサキデカラメトル</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>301</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>カウンターオーラ</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>302</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>シールドスペル</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>303</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>エスコートソール</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>304</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>スペルバニッシュ</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>305</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>ガーディアンソウル</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>311</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>フリジットシェル</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>312</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>ノロマナカメニナレ</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>401</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>ペネトレイト</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>402</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>ヒーリング</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>403</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>リフレッシュ</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>404</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>べネディクション</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>405</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>ディバインシールド</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>411</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>エリクシール</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>412</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>エンジェルフェザー</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>421</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>ホーリーグレイス</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>501</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>ユーサネイジア</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>502</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>ドレインヒール</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>503</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>デリートマジック</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>504</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>ディプラヴィティ</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>505</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>ネガティブドレイン</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>511</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>ディストラクション</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>512</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>カオスペイン</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>1000</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>愚者</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>1001</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>魔術師</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>1002</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>女帝</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>1003</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>女教皇</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>1004</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>皇帝</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>1005</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>法王</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>1006</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>恋愛</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>1007</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>戦車</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>1008</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>正義</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>1009</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>隠者</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>1010</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>運命</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>1011</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>剛毅</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>1012</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>刑死者</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>1013</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>死神</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>1014</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>節制</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>1015</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>悪魔</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>1016</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>塔</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>1017</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>星</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>1018</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>月</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>1019</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>太陽</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>1020</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>審判</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>1022</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>杖</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>1023</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>器</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>1024</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>1025</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>貨幣</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,10 +1754,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1754,6 +2375,181 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1764,140 +2560,405 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B2,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B3,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B4,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B5,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B6,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B8,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>421</v>
+      </c>
+      <c r="C15" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
+        <v>ホーリーグレイス</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>103</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>104</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1909,10 +2970,73 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>421</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>
@@ -1925,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1933,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1941,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1949,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1957,7 +3081,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1965,7 +3089,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1973,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1981,7 +3105,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1989,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1997,7 +3121,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2005,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2013,7 +3137,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2021,7 +3145,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2029,7 +3153,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2037,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2045,7 +3169,47 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -236,20 +236,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,8 +253,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,25 +300,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,9 +338,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,9 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,22 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,25 +392,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +428,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,109 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,25 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +583,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,6 +610,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -612,26 +636,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,26 +664,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,16 +691,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,27 +709,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,97 +739,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,377 +1086,393 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>301</v>
+            <v>221</v>
           </cell>
           <cell r="B22" t="str">
-            <v>カウンターオーラ</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>302</v>
+            <v>301</v>
           </cell>
           <cell r="B23" t="str">
-            <v>シールドスペル</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>303</v>
+            <v>302</v>
           </cell>
           <cell r="B24" t="str">
-            <v>エスコートソール</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>304</v>
+            <v>303</v>
           </cell>
           <cell r="B25" t="str">
-            <v>スペルバニッシュ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>305</v>
+            <v>304</v>
           </cell>
           <cell r="B26" t="str">
-            <v>ガーディアンソウル</v>
+            <v>スペルバニッシュ</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>311</v>
+            <v>305</v>
           </cell>
           <cell r="B27" t="str">
-            <v>フリジットシェル</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>312</v>
+            <v>311</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>401</v>
+            <v>312</v>
           </cell>
           <cell r="B29" t="str">
-            <v>ペネトレイト</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>402</v>
+            <v>321</v>
           </cell>
           <cell r="B30" t="str">
-            <v>ヒーリング</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>403</v>
+            <v>401</v>
           </cell>
           <cell r="B31" t="str">
-            <v>リフレッシュ</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>404</v>
+            <v>402</v>
           </cell>
           <cell r="B32" t="str">
-            <v>べネディクション</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>405</v>
+            <v>403</v>
           </cell>
           <cell r="B33" t="str">
-            <v>ディバインシールド</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>411</v>
+            <v>404</v>
           </cell>
           <cell r="B34" t="str">
-            <v>エリクシール</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>412</v>
+            <v>405</v>
           </cell>
           <cell r="B35" t="str">
-            <v>エンジェルフェザー</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>421</v>
+            <v>411</v>
           </cell>
           <cell r="B36" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>501</v>
+            <v>412</v>
           </cell>
           <cell r="B37" t="str">
-            <v>ユーサネイジア</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>502</v>
+            <v>421</v>
           </cell>
           <cell r="B38" t="str">
-            <v>ドレインヒール</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>503</v>
+            <v>501</v>
           </cell>
           <cell r="B39" t="str">
-            <v>デリートマジック</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>504</v>
+            <v>502</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>505</v>
+            <v>503</v>
           </cell>
           <cell r="B41" t="str">
-            <v>ネガティブドレイン</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>511</v>
+            <v>504</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ディストラクション</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>512</v>
+            <v>505</v>
           </cell>
           <cell r="B43" t="str">
-            <v>カオスペイン</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>1000</v>
+            <v>511</v>
           </cell>
           <cell r="B44" t="str">
-            <v>愚者</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>1001</v>
+            <v>512</v>
           </cell>
           <cell r="B45" t="str">
-            <v>魔術師</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>1002</v>
+            <v>1000</v>
           </cell>
           <cell r="B46" t="str">
-            <v>女帝</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>1003</v>
+            <v>1001</v>
           </cell>
           <cell r="B47" t="str">
-            <v>女教皇</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>1004</v>
+            <v>1002</v>
           </cell>
           <cell r="B48" t="str">
-            <v>皇帝</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>1005</v>
+            <v>1003</v>
           </cell>
           <cell r="B49" t="str">
-            <v>法王</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>1006</v>
+            <v>1004</v>
           </cell>
           <cell r="B50" t="str">
-            <v>恋愛</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>1007</v>
+            <v>1005</v>
           </cell>
           <cell r="B51" t="str">
-            <v>戦車</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>1008</v>
+            <v>1006</v>
           </cell>
           <cell r="B52" t="str">
-            <v>正義</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>1009</v>
+            <v>1007</v>
           </cell>
           <cell r="B53" t="str">
-            <v>隠者</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>1010</v>
+            <v>1008</v>
           </cell>
           <cell r="B54" t="str">
-            <v>運命</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>1011</v>
+            <v>1009</v>
           </cell>
           <cell r="B55" t="str">
-            <v>剛毅</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>1012</v>
+            <v>1010</v>
           </cell>
           <cell r="B56" t="str">
-            <v>刑死者</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>1013</v>
+            <v>1011</v>
           </cell>
           <cell r="B57" t="str">
-            <v>死神</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>1014</v>
+            <v>1012</v>
           </cell>
           <cell r="B58" t="str">
-            <v>節制</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>1015</v>
+            <v>1013</v>
           </cell>
           <cell r="B59" t="str">
-            <v>悪魔</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>1016</v>
+            <v>1014</v>
           </cell>
           <cell r="B60" t="str">
-            <v>塔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>1017</v>
+            <v>1015</v>
           </cell>
           <cell r="B61" t="str">
-            <v>星</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>1018</v>
+            <v>1016</v>
           </cell>
           <cell r="B62" t="str">
-            <v>月</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>1019</v>
+            <v>1017</v>
           </cell>
           <cell r="B63" t="str">
-            <v>太陽</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>1020</v>
+            <v>1018</v>
           </cell>
           <cell r="B64" t="str">
-            <v>審判</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>1022</v>
+            <v>1019</v>
           </cell>
           <cell r="B65" t="str">
-            <v>杖</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>1023</v>
+            <v>1020</v>
           </cell>
           <cell r="B66" t="str">
-            <v>器</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>1024</v>
+            <v>1022</v>
           </cell>
           <cell r="B67" t="str">
-            <v>剣</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
+            <v>1023</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>器</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>1024</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
             <v>1025</v>
           </cell>
-          <cell r="B68" t="str">
+          <cell r="B70" t="str">
             <v>貨幣</v>
           </cell>
         </row>
@@ -1756,8 +1772,8 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2278,7 +2294,7 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -2560,10 +2576,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -2575,7 +2591,6 @@
       <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="C1"/>
       <c r="D1" t="s">
         <v>38</v>
       </c>
@@ -2724,30 +2739,30 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2765,7 +2780,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2783,7 +2798,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2801,7 +2816,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2814,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2822,40 +2837,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>攻撃</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2873,7 +2888,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2891,7 +2906,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2904,30 +2919,30 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2940,24 +2955,78 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
+        <v>アクセラレイト</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>103</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>104</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>100</v>
       </c>
     </row>
@@ -2970,13 +3039,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -3009,7 +3078,7 @@
         <v>421</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3021,6 +3090,52 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>321</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>221</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -240,14 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,14 +248,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +269,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -291,9 +299,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,22 +352,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -369,15 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,43 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +410,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,7 +452,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,109 +560,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,9 +588,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,11 +677,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,449 +1030,465 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>201</v>
+            <v>121</v>
           </cell>
           <cell r="B15" t="str">
-            <v>ライトニングウェブ</v>
+            <v>メルトバースト</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>202</v>
+            <v>201</v>
           </cell>
           <cell r="B16" t="str">
-            <v>シャープコード</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>203</v>
+            <v>202</v>
           </cell>
           <cell r="B17" t="str">
-            <v>ショックインパルス</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>204</v>
+            <v>203</v>
           </cell>
           <cell r="B18" t="str">
-            <v>トラストチェイン</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>205</v>
+            <v>204</v>
           </cell>
           <cell r="B19" t="str">
-            <v>スパークフォグ</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>211</v>
+            <v>205</v>
           </cell>
           <cell r="B20" t="str">
-            <v>ステップリーダー</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>212</v>
+            <v>211</v>
           </cell>
           <cell r="B21" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>221</v>
+            <v>212</v>
           </cell>
           <cell r="B22" t="str">
-            <v>アクセラレイト</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>301</v>
+            <v>221</v>
           </cell>
           <cell r="B23" t="str">
-            <v>カウンターオーラ</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>302</v>
+            <v>301</v>
           </cell>
           <cell r="B24" t="str">
-            <v>シールドスペル</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>303</v>
+            <v>302</v>
           </cell>
           <cell r="B25" t="str">
-            <v>エスコートソール</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>304</v>
+            <v>303</v>
           </cell>
           <cell r="B26" t="str">
-            <v>スペルバニッシュ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>305</v>
+            <v>304</v>
           </cell>
           <cell r="B27" t="str">
-            <v>ガーディアンソウル</v>
+            <v>スペルバニッシュ</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>311</v>
+            <v>305</v>
           </cell>
           <cell r="B28" t="str">
-            <v>フリジットシェル</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>312</v>
+            <v>311</v>
           </cell>
           <cell r="B29" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>321</v>
+            <v>312</v>
           </cell>
           <cell r="B30" t="str">
-            <v>バブルブロウ</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>401</v>
+            <v>321</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ペネトレイト</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>402</v>
+            <v>401</v>
           </cell>
           <cell r="B32" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>403</v>
+            <v>402</v>
           </cell>
           <cell r="B33" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>404</v>
+            <v>403</v>
           </cell>
           <cell r="B34" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>405</v>
+            <v>404</v>
           </cell>
           <cell r="B35" t="str">
-            <v>ディバインシールド</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>411</v>
+            <v>405</v>
           </cell>
           <cell r="B36" t="str">
-            <v>エリクシール</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>412</v>
+            <v>411</v>
           </cell>
           <cell r="B37" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>421</v>
+            <v>412</v>
           </cell>
           <cell r="B38" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>501</v>
+            <v>421</v>
           </cell>
           <cell r="B39" t="str">
-            <v>ユーサネイジア</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>502</v>
+            <v>501</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>503</v>
+            <v>502</v>
           </cell>
           <cell r="B41" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>504</v>
+            <v>503</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>505</v>
+            <v>504</v>
           </cell>
           <cell r="B43" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>511</v>
+            <v>505</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ディストラクション</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>512</v>
+            <v>511</v>
           </cell>
           <cell r="B45" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>1000</v>
+            <v>512</v>
           </cell>
           <cell r="B46" t="str">
-            <v>愚者</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>1001</v>
+            <v>521</v>
           </cell>
           <cell r="B47" t="str">
-            <v>魔術師</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>1002</v>
+            <v>1000</v>
           </cell>
           <cell r="B48" t="str">
-            <v>女帝</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>1003</v>
+            <v>1001</v>
           </cell>
           <cell r="B49" t="str">
-            <v>女教皇</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>1004</v>
+            <v>1002</v>
           </cell>
           <cell r="B50" t="str">
-            <v>皇帝</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>1005</v>
+            <v>1003</v>
           </cell>
           <cell r="B51" t="str">
-            <v>法王</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>1006</v>
+            <v>1004</v>
           </cell>
           <cell r="B52" t="str">
-            <v>恋愛</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>1007</v>
+            <v>1005</v>
           </cell>
           <cell r="B53" t="str">
-            <v>戦車</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>1008</v>
+            <v>1006</v>
           </cell>
           <cell r="B54" t="str">
-            <v>正義</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>1009</v>
+            <v>1007</v>
           </cell>
           <cell r="B55" t="str">
-            <v>隠者</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>1010</v>
+            <v>1008</v>
           </cell>
           <cell r="B56" t="str">
-            <v>運命</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>1011</v>
+            <v>1009</v>
           </cell>
           <cell r="B57" t="str">
-            <v>剛毅</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>1012</v>
+            <v>1010</v>
           </cell>
           <cell r="B58" t="str">
-            <v>刑死者</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>1013</v>
+            <v>1011</v>
           </cell>
           <cell r="B59" t="str">
-            <v>死神</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>1014</v>
+            <v>1012</v>
           </cell>
           <cell r="B60" t="str">
-            <v>節制</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>1015</v>
+            <v>1013</v>
           </cell>
           <cell r="B61" t="str">
-            <v>悪魔</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>1016</v>
+            <v>1014</v>
           </cell>
           <cell r="B62" t="str">
-            <v>塔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>1017</v>
+            <v>1015</v>
           </cell>
           <cell r="B63" t="str">
-            <v>星</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>1018</v>
+            <v>1016</v>
           </cell>
           <cell r="B64" t="str">
-            <v>月</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>1019</v>
+            <v>1017</v>
           </cell>
           <cell r="B65" t="str">
-            <v>太陽</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>1020</v>
+            <v>1018</v>
           </cell>
           <cell r="B66" t="str">
-            <v>審判</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>1022</v>
+            <v>1019</v>
           </cell>
           <cell r="B67" t="str">
-            <v>杖</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>1023</v>
+            <v>1020</v>
           </cell>
           <cell r="B68" t="str">
-            <v>器</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>1024</v>
+            <v>1022</v>
           </cell>
           <cell r="B69" t="str">
-            <v>剣</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
+            <v>1023</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>器</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>1024</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
             <v>1025</v>
           </cell>
-          <cell r="B70" t="str">
+          <cell r="B72" t="str">
             <v>貨幣</v>
           </cell>
         </row>
@@ -1773,7 +1789,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2576,10 +2592,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -2685,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2721,25 +2737,25 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>521</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ダークネス</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2747,40 +2763,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>攻撃</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2793,30 +2809,30 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2834,7 +2850,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2847,30 +2863,30 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>攻撃</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2883,30 +2899,30 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2919,30 +2935,30 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>攻撃</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2955,30 +2971,30 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2991,33 +3007,33 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
@@ -3027,6 +3043,96 @@
         <v>1</v>
       </c>
       <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>103</v>
+      </c>
+      <c r="B26">
+        <v>104</v>
+      </c>
+      <c r="C26" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>103</v>
+      </c>
+      <c r="B27">
+        <v>102</v>
+      </c>
+      <c r="C27" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
+        <v>バーンストーム</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>104</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>104</v>
+      </c>
+      <c r="B29">
+        <v>121</v>
+      </c>
+      <c r="C29" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
+        <v>メルトバースト</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>100</v>
       </c>
     </row>
@@ -3039,13 +3145,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -3072,19 +3178,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3095,19 +3201,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3118,10 +3224,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3136,6 +3242,98 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5">
+        <v>221</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -227,8 +227,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -240,15 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,15 +261,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -284,24 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,15 +299,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,8 +321,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -361,23 +368,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,7 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,19 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,43 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +452,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -500,13 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,25 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +546,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -586,13 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,32 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +630,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,18 +660,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,16 +691,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,127 +709,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,393 +1102,401 @@
         </row>
         <row r="24">
           <cell r="A24">
-            <v>301</v>
+            <v>231</v>
           </cell>
           <cell r="B24" t="str">
-            <v>カウンターオーラ</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>302</v>
+            <v>301</v>
           </cell>
           <cell r="B25" t="str">
-            <v>シールドスペル</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>303</v>
+            <v>302</v>
           </cell>
           <cell r="B26" t="str">
-            <v>エスコートソール</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>304</v>
+            <v>303</v>
           </cell>
           <cell r="B27" t="str">
-            <v>スペルバニッシュ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>305</v>
+            <v>304</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ガーディアンソウル</v>
+            <v>スペルバニッシュ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>311</v>
+            <v>305</v>
           </cell>
           <cell r="B29" t="str">
-            <v>フリジットシェル</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>312</v>
+            <v>311</v>
           </cell>
           <cell r="B30" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>321</v>
+            <v>312</v>
           </cell>
           <cell r="B31" t="str">
-            <v>バブルブロウ</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>401</v>
+            <v>321</v>
           </cell>
           <cell r="B32" t="str">
-            <v>ペネトレイト</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>402</v>
+            <v>401</v>
           </cell>
           <cell r="B33" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>403</v>
+            <v>402</v>
           </cell>
           <cell r="B34" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>404</v>
+            <v>403</v>
           </cell>
           <cell r="B35" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>405</v>
+            <v>404</v>
           </cell>
           <cell r="B36" t="str">
-            <v>ディバインシールド</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>411</v>
+            <v>405</v>
           </cell>
           <cell r="B37" t="str">
-            <v>エリクシール</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>412</v>
+            <v>411</v>
           </cell>
           <cell r="B38" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>421</v>
+            <v>412</v>
           </cell>
           <cell r="B39" t="str">
-            <v>ホーリーグレイス</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>501</v>
+            <v>421</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ユーサネイジア</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>502</v>
+            <v>501</v>
           </cell>
           <cell r="B41" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>503</v>
+            <v>502</v>
           </cell>
           <cell r="B42" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>504</v>
+            <v>503</v>
           </cell>
           <cell r="B43" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>505</v>
+            <v>504</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>511</v>
+            <v>505</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ディストラクション</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>512</v>
+            <v>511</v>
           </cell>
           <cell r="B46" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>521</v>
+            <v>512</v>
           </cell>
           <cell r="B47" t="str">
-            <v>ダークネス</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>1000</v>
+            <v>521</v>
           </cell>
           <cell r="B48" t="str">
-            <v>愚者</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="B49" t="str">
-            <v>魔術師</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>1002</v>
+            <v>1001</v>
           </cell>
           <cell r="B50" t="str">
-            <v>女帝</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>1003</v>
+            <v>1002</v>
           </cell>
           <cell r="B51" t="str">
-            <v>女教皇</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>1004</v>
+            <v>1003</v>
           </cell>
           <cell r="B52" t="str">
-            <v>皇帝</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>1005</v>
+            <v>1004</v>
           </cell>
           <cell r="B53" t="str">
-            <v>法王</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>1006</v>
+            <v>1005</v>
           </cell>
           <cell r="B54" t="str">
-            <v>恋愛</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>1007</v>
+            <v>1006</v>
           </cell>
           <cell r="B55" t="str">
-            <v>戦車</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>1008</v>
+            <v>1007</v>
           </cell>
           <cell r="B56" t="str">
-            <v>正義</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>1009</v>
+            <v>1008</v>
           </cell>
           <cell r="B57" t="str">
-            <v>隠者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>1010</v>
+            <v>1009</v>
           </cell>
           <cell r="B58" t="str">
-            <v>運命</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>1011</v>
+            <v>1010</v>
           </cell>
           <cell r="B59" t="str">
-            <v>剛毅</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>1012</v>
+            <v>1011</v>
           </cell>
           <cell r="B60" t="str">
-            <v>刑死者</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>1013</v>
+            <v>1012</v>
           </cell>
           <cell r="B61" t="str">
-            <v>死神</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>1014</v>
+            <v>1013</v>
           </cell>
           <cell r="B62" t="str">
-            <v>節制</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>1015</v>
+            <v>1014</v>
           </cell>
           <cell r="B63" t="str">
-            <v>悪魔</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>1016</v>
+            <v>1015</v>
           </cell>
           <cell r="B64" t="str">
-            <v>塔</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>1017</v>
+            <v>1016</v>
           </cell>
           <cell r="B65" t="str">
-            <v>星</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>1018</v>
+            <v>1017</v>
           </cell>
           <cell r="B66" t="str">
-            <v>月</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>1019</v>
+            <v>1018</v>
           </cell>
           <cell r="B67" t="str">
-            <v>太陽</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>1020</v>
+            <v>1019</v>
           </cell>
           <cell r="B68" t="str">
-            <v>審判</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>1022</v>
+            <v>1020</v>
           </cell>
           <cell r="B69" t="str">
-            <v>杖</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>1023</v>
+            <v>1022</v>
           </cell>
           <cell r="B70" t="str">
-            <v>器</v>
+            <v>杖</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>1024</v>
+            <v>1023</v>
           </cell>
           <cell r="B71" t="str">
-            <v>剣</v>
+            <v>器</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
+            <v>1024</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
             <v>1025</v>
           </cell>
-          <cell r="B72" t="str">
+          <cell r="B73" t="str">
             <v>貨幣</v>
           </cell>
         </row>
@@ -2592,10 +2600,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -2817,11 +2825,11 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -3120,19 +3128,37 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>105</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -240,9 +240,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,20 +284,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -283,9 +306,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,16 +322,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,22 +345,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,17 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,25 +392,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,19 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,19 +452,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +494,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,37 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,7 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,37 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,21 +583,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -625,35 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +650,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -691,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2600,13 +2600,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="16.7272727272727" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -2714,25 +2717,25 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2745,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2753,14 +2756,14 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>521</v>
+        <v>1</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>攻撃</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -2768,20 +2771,20 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>521</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ダークネス</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2789,35 +2792,35 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>攻撃</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2825,14 +2828,14 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>403</v>
+        <v>1</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>攻撃</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -2840,25 +2843,25 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2876,7 +2879,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2894,7 +2897,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2907,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2915,40 +2918,40 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>攻撃</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2966,7 +2969,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2979,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2987,35 +2990,35 @@
         <v>101</v>
       </c>
       <c r="B22">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>攻撃</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3023,11 +3026,11 @@
         <v>102</v>
       </c>
       <c r="B24">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>攻撃</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3038,20 +3041,20 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3059,17 +3062,17 @@
         <v>103</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>攻撃</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3077,11 +3080,11 @@
         <v>103</v>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3092,20 +3095,20 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3113,17 +3116,17 @@
         <v>104</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>攻撃</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3131,35 +3134,71 @@
         <v>104</v>
       </c>
       <c r="B30">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>105</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>100</v>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>105</v>
+      </c>
+      <c r="B33">
+        <v>404</v>
+      </c>
+      <c r="C33" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
+        <v>べネディクション</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3171,13 +3210,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -3360,6 +3399,29 @@
         <v>1</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>404</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -227,8 +227,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -240,21 +240,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,16 +284,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,9 +312,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +337,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,45 +351,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -369,7 +361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +374,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -389,18 +389,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -416,7 +404,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,13 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,13 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +476,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,49 +512,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,43 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +583,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,26 +634,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,30 +678,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -691,7 +691,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,7 +700,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,127 +709,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1796,7 +1796,7 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2600,10 +2600,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -2640,30 +2640,30 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="C3" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B3,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2720,14 +2720,14 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>攻撃</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -2735,25 +2735,25 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B8,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2766,19 +2766,19 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>521</v>
+        <v>404</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>べネディクション</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2802,30 +2802,30 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>301</v>
+        <v>521</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>ダークネス</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2838,30 +2838,30 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>403</v>
+        <v>301</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2874,30 +2874,30 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2928,30 +2928,30 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>攻撃</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2964,30 +2964,30 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>421</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3000,30 +3000,30 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>攻撃</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3036,33 +3036,33 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
@@ -3072,25 +3072,25 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3098,53 +3098,53 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>攻撃</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
+        <v>103</v>
+      </c>
+      <c r="B29">
         <v>104</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3152,52 +3152,88 @@
         <v>104</v>
       </c>
       <c r="B31">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>攻撃</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>105</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B34,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>404</v>
+      </c>
+      <c r="C35" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B35,[1]TextData!A:A))</f>
         <v>べネディクション</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>80</v>
       </c>
     </row>
@@ -3210,10 +3246,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -3243,10 +3279,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -3266,19 +3302,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3289,19 +3325,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3312,10 +3348,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -3335,19 +3371,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3364,13 +3400,13 @@
         <v>104</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3384,7 +3420,7 @@
         <v>103</v>
       </c>
       <c r="B8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -3396,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3404,24 +3440,47 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>105</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>404</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -226,9 +226,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -240,7 +240,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,23 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,73 +290,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,9 +309,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +346,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,7 +392,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +458,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,25 +500,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,13 +524,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,109 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,35 +586,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +608,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,26 +668,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,8 +678,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,497 +1006,657 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>105</v>
+            <v>111</v>
           </cell>
           <cell r="B12" t="str">
-            <v>プリディカメント</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>111</v>
+            <v>112</v>
           </cell>
           <cell r="B13" t="str">
-            <v>インフェルノ</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>112</v>
+            <v>121</v>
           </cell>
           <cell r="B14" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>メルトバースト</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>121</v>
+            <v>131</v>
           </cell>
           <cell r="B15" t="str">
-            <v>メルトバースト</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>201</v>
+            <v>132</v>
           </cell>
           <cell r="B16" t="str">
-            <v>ライトニングウェブ</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>202</v>
+            <v>133</v>
           </cell>
           <cell r="B17" t="str">
-            <v>シャープコード</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>203</v>
+            <v>134</v>
           </cell>
           <cell r="B18" t="str">
-            <v>ショックインパルス</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>204</v>
+            <v>141</v>
           </cell>
           <cell r="B19" t="str">
-            <v>トラストチェイン</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>205</v>
+            <v>201</v>
           </cell>
           <cell r="B20" t="str">
-            <v>スパークフォグ</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>211</v>
+            <v>202</v>
           </cell>
           <cell r="B21" t="str">
-            <v>ステップリーダー</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>212</v>
+            <v>203</v>
           </cell>
           <cell r="B22" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>221</v>
+            <v>204</v>
           </cell>
           <cell r="B23" t="str">
-            <v>アクセラレイト</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>231</v>
+            <v>211</v>
           </cell>
           <cell r="B24" t="str">
-            <v>エクステンション</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>301</v>
+            <v>212</v>
           </cell>
           <cell r="B25" t="str">
-            <v>カウンターオーラ</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>302</v>
+            <v>221</v>
           </cell>
           <cell r="B26" t="str">
-            <v>シールドスペル</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>303</v>
+            <v>231</v>
           </cell>
           <cell r="B27" t="str">
-            <v>エスコートソール</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>304</v>
+            <v>232</v>
           </cell>
           <cell r="B28" t="str">
-            <v>スペルバニッシュ</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>305</v>
+            <v>233</v>
           </cell>
           <cell r="B29" t="str">
-            <v>ガーディアンソウル</v>
+            <v>スウィートボイス</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>311</v>
+            <v>234</v>
           </cell>
           <cell r="B30" t="str">
-            <v>フリジットシェル</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>312</v>
+            <v>235</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>321</v>
+            <v>241</v>
           </cell>
           <cell r="B32" t="str">
-            <v>バブルブロウ</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>401</v>
+            <v>301</v>
           </cell>
           <cell r="B33" t="str">
-            <v>ペネトレイト</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>402</v>
+            <v>302</v>
           </cell>
           <cell r="B34" t="str">
-            <v>ヒーリング</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>403</v>
+            <v>303</v>
           </cell>
           <cell r="B35" t="str">
-            <v>リフレッシュ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>404</v>
+            <v>304</v>
           </cell>
           <cell r="B36" t="str">
-            <v>べネディクション</v>
+            <v>スペルバニッシュ</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>405</v>
+            <v>311</v>
           </cell>
           <cell r="B37" t="str">
-            <v>ディバインシールド</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>411</v>
+            <v>312</v>
           </cell>
           <cell r="B38" t="str">
-            <v>エリクシール</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>412</v>
+            <v>321</v>
           </cell>
           <cell r="B39" t="str">
-            <v>エンジェルフェザー</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>421</v>
+            <v>331</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ホーリーグレイス</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>501</v>
+            <v>332</v>
           </cell>
           <cell r="B41" t="str">
-            <v>ユーサネイジア</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>502</v>
+            <v>333</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ドレインヒール</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>503</v>
+            <v>334</v>
           </cell>
           <cell r="B43" t="str">
-            <v>デリートマジック</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>504</v>
+            <v>341</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ディプラヴィティ</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>505</v>
+            <v>401</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>511</v>
+            <v>402</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ディストラクション</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>512</v>
+            <v>403</v>
           </cell>
           <cell r="B47" t="str">
-            <v>カオスペイン</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>521</v>
+            <v>404</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ダークネス</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>1000</v>
+            <v>411</v>
           </cell>
           <cell r="B49" t="str">
-            <v>愚者</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>1001</v>
+            <v>412</v>
           </cell>
           <cell r="B50" t="str">
-            <v>魔術師</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>1002</v>
+            <v>421</v>
           </cell>
           <cell r="B51" t="str">
-            <v>女帝</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>1003</v>
+            <v>431</v>
           </cell>
           <cell r="B52" t="str">
-            <v>女教皇</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>1004</v>
+            <v>432</v>
           </cell>
           <cell r="B53" t="str">
-            <v>皇帝</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>1005</v>
+            <v>433</v>
           </cell>
           <cell r="B54" t="str">
-            <v>法王</v>
+            <v>アフェクション</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>1006</v>
+            <v>434</v>
           </cell>
           <cell r="B55" t="str">
-            <v>恋愛</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>1007</v>
+            <v>441</v>
           </cell>
           <cell r="B56" t="str">
-            <v>戦車</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>1008</v>
+            <v>501</v>
           </cell>
           <cell r="B57" t="str">
-            <v>正義</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>1009</v>
+            <v>502</v>
           </cell>
           <cell r="B58" t="str">
-            <v>隠者</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>1010</v>
+            <v>503</v>
           </cell>
           <cell r="B59" t="str">
-            <v>運命</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>1011</v>
+            <v>504</v>
           </cell>
           <cell r="B60" t="str">
-            <v>剛毅</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>1012</v>
+            <v>511</v>
           </cell>
           <cell r="B61" t="str">
-            <v>刑死者</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>1013</v>
+            <v>512</v>
           </cell>
           <cell r="B62" t="str">
-            <v>死神</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>1014</v>
+            <v>521</v>
           </cell>
           <cell r="B63" t="str">
-            <v>節制</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>1015</v>
+            <v>531</v>
           </cell>
           <cell r="B64" t="str">
-            <v>悪魔</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>1016</v>
+            <v>532</v>
           </cell>
           <cell r="B65" t="str">
-            <v>塔</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>1017</v>
+            <v>533</v>
           </cell>
           <cell r="B66" t="str">
-            <v>星</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>1018</v>
+            <v>534</v>
           </cell>
           <cell r="B67" t="str">
-            <v>月</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>1019</v>
+            <v>541</v>
           </cell>
           <cell r="B68" t="str">
-            <v>太陽</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>1020</v>
+            <v>1000</v>
           </cell>
           <cell r="B69" t="str">
-            <v>審判</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>1022</v>
+            <v>1001</v>
           </cell>
           <cell r="B70" t="str">
-            <v>杖</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>1023</v>
+            <v>1002</v>
           </cell>
           <cell r="B71" t="str">
-            <v>器</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>1024</v>
+            <v>1003</v>
           </cell>
           <cell r="B72" t="str">
-            <v>剣</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
+            <v>1004</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>皇帝</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>1005</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>法王</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>1006</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>恋愛</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>1007</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>戦車</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>1008</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>正義</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>1009</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>隠者</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>1010</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>運命</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>1011</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>剛毅</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>1012</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>刑死者</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>1013</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>死神</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>1014</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>節制</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>1015</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>悪魔</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>1016</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>塔</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>1017</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>星</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>1018</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>月</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>1019</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>太陽</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>1020</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>審判</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>1022</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>杖</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>1023</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>器</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>1024</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
             <v>1025</v>
           </cell>
-          <cell r="B73" t="str">
+          <cell r="B93" t="str">
             <v>貨幣</v>
           </cell>
         </row>
@@ -1797,7 +1957,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2600,10 +2760,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -2648,14 +2808,14 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>321</v>
+        <v>2</v>
       </c>
       <c r="C3" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B3,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>攻撃</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2663,25 +2823,25 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>321</v>
       </c>
       <c r="C4" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B4,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2699,17 +2859,17 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B6,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2717,7 +2877,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2730,30 +2890,30 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B8,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>攻撃</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2771,61 +2931,61 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>攻撃</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ウルフソウル</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>521</v>
+        <v>132</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2838,40 +2998,40 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>301</v>
+        <v>2</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>攻撃</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -2879,35 +3039,35 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>403</v>
+        <v>1</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>攻撃</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2915,25 +3075,25 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>べネディクション</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2946,48 +3106,48 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>421</v>
+        <v>521</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ダークネス</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3000,76 +3160,76 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>攻撃</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -3077,17 +3237,17 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>ヒートスタンプ</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>50</v>
@@ -3095,10 +3255,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
@@ -3108,102 +3268,102 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>攻撃</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>攻撃</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
         <v>攻撃</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>攻撃</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>攻撃</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3221,19 +3381,379 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B35,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>421</v>
+      </c>
+      <c r="C36" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B36,[1]TextData!A:A))</f>
+        <v>ホーリーグレイス</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B37,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B38,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>403</v>
+      </c>
+      <c r="C39" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
+        <v>リフレッシュ</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B40,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>104</v>
+      </c>
+      <c r="C42" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>133</v>
+      </c>
+      <c r="C43" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B43,[1]TextData!A:A))</f>
+        <v>アサルトシフト</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>101</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B44,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>101</v>
+      </c>
+      <c r="B45">
+        <v>321</v>
+      </c>
+      <c r="C45" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B45,[1]TextData!A:A))</f>
+        <v>バブルブロウ</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B46,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>102</v>
+      </c>
+      <c r="B47">
+        <v>221</v>
+      </c>
+      <c r="C47" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B47,[1]TextData!A:A))</f>
+        <v>アクセラレイト</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>103</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>103</v>
+      </c>
+      <c r="B49">
+        <v>104</v>
+      </c>
+      <c r="C49" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>103</v>
+      </c>
+      <c r="B50">
+        <v>102</v>
+      </c>
+      <c r="C50" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
+        <v>バーンストーム</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>104</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B51,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>104</v>
+      </c>
+      <c r="B52">
+        <v>121</v>
+      </c>
+      <c r="C52" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
+        <v>メルトバースト</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>104</v>
+      </c>
+      <c r="B53">
+        <v>231</v>
+      </c>
+      <c r="C53" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>105</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B54,[1]TextData!A:A))</f>
+        <v>攻撃</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>105</v>
+      </c>
+      <c r="B55">
+        <v>404</v>
+      </c>
+      <c r="C55" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B55,[1]TextData!A:A))</f>
         <v>べネディクション</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
         <v>80</v>
       </c>
     </row>
@@ -3246,10 +3766,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -3279,19 +3799,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3302,19 +3822,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>402</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3325,19 +3845,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3348,19 +3868,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3371,19 +3891,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>221</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3394,19 +3914,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3417,19 +3937,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3440,22 +3960,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -3463,24 +3983,323 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>421</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>321</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19">
+        <v>221</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>103</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>103</v>
+      </c>
+      <c r="B21">
+        <v>104</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
         <v>105</v>
       </c>
-      <c r="B10">
+      <c r="B23">
         <v>404</v>
       </c>
-      <c r="C10">
+      <c r="C23">
         <v>22</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -253,14 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -269,86 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,6 +283,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -376,8 +375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,7 +392,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +440,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,43 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,103 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,13 +586,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,32 +634,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,11 +669,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
             <v>201</v>
           </cell>
           <cell r="B20" t="str">
-            <v>ライトニングウェブ</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="21">
@@ -1081,7 +1081,7 @@
             <v>202</v>
           </cell>
           <cell r="B21" t="str">
-            <v>シャープコード</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="22">
@@ -1089,7 +1089,7 @@
             <v>203</v>
           </cell>
           <cell r="B22" t="str">
-            <v>ショックインパルス</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="23">
@@ -1097,566 +1097,598 @@
             <v>204</v>
           </cell>
           <cell r="B23" t="str">
-            <v>トラストチェイン</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>211</v>
+            <v>205</v>
           </cell>
           <cell r="B24" t="str">
-            <v>ステップリーダー</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>212</v>
+            <v>211</v>
           </cell>
           <cell r="B25" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>221</v>
+            <v>212</v>
           </cell>
           <cell r="B26" t="str">
-            <v>アクセラレイト</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>231</v>
+            <v>221</v>
           </cell>
           <cell r="B27" t="str">
-            <v>エクステンション</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>232</v>
+            <v>231</v>
           </cell>
           <cell r="B28" t="str">
-            <v>スパークフォグ</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>233</v>
+            <v>232</v>
           </cell>
           <cell r="B29" t="str">
-            <v>スウィートボイス</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>234</v>
+            <v>233</v>
           </cell>
           <cell r="B30" t="str">
-            <v>ファストキャスター</v>
+            <v>スウィートボイス</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>235</v>
+            <v>234</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ヘブンリーラック</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>241</v>
+            <v>235</v>
           </cell>
           <cell r="B32" t="str">
-            <v>サンダーエンチャント</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>301</v>
+            <v>241</v>
           </cell>
           <cell r="B33" t="str">
-            <v>カウンターオーラ</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>302</v>
+            <v>301</v>
           </cell>
           <cell r="B34" t="str">
-            <v>シールドスペル</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>303</v>
+            <v>302</v>
           </cell>
           <cell r="B35" t="str">
-            <v>エスコートソール</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>304</v>
+            <v>303</v>
           </cell>
           <cell r="B36" t="str">
-            <v>スペルバニッシュ</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>311</v>
+            <v>304</v>
           </cell>
           <cell r="B37" t="str">
-            <v>フリジットシェル</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>312</v>
+            <v>305</v>
           </cell>
           <cell r="B38" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>スペルバニッシュ</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>321</v>
+            <v>311</v>
           </cell>
           <cell r="B39" t="str">
-            <v>バブルブロウ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>331</v>
+            <v>312</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ガーディアンソウル</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>332</v>
+            <v>321</v>
           </cell>
           <cell r="B41" t="str">
-            <v>アーマーコード</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>333</v>
+            <v>331</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ガードシフト</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>334</v>
+            <v>332</v>
           </cell>
           <cell r="B43" t="str">
-            <v>ノーリミット</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>341</v>
+            <v>333</v>
           </cell>
           <cell r="B44" t="str">
-            <v>アイスエンチャント</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>401</v>
+            <v>334</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ペネトレイト</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>402</v>
+            <v>341</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ヒーリング</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>403</v>
+            <v>401</v>
           </cell>
           <cell r="B47" t="str">
-            <v>リフレッシュ</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>404</v>
+            <v>402</v>
           </cell>
           <cell r="B48" t="str">
-            <v>べネディクション</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>411</v>
+            <v>403</v>
           </cell>
           <cell r="B49" t="str">
-            <v>エリクシール</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>412</v>
+            <v>404</v>
           </cell>
           <cell r="B50" t="str">
-            <v>エンジェルフェザー</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>421</v>
+            <v>405</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ホーリーグレイス</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>431</v>
+            <v>411</v>
           </cell>
           <cell r="B52" t="str">
-            <v>ディバインシールド</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>432</v>
+            <v>412</v>
           </cell>
           <cell r="B53" t="str">
-            <v>メディケーション</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>433</v>
+            <v>421</v>
           </cell>
           <cell r="B54" t="str">
-            <v>アフェクション</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>434</v>
+            <v>431</v>
           </cell>
           <cell r="B55" t="str">
-            <v>リジェネレーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>441</v>
+            <v>432</v>
           </cell>
           <cell r="B56" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>501</v>
+            <v>433</v>
           </cell>
           <cell r="B57" t="str">
-            <v>ユーサネイジア</v>
+            <v>アフェクション</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>502</v>
+            <v>434</v>
           </cell>
           <cell r="B58" t="str">
-            <v>ドレインヒール</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>503</v>
+            <v>441</v>
           </cell>
           <cell r="B59" t="str">
-            <v>デリートマジック</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>504</v>
+            <v>501</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>511</v>
+            <v>502</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ディストラクション</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>512</v>
+            <v>503</v>
           </cell>
           <cell r="B62" t="str">
-            <v>カオスペイン</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>521</v>
+            <v>504</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ダークネス</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>531</v>
+            <v>505</v>
           </cell>
           <cell r="B64" t="str">
-            <v>イーグルアイ</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>532</v>
+            <v>511</v>
           </cell>
           <cell r="B65" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>533</v>
+            <v>512</v>
           </cell>
           <cell r="B66" t="str">
-            <v>ネガティブドレイン</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>534</v>
+            <v>521</v>
           </cell>
           <cell r="B67" t="str">
-            <v>スカルグラッジ</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>541</v>
+            <v>531</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ダークエンチャント</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>1000</v>
+            <v>532</v>
           </cell>
           <cell r="B69" t="str">
-            <v>愚者</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>1001</v>
+            <v>533</v>
           </cell>
           <cell r="B70" t="str">
-            <v>魔術師</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>1002</v>
+            <v>534</v>
           </cell>
           <cell r="B71" t="str">
-            <v>女帝</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>1003</v>
+            <v>541</v>
           </cell>
           <cell r="B72" t="str">
-            <v>女教皇</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>1004</v>
+            <v>1000</v>
           </cell>
           <cell r="B73" t="str">
-            <v>皇帝</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>1005</v>
+            <v>1001</v>
           </cell>
           <cell r="B74" t="str">
-            <v>法王</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>1006</v>
+            <v>1002</v>
           </cell>
           <cell r="B75" t="str">
-            <v>恋愛</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>1007</v>
+            <v>1003</v>
           </cell>
           <cell r="B76" t="str">
-            <v>戦車</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>1008</v>
+            <v>1004</v>
           </cell>
           <cell r="B77" t="str">
-            <v>正義</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>1009</v>
+            <v>1005</v>
           </cell>
           <cell r="B78" t="str">
-            <v>隠者</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>1010</v>
+            <v>1006</v>
           </cell>
           <cell r="B79" t="str">
-            <v>運命</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>1011</v>
+            <v>1007</v>
           </cell>
           <cell r="B80" t="str">
-            <v>剛毅</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>1012</v>
+            <v>1008</v>
           </cell>
           <cell r="B81" t="str">
-            <v>刑死者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>1013</v>
+            <v>1009</v>
           </cell>
           <cell r="B82" t="str">
-            <v>死神</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>1014</v>
+            <v>1010</v>
           </cell>
           <cell r="B83" t="str">
-            <v>節制</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>1015</v>
+            <v>1011</v>
           </cell>
           <cell r="B84" t="str">
-            <v>悪魔</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>1016</v>
+            <v>1012</v>
           </cell>
           <cell r="B85" t="str">
-            <v>塔</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1017</v>
+            <v>1013</v>
           </cell>
           <cell r="B86" t="str">
-            <v>星</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1018</v>
+            <v>1014</v>
           </cell>
           <cell r="B87" t="str">
-            <v>月</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1019</v>
+            <v>1015</v>
           </cell>
           <cell r="B88" t="str">
-            <v>太陽</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1020</v>
+            <v>1016</v>
           </cell>
           <cell r="B89" t="str">
-            <v>審判</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1022</v>
+            <v>1017</v>
           </cell>
           <cell r="B90" t="str">
-            <v>杖</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1023</v>
+            <v>1018</v>
           </cell>
           <cell r="B91" t="str">
-            <v>器</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1024</v>
+            <v>1019</v>
           </cell>
           <cell r="B92" t="str">
-            <v>剣</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
+            <v>1020</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>審判</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>1022</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>杖</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>1023</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>器</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>1024</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
             <v>1025</v>
           </cell>
-          <cell r="B93" t="str">
+          <cell r="B97" t="str">
             <v>貨幣</v>
           </cell>
         </row>
@@ -1956,7 +1988,7 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
@@ -2762,8 +2794,8 @@
   <sheetPr/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3024,7 +3056,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
@@ -3078,7 +3110,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
@@ -3186,7 +3218,7 @@
         <v>8</v>
       </c>
       <c r="B24">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
@@ -3456,7 +3488,7 @@
         <v>14</v>
       </c>
       <c r="B39">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
@@ -3744,7 +3776,7 @@
         <v>105</v>
       </c>
       <c r="B55">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B55,[1]TextData!A:A))</f>
@@ -3769,7 +3801,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -3940,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -4285,7 +4317,7 @@
         <v>105</v>
       </c>
       <c r="B23">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C23">
         <v>22</v>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -239,6 +239,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -246,6 +268,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -262,122 +377,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,7 +392,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,25 +500,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,133 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,26 +586,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,6 +610,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -636,11 +636,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,24 +675,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,145 +691,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1988,8 +1988,8 @@
   <sheetPr/>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2481,7 +2481,7 @@
         <v>23</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>11</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2794,8 +2794,8 @@
   <sheetPr/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -2847,7 +2847,7 @@
         <v>攻撃</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -2865,7 +2865,7 @@
         <v>バブルブロウ</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2901,7 +2901,7 @@
         <v>攻撃</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2937,7 +2937,7 @@
         <v>攻撃</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2973,7 +2973,7 @@
         <v>攻撃</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -3045,7 +3045,7 @@
         <v>攻撃</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -3099,7 +3099,7 @@
         <v>攻撃</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -3153,7 +3153,7 @@
         <v>攻撃</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -3207,7 +3207,7 @@
         <v>攻撃</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>25</v>
@@ -3261,7 +3261,7 @@
         <v>攻撃</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -3315,7 +3315,7 @@
         <v>攻撃</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -3351,7 +3351,7 @@
         <v>攻撃</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -3387,7 +3387,7 @@
         <v>攻撃</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -3423,7 +3423,7 @@
         <v>攻撃</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -3477,7 +3477,7 @@
         <v>攻撃</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E38">
         <v>50</v>
@@ -3531,7 +3531,7 @@
         <v>攻撃</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>50</v>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -239,16 +239,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,24 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,46 +291,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +321,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -360,24 +336,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,25 +392,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,13 +440,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,49 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,19 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,37 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,15 +586,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -606,30 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,6 +642,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -691,16 +691,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,127 +709,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1690,6 +1690,54 @@
           </cell>
           <cell r="B97" t="str">
             <v>貨幣</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>2001</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>元素術・炎</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>2002</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>元素術・雷</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>2003</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>元素術・氷</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>2004</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>光魔術</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>2005</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>2009</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>はずす</v>
           </cell>
         </row>
       </sheetData>
@@ -1989,7 +2037,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2795,7 +2843,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,9 +314,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,21 +330,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,17 +343,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,20 +367,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,8 +386,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,17 +404,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,7 +419,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -452,7 +436,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,13 +467,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +527,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,97 +581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,13 +605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,25 +629,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,21 +662,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -687,17 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,6 +696,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +747,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2471,7 +2471,7 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -3792,10 +3792,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A141" sqref="$A141:$XFD141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -6324,11 +6324,11 @@
         <v>207</v>
       </c>
       <c r="B141">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B141,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>セメタリーコール</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6342,11 +6342,11 @@
         <v>207</v>
       </c>
       <c r="B142">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B142,[1]TextData!A:A))</f>
-        <v>セメタリーコール</v>
+        <v>セルフカット</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6357,20 +6357,20 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="B143">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B143,[1]TextData!A:A))</f>
-        <v>セルフカット</v>
+        <v>攻撃</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6378,17 +6378,17 @@
         <v>301</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>601</v>
       </c>
       <c r="C144" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B144,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -6396,35 +6396,35 @@
         <v>301</v>
       </c>
       <c r="B145">
-        <v>601</v>
+        <v>231</v>
       </c>
       <c r="C145" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B145,[1]TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
+        <v>エクステンション</v>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
       <c r="E145">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="B146">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="C146" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B146,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>攻撃</v>
       </c>
       <c r="D146">
         <v>1</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6432,17 +6432,17 @@
         <v>213</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="C147" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B147,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D147">
         <v>1</v>
       </c>
       <c r="E147">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6450,17 +6450,17 @@
         <v>213</v>
       </c>
       <c r="B148">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C148" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B148,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D148">
         <v>1</v>
       </c>
       <c r="E148">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6468,17 +6468,17 @@
         <v>213</v>
       </c>
       <c r="B149">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C149" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B149,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>アンチドード</v>
       </c>
       <c r="D149">
         <v>1</v>
       </c>
       <c r="E149">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6486,35 +6486,35 @@
         <v>213</v>
       </c>
       <c r="B150">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C150" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B150,[1]TextData!A:A))</f>
-        <v>アンチドード</v>
+        <v>コオリノセカイヘ</v>
       </c>
       <c r="D150">
         <v>1</v>
       </c>
       <c r="E150">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B151">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="C151" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B151,[1]TextData!A:A))</f>
-        <v>コオリノセカイヘ</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D151">
         <v>1</v>
       </c>
       <c r="E151">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6522,11 +6522,11 @@
         <v>214</v>
       </c>
       <c r="B152">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="C152" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B152,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -6540,11 +6540,11 @@
         <v>214</v>
       </c>
       <c r="B153">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="C153" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B153,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>ブレークザウォール</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6558,17 +6558,17 @@
         <v>214</v>
       </c>
       <c r="B154">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C154" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B154,[1]TextData!A:A))</f>
-        <v>ブレークザウォール</v>
+        <v>トリニティレイ</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6576,17 +6576,17 @@
         <v>214</v>
       </c>
       <c r="B155">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="C155" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B155,[1]TextData!A:A))</f>
-        <v>トリニティレイ</v>
+        <v>スペリオール</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6594,17 +6594,17 @@
         <v>214</v>
       </c>
       <c r="B156">
-        <v>438</v>
+        <v>231</v>
       </c>
       <c r="C156" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B156,[1]TextData!A:A))</f>
-        <v>スペリオール</v>
+        <v>エクステンション</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6612,17 +6612,17 @@
         <v>214</v>
       </c>
       <c r="B157">
-        <v>231</v>
+        <v>422</v>
       </c>
       <c r="C157" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B157,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>プリズムリフレクター</v>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6630,11 +6630,11 @@
         <v>214</v>
       </c>
       <c r="B158">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C158" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B158,[1]TextData!A:A))</f>
-        <v>プリズムリフレクター</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -6648,34 +6648,16 @@
         <v>214</v>
       </c>
       <c r="B159">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C159" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B159,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="E159">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160">
-        <v>214</v>
-      </c>
-      <c r="B160">
-        <v>437</v>
-      </c>
-      <c r="C160" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B160,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-      <c r="E160">
         <v>30</v>
       </c>
     </row>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -130,12 +130,12 @@
     <t>Paimon</t>
   </si>
   <si>
+    <t>Byakhee</t>
+  </si>
+  <si>
     <t>Polyp</t>
   </si>
   <si>
-    <t>Byakhee</t>
-  </si>
-  <si>
     <t>Eihort</t>
   </si>
   <si>
@@ -259,10 +259,10 @@
     <t>パイモン</t>
   </si>
   <si>
+    <t>ビヤーキー</t>
+  </si>
+  <si>
     <t>ポリプ</t>
-  </si>
-  <si>
-    <t>ビヤーキー</t>
   </si>
   <si>
     <t>アイホート</t>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,8 +314,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,13 +345,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,15 +359,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,24 +395,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,17 +421,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,31 +452,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,13 +503,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +569,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,97 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -693,24 +702,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +729,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -747,17 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2471,8 +2471,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3752,7 +3752,7 @@
         <v>301</v>
       </c>
       <c r="B35">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -3794,8 +3794,8 @@
   <sheetPr/>
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A141" sqref="$A141:$XFD141"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A90" sqref="$A90:$XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -5424,11 +5424,11 @@
         <v>106</v>
       </c>
       <c r="B91">
-        <v>522</v>
+        <v>205</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>シェイディークラウド</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -5460,11 +5460,11 @@
         <v>107</v>
       </c>
       <c r="B93">
-        <v>205</v>
+        <v>522</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>シェイディークラウド</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -6673,7 +6673,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -7347,7 +7347,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <v>522</v>
@@ -7517,8 +7517,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -301,8 +301,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -314,9 +314,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,14 +343,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,23 +357,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,17 +381,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,11 +403,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,10 +418,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,7 +436,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,19 +467,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,19 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,13 +569,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,13 +599,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,43 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,13 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,15 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,11 +693,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,21 +733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -758,6 +747,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,16 +766,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,124 +787,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2471,8 +2471,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2537,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -2575,7 +2575,7 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -2613,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -2651,7 +2651,7 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -2689,7 +2689,7 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -2765,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -2803,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -2841,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -2879,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2917,7 +2917,7 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -2955,7 +2955,7 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -2993,7 +2993,7 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -3031,7 +3031,7 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -3069,7 +3069,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -3107,7 +3107,7 @@
         <v>20</v>
       </c>
       <c r="F17">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>20</v>
@@ -3142,7 +3142,7 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -3177,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -3212,7 +3212,7 @@
         <v>20</v>
       </c>
       <c r="F20">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -3247,7 +3247,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -3282,7 +3282,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -3317,7 +3317,7 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -3352,7 +3352,7 @@
         <v>20</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -3387,7 +3387,7 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>20</v>
@@ -3422,7 +3422,7 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -3460,7 +3460,7 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>20</v>
@@ -3498,7 +3498,7 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -3536,7 +3536,7 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>20</v>
@@ -3574,7 +3574,7 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>20</v>
@@ -3612,7 +3612,7 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -3650,7 +3650,7 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -3688,7 +3688,7 @@
         <v>40</v>
       </c>
       <c r="F33">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>20</v>
@@ -3726,7 +3726,7 @@
         <v>40</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>20</v>
@@ -3764,7 +3764,7 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>20</v>
@@ -3792,10 +3792,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A90" sqref="$A90:$XFD91"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3822,11 +3822,11 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="C2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B2,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3840,17 +3840,17 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C3" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B3,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3858,17 +3858,17 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C4" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B4,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3876,14 +3876,14 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="C5" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B5,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>ガードシフト</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -3891,20 +3891,20 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>333</v>
+        <v>501</v>
       </c>
       <c r="C6" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B6,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3912,11 +3912,11 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3930,11 +3930,11 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B8,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3948,14 +3948,14 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>503</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>ドレインヒール</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3966,14 +3966,14 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>504</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>デリートマジック</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -3981,38 +3981,38 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>503</v>
+        <v>201</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>ドレインヒール</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>504</v>
+        <v>203</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>デリートマジック</v>
+        <v>シャープコード</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4020,14 +4020,14 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ヘブンリーラック</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -4035,17 +4035,17 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -4053,14 +4053,14 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
-        <v>シャープコード</v>
+        <v>ウルフソウル</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -4071,14 +4071,14 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -4092,14 +4092,14 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>スタートダッシュ</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -4107,125 +4107,125 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>スウィフトカレント</v>
       </c>
       <c r="D20">
         <v>10</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
-        <v>スタートダッシュ</v>
+        <v>クイックアクト</v>
       </c>
       <c r="D21">
         <v>15</v>
       </c>
       <c r="E21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>405</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>べネディクション</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>204</v>
+        <v>403</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -4233,17 +4233,17 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>233</v>
+        <v>501</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>スウィフトカレント</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -4251,17 +4251,17 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>236</v>
+        <v>521</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
-        <v>クイックアクト</v>
+        <v>ダークネス</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -4269,125 +4269,125 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>531</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>532</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ネヴァーエンド</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>405</v>
+        <v>301</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>403</v>
+        <v>302</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>333</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ガードシフト</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>334</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ノーリミット</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>521</v>
+        <v>101</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>50</v>
@@ -4395,35 +4395,35 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>531</v>
+        <v>103</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B34,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>ヒートスタンプ</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>532</v>
+        <v>133</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B35,[1]TextData!A:A))</f>
-        <v>ネヴァーエンド</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>50</v>
@@ -4431,233 +4431,233 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B36,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E36">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>201</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B37,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B38,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>エクステンション</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
+        <v>クイックアクト</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E39">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>334</v>
+        <v>205</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B40,[1]TextData!A:A))</f>
-        <v>ノーリミット</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ファストキャスター</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>301</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B43,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>エスコートソール</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B44,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>アーマーコード</v>
       </c>
       <c r="D44">
         <v>10</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>121</v>
+        <v>501</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B45,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B46,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B47,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>231</v>
+        <v>531</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -4665,230 +4665,230 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>236</v>
+        <v>534</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
-        <v>クイックアクト</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>205</v>
+        <v>401</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B51,[1]TextData!A:A))</f>
-        <v>ファストキャスター</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>436</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>スペクトルマイン</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B54,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>アンデッド</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B55,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>41</v>
+        <v>403</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>42</v>
+        <v>433</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B58,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>エイミングスコープ</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D60">
         <v>5</v>
       </c>
       <c r="E60">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -4899,71 +4899,71 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B64">
-        <v>421</v>
+        <v>201</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B64,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="B65">
-        <v>436</v>
+        <v>221</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
-        <v>スペクトルマイン</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>50</v>
@@ -4971,125 +4971,125 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B67">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B68">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B70">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>エクステンション</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B71">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B72">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
-        <v>エイミングスコープ</v>
+        <v>べネディクション</v>
       </c>
       <c r="D72">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>80</v>
@@ -5097,14 +5097,14 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5115,17 +5115,17 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>50</v>
@@ -5133,158 +5133,158 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B75">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B76">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B78">
-        <v>321</v>
+        <v>522</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>シェイディークラウド</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B80">
-        <v>221</v>
+        <v>505</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アンデッド</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B82">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -5295,14 +5295,14 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B84">
-        <v>121</v>
+        <v>322</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B85">
         <v>231</v>
@@ -5331,50 +5331,50 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B87">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>アンデッド</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B88">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5385,554 +5385,554 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B89">
-        <v>42</v>
+        <v>533</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="B91">
-        <v>205</v>
+        <v>511</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>512</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="B93">
-        <v>522</v>
+        <v>201</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>シェイディークラウド</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="B95">
-        <v>505</v>
+        <v>211</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>ステップリーダー</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="B96">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>ユビサキデカラメトル</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="B97">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>302</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B99">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B100">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B102">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B103">
-        <v>42</v>
+        <v>434</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B104">
-        <v>533</v>
+        <v>411</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>エリクシール</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B105">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B106">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B107">
-        <v>512</v>
+        <v>231</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>エクステンション</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>べネディクション</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B109">
-        <v>202</v>
+        <v>421</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B110">
-        <v>211</v>
+        <v>437</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B111">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B113">
-        <v>302</v>
+        <v>111</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>インフェルノ</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B114">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>スベテモヤシツクス</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B115">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>エクステンション</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B116">
-        <v>312</v>
+        <v>201</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>リフレクセス</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B118">
-        <v>434</v>
+        <v>213</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>フルバースト</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B119">
-        <v>411</v>
+        <v>214</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>コウソクテンショウ</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5943,32 +5943,32 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B120">
-        <v>412</v>
+        <v>231</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>エクステンション</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B121">
-        <v>431</v>
+        <v>501</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5979,151 +5979,151 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B122">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B122,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>アンデッド</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B123">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B123,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>アンデッド回復</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B124">
-        <v>421</v>
+        <v>505</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B125">
-        <v>437</v>
+        <v>534</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>513</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>セメタリーコール</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B127">
-        <v>102</v>
+        <v>514</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>セルフカット</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B128">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B129">
-        <v>112</v>
+        <v>601</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B130">
         <v>231</v>
@@ -6141,104 +6141,104 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B132">
-        <v>222</v>
+        <v>305</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B132,[1]TextData!A:A))</f>
-        <v>リフレクセス</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D132">
         <v>1</v>
       </c>
       <c r="E132">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B133">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B133,[1]TextData!A:A))</f>
-        <v>フルバースト</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D133">
         <v>1</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B134">
-        <v>214</v>
+        <v>313</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
-        <v>コウソクテンショウ</v>
+        <v>アンチドード</v>
       </c>
       <c r="D134">
         <v>1</v>
       </c>
       <c r="E134">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B135">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B135,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>コオリノセカイヘ</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B136,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -6249,50 +6249,50 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B137">
-        <v>41</v>
+        <v>434</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
       <c r="E137">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B138">
-        <v>42</v>
+        <v>413</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B138,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>ブレークザウォール</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B139">
-        <v>505</v>
+        <v>414</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B139,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>トリニティレイ</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6303,50 +6303,50 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B140">
-        <v>534</v>
+        <v>438</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B140,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>スペリオール</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B141">
-        <v>513</v>
+        <v>231</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B141,[1]TextData!A:A))</f>
-        <v>セメタリーコール</v>
+        <v>エクステンション</v>
       </c>
       <c r="D141">
         <v>1</v>
       </c>
       <c r="E141">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B142">
-        <v>514</v>
+        <v>422</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B142,[1]TextData!A:A))</f>
-        <v>セルフカット</v>
+        <v>プリズムリフレクター</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6357,307 +6357,37 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>421</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B143,[1]TextData!A:A))</f>
-        <v>攻撃</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="B144">
-        <v>601</v>
+        <v>437</v>
       </c>
       <c r="C144" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B144,[1]TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D144">
         <v>1</v>
       </c>
       <c r="E144">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145">
-        <v>301</v>
-      </c>
-      <c r="B145">
-        <v>231</v>
-      </c>
-      <c r="C145" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B145,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146">
-        <v>213</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B146,[1]TextData!A:A))</f>
-        <v>攻撃</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147">
-        <v>213</v>
-      </c>
-      <c r="B147">
-        <v>305</v>
-      </c>
-      <c r="C147" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B147,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148">
-        <v>213</v>
-      </c>
-      <c r="B148">
-        <v>322</v>
-      </c>
-      <c r="C148" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B148,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149">
-        <v>213</v>
-      </c>
-      <c r="B149">
-        <v>313</v>
-      </c>
-      <c r="C149" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B149,[1]TextData!A:A))</f>
-        <v>アンチドード</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150">
-        <v>213</v>
-      </c>
-      <c r="B150">
-        <v>314</v>
-      </c>
-      <c r="C150" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B150,[1]TextData!A:A))</f>
-        <v>コオリノセカイヘ</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151">
-        <v>214</v>
-      </c>
-      <c r="B151">
-        <v>401</v>
-      </c>
-      <c r="C151" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B151,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152">
-        <v>214</v>
-      </c>
-      <c r="B152">
-        <v>434</v>
-      </c>
-      <c r="C152" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B152,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153">
-        <v>214</v>
-      </c>
-      <c r="B153">
-        <v>413</v>
-      </c>
-      <c r="C153" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B153,[1]TextData!A:A))</f>
-        <v>ブレークザウォール</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154">
-        <v>214</v>
-      </c>
-      <c r="B154">
-        <v>414</v>
-      </c>
-      <c r="C154" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B154,[1]TextData!A:A))</f>
-        <v>トリニティレイ</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155">
-        <v>214</v>
-      </c>
-      <c r="B155">
-        <v>438</v>
-      </c>
-      <c r="C155" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B155,[1]TextData!A:A))</f>
-        <v>スペリオール</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156">
-        <v>214</v>
-      </c>
-      <c r="B156">
-        <v>231</v>
-      </c>
-      <c r="C156" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B156,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157">
-        <v>214</v>
-      </c>
-      <c r="B157">
-        <v>422</v>
-      </c>
-      <c r="C157" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B157,[1]TextData!A:A))</f>
-        <v>プリズムリフレクター</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158">
-        <v>214</v>
-      </c>
-      <c r="B158">
-        <v>421</v>
-      </c>
-      <c r="C158" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B158,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159">
-        <v>214</v>
-      </c>
-      <c r="B159">
-        <v>437</v>
-      </c>
-      <c r="C159" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B159,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159">
         <v>30</v>
       </c>
     </row>
@@ -7517,7 +7247,7 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,15 +300,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -328,8 +366,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,7 +389,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,32 +428,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,29 +439,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,23 +452,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,6 +464,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -479,37 +491,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,19 +515,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,13 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,13 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,19 +605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,19 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,6 +692,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,50 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,7 +766,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,7 +775,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,127 +784,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2471,8 +2471,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2537,7 +2537,7 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>11</v>
@@ -2575,7 +2575,7 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -2613,7 +2613,7 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -2651,7 +2651,7 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5">
         <v>8</v>
@@ -2689,7 +2689,7 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -2727,7 +2727,7 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -2765,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -2803,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -2841,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -2879,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2917,7 +2917,7 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>13</v>
@@ -2955,7 +2955,7 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>9</v>
@@ -2993,7 +2993,7 @@
         <v>20</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -3031,7 +3031,7 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -3069,7 +3069,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16">
         <v>10</v>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -311,6 +311,20 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,22 +337,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,36 +360,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,22 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -428,7 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +429,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -450,9 +444,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +467,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,37 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,97 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,19 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,26 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,9 +678,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,17 +741,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,23 +753,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,16 +766,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,127 +784,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>101</v>
+            <v>1010</v>
           </cell>
           <cell r="B11" t="str">
             <v>ファイアボール</v>
@@ -1081,7 +1081,7 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>102</v>
+            <v>1020</v>
           </cell>
           <cell r="B12" t="str">
             <v>バーンストーム</v>
@@ -1089,7 +1089,7 @@
         </row>
         <row r="13">
           <cell r="A13">
-            <v>103</v>
+            <v>1030</v>
           </cell>
           <cell r="B13" t="str">
             <v>ヒートスタンプ</v>
@@ -1097,7 +1097,7 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>104</v>
+            <v>1040</v>
           </cell>
           <cell r="B14" t="str">
             <v>ソードアダプト</v>
@@ -1105,1073 +1105,809 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>111</v>
+            <v>1050</v>
           </cell>
           <cell r="B15" t="str">
-            <v>インフェルノ</v>
+            <v>メルトバースト</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>112</v>
+            <v>2010</v>
           </cell>
           <cell r="B16" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>113</v>
+            <v>2020</v>
           </cell>
           <cell r="B17" t="str">
-            <v>アダプテーション</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>114</v>
+            <v>2030</v>
           </cell>
           <cell r="B18" t="str">
-            <v>モエサカルホノオ</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>121</v>
+            <v>2040</v>
           </cell>
           <cell r="B19" t="str">
-            <v>メルトバースト</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>131</v>
+            <v>2050</v>
           </cell>
           <cell r="B20" t="str">
-            <v>ウルフソウル</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>132</v>
+            <v>2060</v>
           </cell>
           <cell r="B21" t="str">
-            <v>プリディカメント</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>133</v>
+            <v>2070</v>
           </cell>
           <cell r="B22" t="str">
-            <v>アサルトシフト</v>
+            <v>リフレクセス</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>134</v>
+            <v>3010</v>
           </cell>
           <cell r="B23" t="str">
-            <v>スタートダッシュ</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>135</v>
+            <v>3020</v>
           </cell>
           <cell r="B24" t="str">
-            <v>ライズアップマインド</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>136</v>
+            <v>3030</v>
           </cell>
           <cell r="B25" t="str">
-            <v>イグナイテッド</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>137</v>
+            <v>3040</v>
           </cell>
           <cell r="B26" t="str">
-            <v>アフターバーナー</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>141</v>
+            <v>3050</v>
           </cell>
           <cell r="B27" t="str">
-            <v>ファイアエンチャント</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>201</v>
+            <v>3060</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ディスチャージ</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>202</v>
+            <v>3070</v>
           </cell>
           <cell r="B29" t="str">
-            <v>ライトニングウェブ</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>203</v>
+            <v>4010</v>
           </cell>
           <cell r="B30" t="str">
-            <v>シャープコード</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>204</v>
+            <v>4020</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ショックインパルス</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>205</v>
+            <v>4030</v>
           </cell>
           <cell r="B32" t="str">
-            <v>トラストチェイン</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>211</v>
+            <v>4040</v>
           </cell>
           <cell r="B33" t="str">
-            <v>ステップリーダー</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>212</v>
+            <v>4050</v>
           </cell>
           <cell r="B34" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>213</v>
+            <v>4060</v>
           </cell>
           <cell r="B35" t="str">
-            <v>フルバースト</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>214</v>
+            <v>4070</v>
           </cell>
           <cell r="B36" t="str">
-            <v>コウソクテンショウ</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>221</v>
+            <v>5010</v>
           </cell>
           <cell r="B37" t="str">
-            <v>アクセラレイト</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>222</v>
+            <v>5020</v>
           </cell>
           <cell r="B38" t="str">
-            <v>リフレクセス</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>231</v>
+            <v>5030</v>
           </cell>
           <cell r="B39" t="str">
-            <v>エクステンション</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>232</v>
+            <v>5040</v>
           </cell>
           <cell r="B40" t="str">
-            <v>スパークフォグ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>233</v>
+            <v>5050</v>
           </cell>
           <cell r="B41" t="str">
-            <v>スウィフトカレント</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>234</v>
+            <v>5060</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ファストキャスター</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>235</v>
+            <v>5070</v>
           </cell>
           <cell r="B43" t="str">
-            <v>ヘブンリーラック</v>
+            <v>シェイディークラウド</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>236</v>
+            <v>6010</v>
           </cell>
           <cell r="B44" t="str">
-            <v>クイックアクト</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>237</v>
+            <v>11010</v>
           </cell>
           <cell r="B45" t="str">
-            <v>リベリオススプリッツ</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>241</v>
+            <v>11020</v>
           </cell>
           <cell r="B46" t="str">
-            <v>サンダーエンチャント</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>301</v>
+            <v>11030</v>
           </cell>
           <cell r="B47" t="str">
-            <v>アイスブレイド</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>302</v>
+            <v>11040</v>
           </cell>
           <cell r="B48" t="str">
-            <v>カウンターオーラ</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>303</v>
+            <v>11050</v>
           </cell>
           <cell r="B49" t="str">
-            <v>シールドスペル</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>304</v>
+            <v>11060</v>
           </cell>
           <cell r="B50" t="str">
-            <v>エスコートソール</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>305</v>
+            <v>11070</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ディープフリーズ</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>311</v>
+            <v>12010</v>
           </cell>
           <cell r="B52" t="str">
-            <v>フリジットシェル</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>312</v>
+            <v>12020</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>313</v>
+            <v>12030</v>
           </cell>
           <cell r="B54" t="str">
-            <v>アンチドード</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>314</v>
+            <v>12040</v>
           </cell>
           <cell r="B55" t="str">
-            <v>コオリノセカイヘ</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>321</v>
+            <v>12050</v>
           </cell>
           <cell r="B56" t="str">
-            <v>バブルブロウ</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>322</v>
+            <v>12060</v>
           </cell>
           <cell r="B57" t="str">
-            <v>アクアミラージュ</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>331</v>
+            <v>12070</v>
           </cell>
           <cell r="B58" t="str">
-            <v>ガーディアンソウル</v>
+            <v>リベリオススプリッツ</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>332</v>
+            <v>13010</v>
           </cell>
           <cell r="B59" t="str">
-            <v>アーマーコード</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>333</v>
+            <v>13020</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ガードシフト</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>334</v>
+            <v>13030</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ノーリミット</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>335</v>
+            <v>13040</v>
           </cell>
           <cell r="B62" t="str">
-            <v>カウンターヒール</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>336</v>
+            <v>13050</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ペイシャンス</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>337</v>
+            <v>13060</v>
           </cell>
           <cell r="B64" t="str">
-            <v>アシッドラッシュ</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>341</v>
+            <v>13070</v>
           </cell>
           <cell r="B65" t="str">
-            <v>アイスエンチャント</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>401</v>
+            <v>14010</v>
           </cell>
           <cell r="B66" t="str">
-            <v>セイントレーザー</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>402</v>
+            <v>14020</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ペネトレイト</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>403</v>
+            <v>14030</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ヒーリング</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>404</v>
+            <v>14040</v>
           </cell>
           <cell r="B69" t="str">
-            <v>リフレッシュ</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>405</v>
+            <v>14050</v>
           </cell>
           <cell r="B70" t="str">
-            <v>べネディクション</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>411</v>
+            <v>14060</v>
           </cell>
           <cell r="B71" t="str">
-            <v>エリクシール</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>412</v>
+            <v>14070</v>
           </cell>
           <cell r="B72" t="str">
-            <v>エンジェルフェザー</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>413</v>
+            <v>14080</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ブレークザウォール</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>414</v>
+            <v>15010</v>
           </cell>
           <cell r="B74" t="str">
-            <v>トリニティレイ</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>421</v>
+            <v>15020</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ホーリーグレイス</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>422</v>
+            <v>15030</v>
           </cell>
           <cell r="B76" t="str">
-            <v>プリズムリフレクター</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>431</v>
+            <v>15040</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ディバインシールド</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>432</v>
+            <v>15050</v>
           </cell>
           <cell r="B78" t="str">
-            <v>メディケーション</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>433</v>
+            <v>15060</v>
           </cell>
           <cell r="B79" t="str">
-            <v>エイミングスコープ</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>434</v>
+            <v>15070</v>
           </cell>
           <cell r="B80" t="str">
-            <v>リジェネレーション</v>
+            <v>アップグルント</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>435</v>
+            <v>100110</v>
           </cell>
           <cell r="B81" t="str">
-            <v>アライアンス</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>436</v>
+            <v>100111</v>
           </cell>
           <cell r="B82" t="str">
-            <v>スペクトルマイン</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>437</v>
+            <v>100210</v>
           </cell>
           <cell r="B83" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>438</v>
+            <v>100211</v>
           </cell>
           <cell r="B84" t="str">
-            <v>スペリオール</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>441</v>
+            <v>100310</v>
           </cell>
           <cell r="B85" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>501</v>
+            <v>100311</v>
           </cell>
           <cell r="B86" t="str">
-            <v>ダークプリズン</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>502</v>
+            <v>100320</v>
           </cell>
           <cell r="B87" t="str">
-            <v>ユーサネイジア</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>503</v>
+            <v>100321</v>
           </cell>
           <cell r="B88" t="str">
-            <v>ドレインヒール</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>504</v>
+            <v>100410</v>
           </cell>
           <cell r="B89" t="str">
-            <v>デリートマジック</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>505</v>
+            <v>100411</v>
           </cell>
           <cell r="B90" t="str">
-            <v>ディプラヴィティ</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>511</v>
+            <v>100420</v>
           </cell>
           <cell r="B91" t="str">
-            <v>ディストラクション</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>512</v>
+            <v>100421</v>
           </cell>
           <cell r="B92" t="str">
-            <v>カオスペイン</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>513</v>
+            <v>100510</v>
           </cell>
           <cell r="B93" t="str">
-            <v>セメタリーコール</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>514</v>
+            <v>100511</v>
           </cell>
           <cell r="B94" t="str">
-            <v>セルフカット</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>521</v>
+            <v>100610</v>
           </cell>
           <cell r="B95" t="str">
-            <v>ダークネス</v>
+            <v>フルバースト</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>522</v>
+            <v>100611</v>
           </cell>
           <cell r="B96" t="str">
-            <v>シェイディークラウド</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>531</v>
+            <v>100710</v>
           </cell>
           <cell r="B97" t="str">
-            <v>イーグルアイ</v>
+            <v>セメタリーコール</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>532</v>
+            <v>100711</v>
           </cell>
           <cell r="B98" t="str">
-            <v>ネヴァーエンド</v>
+            <v>セルフカット</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>533</v>
+            <v>300010</v>
           </cell>
           <cell r="B99" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>534</v>
+            <v>300020</v>
           </cell>
           <cell r="B100" t="str">
-            <v>スカルグラッジ</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>535</v>
+            <v>300030</v>
           </cell>
           <cell r="B101" t="str">
-            <v>クリープアウト</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>536</v>
+            <v>300040</v>
           </cell>
           <cell r="B102" t="str">
-            <v>アンデッドペイン</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>537</v>
+            <v>300050</v>
           </cell>
           <cell r="B103" t="str">
-            <v>アップグルント</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>541</v>
+            <v>400001</v>
           </cell>
           <cell r="B104" t="str">
-            <v>ダークエンチャント</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>601</v>
+            <v>400002</v>
           </cell>
           <cell r="B105" t="str">
-            <v>エンドオブサイクル</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>1000</v>
+            <v>400003</v>
           </cell>
           <cell r="B106" t="str">
-            <v>愚者</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>1001</v>
+            <v>400004</v>
           </cell>
           <cell r="B107" t="str">
-            <v>魔術師</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>1002</v>
+            <v>400005</v>
           </cell>
           <cell r="B108" t="str">
-            <v>女帝</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>1003</v>
+            <v>400101</v>
           </cell>
           <cell r="B109" t="str">
-            <v>女教皇</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>1004</v>
+            <v>400102</v>
           </cell>
           <cell r="B110" t="str">
-            <v>皇帝</v>
+            <v>最大Mp+\d</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>1005</v>
+            <v>400103</v>
           </cell>
           <cell r="B111" t="str">
-            <v>法王</v>
+            <v>ATK+\d</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>1006</v>
+            <v>400104</v>
           </cell>
           <cell r="B112" t="str">
-            <v>恋愛</v>
+            <v>DEF+\d</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>1007</v>
+            <v>400105</v>
           </cell>
           <cell r="B113" t="str">
-            <v>戦車</v>
+            <v>SPD+\d</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>1008</v>
+            <v>400201</v>
           </cell>
           <cell r="B114" t="str">
-            <v>正義</v>
+            <v>\d</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>1009</v>
+            <v>400301</v>
           </cell>
           <cell r="B115" t="str">
-            <v>隠者</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>1010</v>
-          </cell>
-          <cell r="B116" t="str">
-            <v>運命</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>1011</v>
-          </cell>
-          <cell r="B117" t="str">
-            <v>剛毅</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>1012</v>
-          </cell>
-          <cell r="B118" t="str">
-            <v>刑死者</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>1013</v>
-          </cell>
-          <cell r="B119" t="str">
-            <v>死神</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>1014</v>
-          </cell>
-          <cell r="B120" t="str">
-            <v>節制</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>1015</v>
-          </cell>
-          <cell r="B121" t="str">
-            <v>悪魔</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>1016</v>
-          </cell>
-          <cell r="B122" t="str">
-            <v>塔</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>1017</v>
-          </cell>
-          <cell r="B123" t="str">
-            <v>星</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>1018</v>
-          </cell>
-          <cell r="B124" t="str">
-            <v>月</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>1019</v>
-          </cell>
-          <cell r="B125" t="str">
-            <v>太陽</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>1020</v>
-          </cell>
-          <cell r="B126" t="str">
-            <v>審判</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>1022</v>
-          </cell>
-          <cell r="B127" t="str">
-            <v>杖</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>1023</v>
-          </cell>
-          <cell r="B128" t="str">
-            <v>器</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>1024</v>
-          </cell>
-          <cell r="B129" t="str">
-            <v>剣</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>1025</v>
-          </cell>
-          <cell r="B130" t="str">
-            <v>貨幣</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>2001</v>
-          </cell>
-          <cell r="B131" t="str">
-            <v>元素術・炎</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>2002</v>
-          </cell>
-          <cell r="B132" t="str">
-            <v>元素術・雷</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>2003</v>
-          </cell>
-          <cell r="B133" t="str">
-            <v>元素術・氷</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>2004</v>
-          </cell>
-          <cell r="B134" t="str">
-            <v>光魔術</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>2005</v>
-          </cell>
-          <cell r="B135" t="str">
-            <v>超次元術</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>2009</v>
-          </cell>
-          <cell r="B136" t="str">
-            <v>はずす</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>4001</v>
-          </cell>
-          <cell r="B137" t="str">
-            <v>人体錬成+\d</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>4002</v>
-          </cell>
-          <cell r="B138" t="str">
-            <v>理性拡張+\d</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>4003</v>
-          </cell>
-          <cell r="B139" t="str">
-            <v>存在修復+\d</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>4004</v>
-          </cell>
-          <cell r="B140" t="str">
-            <v>救済執行+\d</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>4005</v>
-          </cell>
-          <cell r="B141" t="str">
-            <v>素子補充+\d</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>4101</v>
-          </cell>
-          <cell r="B142" t="str">
-            <v>最大Hp+\d</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>4102</v>
-          </cell>
-          <cell r="B143" t="str">
-            <v>最大Mp+\d</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>4103</v>
-          </cell>
-          <cell r="B144" t="str">
-            <v>ATK+\d</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>4104</v>
-          </cell>
-          <cell r="B145" t="str">
-            <v>DEF+\d</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>4105</v>
-          </cell>
-          <cell r="B146" t="str">
-            <v>SPD+\d</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>4201</v>
-          </cell>
-          <cell r="B147" t="str">
-            <v>\d</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>4301</v>
-          </cell>
-          <cell r="B148" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2471,7 +2207,7 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3794,8 +3530,8 @@
   <sheetPr/>
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3822,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>301</v>
+        <v>3010</v>
       </c>
       <c r="C2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B2,[1]TextData!A:A))</f>
@@ -3840,7 +3576,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>321</v>
+        <v>3060</v>
       </c>
       <c r="C3" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B3,[1]TextData!A:A))</f>
@@ -3858,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>305</v>
+        <v>3050</v>
       </c>
       <c r="C4" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B4,[1]TextData!A:A))</f>
@@ -3876,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>333</v>
+        <v>13030</v>
       </c>
       <c r="C5" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B5,[1]TextData!A:A))</f>
@@ -3894,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>501</v>
+        <v>5010</v>
       </c>
       <c r="C6" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B6,[1]TextData!A:A))</f>
@@ -3948,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>503</v>
+        <v>5030</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
@@ -3966,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>504</v>
+        <v>5040</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
@@ -3984,7 +3720,7 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>201</v>
+        <v>2010</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
@@ -4002,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>203</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
@@ -4020,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>235</v>
+        <v>12050</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
@@ -4038,7 +3774,7 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>1010</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
@@ -4056,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>131</v>
+        <v>11010</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
@@ -4074,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>132</v>
+        <v>11020</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
@@ -4092,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>134</v>
+        <v>11040</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
@@ -4110,7 +3846,7 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>201</v>
+        <v>2010</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
@@ -4128,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>204</v>
+        <v>2040</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
@@ -4146,7 +3882,7 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>233</v>
+        <v>12030</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
@@ -4164,7 +3900,7 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>236</v>
+        <v>12060</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
@@ -4182,7 +3918,7 @@
         <v>6</v>
       </c>
       <c r="B22">
-        <v>401</v>
+        <v>4010</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
@@ -4200,7 +3936,7 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>405</v>
+        <v>4050</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
@@ -4218,7 +3954,7 @@
         <v>6</v>
       </c>
       <c r="B24">
-        <v>403</v>
+        <v>4030</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
@@ -4236,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>501</v>
+        <v>5010</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
@@ -4254,7 +3990,7 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>521</v>
+        <v>5060</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
@@ -4272,7 +4008,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>531</v>
+        <v>15010</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
@@ -4290,7 +4026,7 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>532</v>
+        <v>15020</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
@@ -4308,7 +4044,7 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>301</v>
+        <v>3010</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
@@ -4326,7 +4062,7 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>302</v>
+        <v>3020</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
@@ -4344,7 +4080,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>333</v>
+        <v>13030</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
@@ -4362,7 +4098,7 @@
         <v>8</v>
       </c>
       <c r="B32">
-        <v>334</v>
+        <v>13040</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
@@ -4380,7 +4116,7 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>1010</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
@@ -4398,7 +4134,7 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>103</v>
+        <v>1030</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B34,[1]TextData!A:A))</f>
@@ -4416,11 +4152,11 @@
         <v>9</v>
       </c>
       <c r="B35">
-        <v>133</v>
+        <v>13030</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B35,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>ガードシフト</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -4434,7 +4170,7 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>121</v>
+        <v>1050</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B36,[1]TextData!A:A))</f>
@@ -4452,7 +4188,7 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>201</v>
+        <v>2010</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B37,[1]TextData!A:A))</f>
@@ -4470,7 +4206,7 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>231</v>
+        <v>12010</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B38,[1]TextData!A:A))</f>
@@ -4488,7 +4224,7 @@
         <v>10</v>
       </c>
       <c r="B39">
-        <v>236</v>
+        <v>12060</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
@@ -4506,7 +4242,7 @@
         <v>10</v>
       </c>
       <c r="B40">
-        <v>205</v>
+        <v>2050</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B40,[1]TextData!A:A))</f>
@@ -4524,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>234</v>
+        <v>12040</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
@@ -4542,7 +4278,7 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>301</v>
+        <v>3010</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
@@ -4560,7 +4296,7 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>304</v>
+        <v>3040</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B43,[1]TextData!A:A))</f>
@@ -4578,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="B44">
-        <v>332</v>
+        <v>13020</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B44,[1]TextData!A:A))</f>
@@ -4596,7 +4332,7 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>501</v>
+        <v>5010</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B45,[1]TextData!A:A))</f>
@@ -4650,7 +4386,7 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>531</v>
+        <v>15010</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
@@ -4668,7 +4404,7 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>534</v>
+        <v>15040</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
@@ -4686,7 +4422,7 @@
         <v>13</v>
       </c>
       <c r="B50">
-        <v>401</v>
+        <v>4010</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
@@ -4704,7 +4440,7 @@
         <v>13</v>
       </c>
       <c r="B51">
-        <v>421</v>
+        <v>4060</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B51,[1]TextData!A:A))</f>
@@ -4722,7 +4458,7 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>436</v>
+        <v>14060</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
@@ -4740,7 +4476,7 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>401</v>
+        <v>4010</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
@@ -4794,7 +4530,7 @@
         <v>14</v>
       </c>
       <c r="B56">
-        <v>404</v>
+        <v>4040</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
@@ -4812,7 +4548,7 @@
         <v>14</v>
       </c>
       <c r="B57">
-        <v>403</v>
+        <v>4030</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
@@ -4830,7 +4566,7 @@
         <v>14</v>
       </c>
       <c r="B58">
-        <v>433</v>
+        <v>14030</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B58,[1]TextData!A:A))</f>
@@ -4848,7 +4584,7 @@
         <v>15</v>
       </c>
       <c r="B59">
-        <v>101</v>
+        <v>1010</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
@@ -4866,7 +4602,7 @@
         <v>15</v>
       </c>
       <c r="B60">
-        <v>104</v>
+        <v>1040</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
@@ -4884,7 +4620,7 @@
         <v>15</v>
       </c>
       <c r="B61">
-        <v>133</v>
+        <v>11030</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
@@ -4902,7 +4638,7 @@
         <v>101</v>
       </c>
       <c r="B62">
-        <v>301</v>
+        <v>3010</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
@@ -4920,7 +4656,7 @@
         <v>101</v>
       </c>
       <c r="B63">
-        <v>321</v>
+        <v>3060</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
@@ -4938,7 +4674,7 @@
         <v>102</v>
       </c>
       <c r="B64">
-        <v>201</v>
+        <v>2010</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B64,[1]TextData!A:A))</f>
@@ -4956,7 +4692,7 @@
         <v>102</v>
       </c>
       <c r="B65">
-        <v>221</v>
+        <v>2060</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
@@ -4974,7 +4710,7 @@
         <v>103</v>
       </c>
       <c r="B66">
-        <v>101</v>
+        <v>1010</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
@@ -4992,7 +4728,7 @@
         <v>103</v>
       </c>
       <c r="B67">
-        <v>104</v>
+        <v>1040</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
@@ -5010,7 +4746,7 @@
         <v>104</v>
       </c>
       <c r="B68">
-        <v>101</v>
+        <v>1010</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
@@ -5028,7 +4764,7 @@
         <v>104</v>
       </c>
       <c r="B69">
-        <v>121</v>
+        <v>1050</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
@@ -5046,7 +4782,7 @@
         <v>104</v>
       </c>
       <c r="B70">
-        <v>231</v>
+        <v>12010</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
@@ -5064,7 +4800,7 @@
         <v>105</v>
       </c>
       <c r="B71">
-        <v>401</v>
+        <v>4010</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
@@ -5082,7 +4818,7 @@
         <v>105</v>
       </c>
       <c r="B72">
-        <v>405</v>
+        <v>4050</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
@@ -5136,7 +4872,7 @@
         <v>106</v>
       </c>
       <c r="B75">
-        <v>201</v>
+        <v>2010</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
@@ -5154,7 +4890,7 @@
         <v>106</v>
       </c>
       <c r="B76">
-        <v>205</v>
+        <v>2050</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
@@ -5172,7 +4908,7 @@
         <v>107</v>
       </c>
       <c r="B77">
-        <v>501</v>
+        <v>5010</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
@@ -5190,11 +4926,11 @@
         <v>107</v>
       </c>
       <c r="B78">
-        <v>522</v>
+        <v>5060</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>シェイディークラウド</v>
+        <v>ダークネス</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -5208,7 +4944,7 @@
         <v>113</v>
       </c>
       <c r="B79">
-        <v>501</v>
+        <v>5010</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
@@ -5226,7 +4962,7 @@
         <v>113</v>
       </c>
       <c r="B80">
-        <v>505</v>
+        <v>5050</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
@@ -5280,7 +5016,7 @@
         <v>114</v>
       </c>
       <c r="B83">
-        <v>301</v>
+        <v>3010</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
@@ -5298,7 +5034,7 @@
         <v>114</v>
       </c>
       <c r="B84">
-        <v>322</v>
+        <v>3070</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
@@ -5316,11 +5052,11 @@
         <v>114</v>
       </c>
       <c r="B85">
-        <v>231</v>
+        <v>2060</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -5334,7 +5070,7 @@
         <v>201</v>
       </c>
       <c r="B86">
-        <v>501</v>
+        <v>5010</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
@@ -5388,7 +5124,7 @@
         <v>201</v>
       </c>
       <c r="B89">
-        <v>533</v>
+        <v>15030</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
@@ -5406,7 +5142,7 @@
         <v>201</v>
       </c>
       <c r="B90">
-        <v>502</v>
+        <v>5020</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
@@ -5424,7 +5160,7 @@
         <v>201</v>
       </c>
       <c r="B91">
-        <v>511</v>
+        <v>100510</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
@@ -5442,7 +5178,7 @@
         <v>201</v>
       </c>
       <c r="B92">
-        <v>512</v>
+        <v>100511</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
@@ -5460,7 +5196,7 @@
         <v>202</v>
       </c>
       <c r="B93">
-        <v>201</v>
+        <v>2010</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
@@ -5478,7 +5214,7 @@
         <v>202</v>
       </c>
       <c r="B94">
-        <v>202</v>
+        <v>2020</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
@@ -5496,7 +5232,7 @@
         <v>202</v>
       </c>
       <c r="B95">
-        <v>211</v>
+        <v>100210</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
@@ -5514,7 +5250,7 @@
         <v>202</v>
       </c>
       <c r="B96">
-        <v>212</v>
+        <v>100211</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
@@ -5532,7 +5268,7 @@
         <v>203</v>
       </c>
       <c r="B97">
-        <v>301</v>
+        <v>3010</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
@@ -5550,7 +5286,7 @@
         <v>203</v>
       </c>
       <c r="B98">
-        <v>302</v>
+        <v>3020</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
@@ -5568,7 +5304,7 @@
         <v>203</v>
       </c>
       <c r="B99">
-        <v>305</v>
+        <v>3050</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
@@ -5586,7 +5322,7 @@
         <v>203</v>
       </c>
       <c r="B100">
-        <v>311</v>
+        <v>100310</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
@@ -5604,7 +5340,7 @@
         <v>203</v>
       </c>
       <c r="B101">
-        <v>312</v>
+        <v>100311</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
@@ -5622,7 +5358,7 @@
         <v>204</v>
       </c>
       <c r="B102">
-        <v>401</v>
+        <v>4010</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
@@ -5640,7 +5376,7 @@
         <v>204</v>
       </c>
       <c r="B103">
-        <v>434</v>
+        <v>14040</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
@@ -5658,7 +5394,7 @@
         <v>204</v>
       </c>
       <c r="B104">
-        <v>411</v>
+        <v>100410</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
@@ -5676,7 +5412,7 @@
         <v>204</v>
       </c>
       <c r="B105">
-        <v>412</v>
+        <v>100411</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
@@ -5694,7 +5430,7 @@
         <v>204</v>
       </c>
       <c r="B106">
-        <v>431</v>
+        <v>14010</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
@@ -5712,7 +5448,7 @@
         <v>204</v>
       </c>
       <c r="B107">
-        <v>231</v>
+        <v>12010</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
@@ -5730,7 +5466,7 @@
         <v>204</v>
       </c>
       <c r="B108">
-        <v>405</v>
+        <v>4050</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
@@ -5748,7 +5484,7 @@
         <v>204</v>
       </c>
       <c r="B109">
-        <v>421</v>
+        <v>4060</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
@@ -5766,7 +5502,7 @@
         <v>204</v>
       </c>
       <c r="B110">
-        <v>437</v>
+        <v>14070</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
@@ -5784,7 +5520,7 @@
         <v>205</v>
       </c>
       <c r="B111">
-        <v>101</v>
+        <v>1010</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
@@ -5802,7 +5538,7 @@
         <v>205</v>
       </c>
       <c r="B112">
-        <v>102</v>
+        <v>1020</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
@@ -5820,7 +5556,7 @@
         <v>205</v>
       </c>
       <c r="B113">
-        <v>111</v>
+        <v>100110</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
@@ -5838,7 +5574,7 @@
         <v>205</v>
       </c>
       <c r="B114">
-        <v>112</v>
+        <v>100111</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
@@ -5856,7 +5592,7 @@
         <v>205</v>
       </c>
       <c r="B115">
-        <v>231</v>
+        <v>12010</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
@@ -5874,7 +5610,7 @@
         <v>206</v>
       </c>
       <c r="B116">
-        <v>201</v>
+        <v>2010</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
@@ -5892,7 +5628,7 @@
         <v>206</v>
       </c>
       <c r="B117">
-        <v>222</v>
+        <v>2070</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
@@ -5910,7 +5646,7 @@
         <v>206</v>
       </c>
       <c r="B118">
-        <v>213</v>
+        <v>100610</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
@@ -5928,7 +5664,7 @@
         <v>206</v>
       </c>
       <c r="B119">
-        <v>214</v>
+        <v>100611</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
@@ -5946,7 +5682,7 @@
         <v>206</v>
       </c>
       <c r="B120">
-        <v>231</v>
+        <v>12010</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
@@ -5964,7 +5700,7 @@
         <v>207</v>
       </c>
       <c r="B121">
-        <v>501</v>
+        <v>5010</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
@@ -6018,7 +5754,7 @@
         <v>207</v>
       </c>
       <c r="B124">
-        <v>505</v>
+        <v>5050</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
@@ -6036,7 +5772,7 @@
         <v>207</v>
       </c>
       <c r="B125">
-        <v>534</v>
+        <v>15040</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
@@ -6054,7 +5790,7 @@
         <v>207</v>
       </c>
       <c r="B126">
-        <v>513</v>
+        <v>100710</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
@@ -6072,7 +5808,7 @@
         <v>207</v>
       </c>
       <c r="B127">
-        <v>514</v>
+        <v>100711</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
@@ -6090,7 +5826,7 @@
         <v>301</v>
       </c>
       <c r="B128">
-        <v>201</v>
+        <v>2010</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
@@ -6108,7 +5844,7 @@
         <v>301</v>
       </c>
       <c r="B129">
-        <v>601</v>
+        <v>6010</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
@@ -6126,7 +5862,7 @@
         <v>301</v>
       </c>
       <c r="B130">
-        <v>231</v>
+        <v>12010</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B130,[1]TextData!A:A))</f>
@@ -6144,7 +5880,7 @@
         <v>213</v>
       </c>
       <c r="B131">
-        <v>301</v>
+        <v>3010</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
@@ -6162,7 +5898,7 @@
         <v>213</v>
       </c>
       <c r="B132">
-        <v>305</v>
+        <v>3050</v>
       </c>
       <c r="C132" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B132,[1]TextData!A:A))</f>
@@ -6180,7 +5916,7 @@
         <v>213</v>
       </c>
       <c r="B133">
-        <v>322</v>
+        <v>3070</v>
       </c>
       <c r="C133" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B133,[1]TextData!A:A))</f>
@@ -6198,7 +5934,7 @@
         <v>213</v>
       </c>
       <c r="B134">
-        <v>313</v>
+        <v>100320</v>
       </c>
       <c r="C134" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
@@ -6216,7 +5952,7 @@
         <v>213</v>
       </c>
       <c r="B135">
-        <v>314</v>
+        <v>100321</v>
       </c>
       <c r="C135" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B135,[1]TextData!A:A))</f>
@@ -6234,7 +5970,7 @@
         <v>214</v>
       </c>
       <c r="B136">
-        <v>401</v>
+        <v>4010</v>
       </c>
       <c r="C136" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B136,[1]TextData!A:A))</f>
@@ -6252,7 +5988,7 @@
         <v>214</v>
       </c>
       <c r="B137">
-        <v>434</v>
+        <v>14040</v>
       </c>
       <c r="C137" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
@@ -6270,7 +6006,7 @@
         <v>214</v>
       </c>
       <c r="B138">
-        <v>413</v>
+        <v>100420</v>
       </c>
       <c r="C138" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B138,[1]TextData!A:A))</f>
@@ -6288,7 +6024,7 @@
         <v>214</v>
       </c>
       <c r="B139">
-        <v>414</v>
+        <v>100421</v>
       </c>
       <c r="C139" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B139,[1]TextData!A:A))</f>
@@ -6306,7 +6042,7 @@
         <v>214</v>
       </c>
       <c r="B140">
-        <v>438</v>
+        <v>14080</v>
       </c>
       <c r="C140" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B140,[1]TextData!A:A))</f>
@@ -6324,7 +6060,7 @@
         <v>214</v>
       </c>
       <c r="B141">
-        <v>231</v>
+        <v>12010</v>
       </c>
       <c r="C141" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B141,[1]TextData!A:A))</f>
@@ -6342,7 +6078,7 @@
         <v>214</v>
       </c>
       <c r="B142">
-        <v>422</v>
+        <v>4070</v>
       </c>
       <c r="C142" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B142,[1]TextData!A:A))</f>
@@ -6360,7 +6096,7 @@
         <v>214</v>
       </c>
       <c r="B143">
-        <v>421</v>
+        <v>4060</v>
       </c>
       <c r="C143" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B143,[1]TextData!A:A))</f>
@@ -6378,7 +6114,7 @@
         <v>214</v>
       </c>
       <c r="B144">
-        <v>437</v>
+        <v>14070</v>
       </c>
       <c r="C144" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B144,[1]TextData!A:A))</f>
@@ -6403,7 +6139,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -6574,7 +6310,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>403</v>
+        <v>4030</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -6597,7 +6333,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>405</v>
+        <v>4050</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -6689,7 +6425,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>1030</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -6781,7 +6517,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>421</v>
+        <v>4060</v>
       </c>
       <c r="C17">
         <v>21</v>
@@ -6827,7 +6563,7 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>403</v>
+        <v>4030</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -6873,7 +6609,7 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>104</v>
+        <v>1040</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -6896,7 +6632,7 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>104</v>
+        <v>1040</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -6919,7 +6655,7 @@
         <v>101</v>
       </c>
       <c r="B23">
-        <v>321</v>
+        <v>3060</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -6942,7 +6678,7 @@
         <v>102</v>
       </c>
       <c r="B24">
-        <v>221</v>
+        <v>2060</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -6965,7 +6701,7 @@
         <v>103</v>
       </c>
       <c r="B25">
-        <v>104</v>
+        <v>1040</v>
       </c>
       <c r="C25">
         <v>22</v>
@@ -6988,7 +6724,7 @@
         <v>103</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>1040</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -7011,7 +6747,7 @@
         <v>104</v>
       </c>
       <c r="B27">
-        <v>121</v>
+        <v>1050</v>
       </c>
       <c r="C27">
         <v>21</v>
@@ -7034,7 +6770,7 @@
         <v>105</v>
       </c>
       <c r="B28">
-        <v>405</v>
+        <v>4050</v>
       </c>
       <c r="C28">
         <v>22</v>
@@ -7057,7 +6793,7 @@
         <v>105</v>
       </c>
       <c r="B29">
-        <v>405</v>
+        <v>4050</v>
       </c>
       <c r="C29">
         <v>63</v>
@@ -7080,7 +6816,7 @@
         <v>107</v>
       </c>
       <c r="B30">
-        <v>522</v>
+        <v>5060</v>
       </c>
       <c r="C30">
         <v>22</v>
@@ -7103,7 +6839,7 @@
         <v>113</v>
       </c>
       <c r="B31">
-        <v>505</v>
+        <v>5050</v>
       </c>
       <c r="C31">
         <v>21</v>
@@ -7126,7 +6862,7 @@
         <v>114</v>
       </c>
       <c r="B32">
-        <v>322</v>
+        <v>3060</v>
       </c>
       <c r="C32">
         <v>22</v>
@@ -7149,7 +6885,7 @@
         <v>203</v>
       </c>
       <c r="B33">
-        <v>302</v>
+        <v>3020</v>
       </c>
       <c r="C33">
         <v>22</v>
@@ -7172,7 +6908,7 @@
         <v>204</v>
       </c>
       <c r="B34">
-        <v>405</v>
+        <v>4050</v>
       </c>
       <c r="C34">
         <v>22</v>
@@ -7195,7 +6931,7 @@
         <v>204</v>
       </c>
       <c r="B35">
-        <v>405</v>
+        <v>4050</v>
       </c>
       <c r="C35">
         <v>63</v>
@@ -7218,7 +6954,7 @@
         <v>301</v>
       </c>
       <c r="B36">
-        <v>601</v>
+        <v>6010</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -7248,7 +6984,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -322,14 +322,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -337,15 +329,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,7 +353,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,14 +372,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,15 +392,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,16 +405,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -437,10 +414,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,6 +467,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,7 +485,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +557,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,73 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,43 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,6 +661,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -672,6 +681,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,8 +714,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,17 +735,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,24 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3530,7 +3530,7 @@
   <sheetPr/>
   <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
@@ -6138,7 +6138,7 @@
   <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -315,9 +315,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,8 +336,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -344,16 +366,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,32 +390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,15 +413,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,9 +436,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,8 +450,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,19 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,19 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,31 +557,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,19 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,37 +629,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,15 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,32 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +709,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -758,6 +747,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3528,10 +3528,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A110" sqref="$A110:$XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3648,14 +3648,14 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>5030</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B7,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>ドレインヒール</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3666,14 +3666,14 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>5040</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B8,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>デリートマジック</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -3681,38 +3681,38 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>5030</v>
+        <v>2010</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B9,[1]TextData!A:A))</f>
-        <v>ドレインヒール</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>5040</v>
+        <v>2030</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B10,[1]TextData!A:A))</f>
-        <v>デリートマジック</v>
+        <v>シャープコード</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3720,14 +3720,14 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>2010</v>
+        <v>12050</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>ヘブンリーラック</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -3735,17 +3735,17 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>2030</v>
+        <v>1010</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B12,[1]TextData!A:A))</f>
-        <v>シャープコード</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -3753,17 +3753,17 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>12050</v>
+        <v>11010</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B13,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+        <v>ウルフソウル</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -3774,14 +3774,14 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>1010</v>
+        <v>11020</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B14,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>プリディカメント</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -3792,14 +3792,14 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>11010</v>
+        <v>11040</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B15,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
+        <v>スタートダッシュ</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -3807,38 +3807,38 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>11020</v>
+        <v>2010</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B16,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>11040</v>
+        <v>2040</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B17,[1]TextData!A:A))</f>
-        <v>スタートダッシュ</v>
+        <v>ショックインパルス</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3846,17 +3846,17 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>2010</v>
+        <v>12030</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B18,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>スウィフトカレント</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3864,14 +3864,14 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>2040</v>
+        <v>12060</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B19,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>クイックアクト</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -3879,35 +3879,35 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>12030</v>
+        <v>4010</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B20,[1]TextData!A:A))</f>
-        <v>スウィフトカレント</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>12060</v>
+        <v>4050</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B21,[1]TextData!A:A))</f>
-        <v>クイックアクト</v>
+        <v>べネディクション</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -3918,32 +3918,32 @@
         <v>6</v>
       </c>
       <c r="B22">
-        <v>4010</v>
+        <v>4030</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B22,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>4050</v>
+        <v>5010</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B23,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -3951,17 +3951,17 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>4030</v>
+        <v>5060</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B24,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>ダークネス</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -3972,14 +3972,14 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>5010</v>
+        <v>15010</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B25,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -3990,14 +3990,14 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>5060</v>
+        <v>15020</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B26,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>ネヴァーエンド</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -4005,38 +4005,38 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>15010</v>
+        <v>3010</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B27,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>15020</v>
+        <v>3020</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B28,[1]TextData!A:A))</f>
-        <v>ネヴァーエンド</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4044,17 +4044,17 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>3010</v>
+        <v>13030</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B29,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ガードシフト</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4062,14 +4062,14 @@
         <v>8</v>
       </c>
       <c r="B30">
-        <v>3020</v>
+        <v>13040</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B30,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>ノーリミット</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>75</v>
@@ -4077,38 +4077,38 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>13030</v>
+        <v>1010</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B31,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>13040</v>
+        <v>1030</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B32,[1]TextData!A:A))</f>
-        <v>ノーリミット</v>
+        <v>ヒートスタンプ</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4116,14 +4116,14 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>1010</v>
+        <v>13030</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>ガードシフト</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>50</v>
@@ -4134,53 +4134,53 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>1030</v>
+        <v>1050</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B34,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>13030</v>
+        <v>2010</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B35,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>1050</v>
+        <v>12010</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B36,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>エクステンション</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4188,17 +4188,17 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>2010</v>
+        <v>12060</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B37,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>クイックアクト</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4206,14 +4206,14 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>12010</v>
+        <v>2050</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B38,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -4224,32 +4224,32 @@
         <v>10</v>
       </c>
       <c r="B39">
-        <v>12060</v>
+        <v>12040</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B39,[1]TextData!A:A))</f>
-        <v>クイックアクト</v>
+        <v>ファストキャスター</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>2050</v>
+        <v>3010</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B40,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -4257,17 +4257,17 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>12040</v>
+        <v>3040</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
-        <v>ファストキャスター</v>
+        <v>エスコートソール</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -4278,14 +4278,14 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>3010</v>
+        <v>13020</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>アーマーコード</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -4293,17 +4293,17 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>3040</v>
+        <v>5010</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B43,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -4311,17 +4311,17 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>13020</v>
+        <v>15010</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B44,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
+        <v>イーグルアイ</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -4332,14 +4332,14 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>5010</v>
+        <v>15040</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B45,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -4347,107 +4347,107 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>41</v>
+        <v>4010</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B46,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>42</v>
+        <v>4060</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B47,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>15010</v>
+        <v>14060</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B48,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>スペクトルマイン</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>15040</v>
+        <v>4010</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B49,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>4010</v>
+        <v>4040</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B50,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>リフレッシュ</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>4060</v>
+        <v>4030</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B51,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ヒーリング</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>80</v>
@@ -4455,32 +4455,32 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>14060</v>
+        <v>14030</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B52,[1]TextData!A:A))</f>
-        <v>スペクトルマイン</v>
+        <v>エイミングスコープ</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>4010</v>
+        <v>1010</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B53,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -4491,17 +4491,17 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54">
-        <v>41</v>
+        <v>1040</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B54,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>50</v>
@@ -4509,86 +4509,86 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B55">
-        <v>42</v>
+        <v>11030</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B55,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B56">
-        <v>4040</v>
+        <v>3010</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B57">
-        <v>4030</v>
+        <v>3060</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
-        <v>ヒーリング</v>
+        <v>バブルブロウ</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B58">
-        <v>14030</v>
+        <v>2010</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B58,[1]TextData!A:A))</f>
-        <v>エイミングスコープ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E58">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="B59">
-        <v>1010</v>
+        <v>2060</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4599,212 +4599,212 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B60">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B61">
-        <v>11030</v>
+        <v>1040</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B62">
-        <v>3010</v>
+        <v>1010</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B63">
-        <v>3060</v>
+        <v>1050</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64">
-        <v>2010</v>
+        <v>12010</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B64,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>エクステンション</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B65">
-        <v>2060</v>
+        <v>4010</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
-        <v>1010</v>
+        <v>4050</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>べネディクション</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B67">
-        <v>1040</v>
+        <v>2010</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68">
-        <v>1010</v>
+        <v>2050</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
-        <v>1050</v>
+        <v>5010</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
-        <v>12010</v>
+        <v>5060</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ダークネス</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B71">
-        <v>4010</v>
+        <v>5010</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4815,14 +4815,14 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B72">
-        <v>4050</v>
+        <v>5050</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4833,176 +4833,176 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B73">
-        <v>41</v>
+        <v>3010</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B74">
-        <v>42</v>
+        <v>3070</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B75">
-        <v>2010</v>
+        <v>2060</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="B76">
-        <v>2050</v>
+        <v>5010</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B77">
-        <v>5010</v>
+        <v>15030</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B78">
-        <v>5060</v>
+        <v>5020</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="B79">
-        <v>5010</v>
+        <v>100510</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="B80">
-        <v>5050</v>
+        <v>100511</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="B81">
-        <v>41</v>
+        <v>2010</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="B82">
-        <v>42</v>
+        <v>2020</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -5013,32 +5013,32 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B83">
-        <v>3010</v>
+        <v>100210</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ステップリーダー</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="B84">
-        <v>3070</v>
+        <v>100211</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>ユビサキデカラメトル</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -5049,50 +5049,50 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B85">
-        <v>2060</v>
+        <v>3010</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B86">
-        <v>5010</v>
+        <v>3020</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B87">
-        <v>41</v>
+        <v>3050</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -5103,14 +5103,14 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B88">
-        <v>42</v>
+        <v>100310</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5121,122 +5121,122 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B89">
-        <v>15030</v>
+        <v>100311</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B90">
-        <v>5020</v>
+        <v>4010</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B91">
-        <v>100510</v>
+        <v>14040</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B92">
-        <v>100511</v>
+        <v>100410</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>エリクシール</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B93">
-        <v>2010</v>
+        <v>100411</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B94">
-        <v>2020</v>
+        <v>14010</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B95">
-        <v>100210</v>
+        <v>12010</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>エクステンション</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5247,158 +5247,158 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B96">
-        <v>100211</v>
+        <v>4050</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>べネディクション</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B97">
-        <v>3010</v>
+        <v>4060</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B98">
-        <v>3020</v>
+        <v>14070</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B99">
-        <v>3050</v>
+        <v>1010</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B100">
-        <v>100310</v>
+        <v>1020</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B101">
-        <v>100311</v>
+        <v>100110</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>インフェルノ</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B102">
-        <v>4010</v>
+        <v>100111</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>スベテモヤシツクス</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103">
-        <v>14040</v>
+        <v>12010</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>エクステンション</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B104">
-        <v>100410</v>
+        <v>2010</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -5409,86 +5409,86 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B105">
-        <v>100411</v>
+        <v>2070</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>リフレクセス</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B106">
-        <v>14010</v>
+        <v>100610</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>フルバースト</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B107">
-        <v>12010</v>
+        <v>100611</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>コウソクテンショウ</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B108">
-        <v>4050</v>
+        <v>12010</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>エクステンション</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B109">
-        <v>4060</v>
+        <v>5010</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5499,631 +5499,379 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B110">
-        <v>14070</v>
+        <v>5050</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B111">
-        <v>1010</v>
+        <v>15040</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B112">
-        <v>1020</v>
+        <v>100710</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>セメタリーコール</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B113">
-        <v>100110</v>
+        <v>100711</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>セルフカット</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B114">
-        <v>100111</v>
+        <v>2010</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B115">
-        <v>12010</v>
+        <v>6010</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="B116">
-        <v>2010</v>
+        <v>12010</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>エクステンション</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B117">
-        <v>2070</v>
+        <v>3010</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
-        <v>リフレクセス</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B118">
-        <v>100610</v>
+        <v>3050</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
-        <v>フルバースト</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B119">
-        <v>100611</v>
+        <v>3070</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
-        <v>コウソクテンショウ</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B120">
-        <v>12010</v>
+        <v>100320</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>アンチドード</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B121">
-        <v>5010</v>
+        <v>100321</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>コオリノセカイヘ</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B122">
-        <v>41</v>
+        <v>4010</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B122,[1]TextData!A:A))</f>
-        <v>アンデッド</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B123">
-        <v>42</v>
+        <v>14040</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B123,[1]TextData!A:A))</f>
-        <v>アンデッド回復</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B124">
-        <v>5050</v>
+        <v>100420</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>ブレークザウォール</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B125">
-        <v>15040</v>
+        <v>100421</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>トリニティレイ</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B126">
-        <v>100710</v>
+        <v>14080</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
-        <v>セメタリーコール</v>
+        <v>スペリオール</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B127">
-        <v>100711</v>
+        <v>12010</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
-        <v>セルフカット</v>
+        <v>エクステンション</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="B128">
-        <v>2010</v>
+        <v>4070</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>プリズムリフレクター</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="B129">
-        <v>6010</v>
+        <v>4060</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="B130">
-        <v>12010</v>
+        <v>14070</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B130,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131">
-        <v>213</v>
-      </c>
-      <c r="B131">
-        <v>3010</v>
-      </c>
-      <c r="C131" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132">
-        <v>213</v>
-      </c>
-      <c r="B132">
-        <v>3050</v>
-      </c>
-      <c r="C132" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B132,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133">
-        <v>213</v>
-      </c>
-      <c r="B133">
-        <v>3070</v>
-      </c>
-      <c r="C133" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B133,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134">
-        <v>213</v>
-      </c>
-      <c r="B134">
-        <v>100320</v>
-      </c>
-      <c r="C134" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
-        <v>アンチドード</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="E134">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135">
-        <v>213</v>
-      </c>
-      <c r="B135">
-        <v>100321</v>
-      </c>
-      <c r="C135" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B135,[1]TextData!A:A))</f>
-        <v>コオリノセカイヘ</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136">
-        <v>214</v>
-      </c>
-      <c r="B136">
-        <v>4010</v>
-      </c>
-      <c r="C136" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B136,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137">
-        <v>214</v>
-      </c>
-      <c r="B137">
-        <v>14040</v>
-      </c>
-      <c r="C137" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138">
-        <v>214</v>
-      </c>
-      <c r="B138">
-        <v>100420</v>
-      </c>
-      <c r="C138" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B138,[1]TextData!A:A))</f>
-        <v>ブレークザウォール</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139">
-        <v>214</v>
-      </c>
-      <c r="B139">
-        <v>100421</v>
-      </c>
-      <c r="C139" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B139,[1]TextData!A:A))</f>
-        <v>トリニティレイ</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140">
-        <v>214</v>
-      </c>
-      <c r="B140">
-        <v>14080</v>
-      </c>
-      <c r="C140" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B140,[1]TextData!A:A))</f>
-        <v>スペリオール</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141">
-        <v>214</v>
-      </c>
-      <c r="B141">
-        <v>12010</v>
-      </c>
-      <c r="C141" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B141,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142">
-        <v>214</v>
-      </c>
-      <c r="B142">
-        <v>4070</v>
-      </c>
-      <c r="C142" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B142,[1]TextData!A:A))</f>
-        <v>プリズムリフレクター</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143">
-        <v>214</v>
-      </c>
-      <c r="B143">
-        <v>4060</v>
-      </c>
-      <c r="C143" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B143,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144">
-        <v>214</v>
-      </c>
-      <c r="B144">
-        <v>14070</v>
-      </c>
-      <c r="C144" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(B144,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
         <v>30</v>
       </c>
     </row>
@@ -6138,7 +5886,7 @@
   <sheetPr/>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -315,22 +315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,14 +329,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -366,54 +388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -429,6 +405,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -436,8 +436,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,9 +451,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,19 +467,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,73 +623,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,73 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,15 +681,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,11 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,17 +724,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,569 +1345,577 @@
         </row>
         <row r="45">
           <cell r="A45">
-            <v>11010</v>
+            <v>7010</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ウルフソウル</v>
+            <v>ウェイトユニゾン</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>11020</v>
+            <v>11010</v>
           </cell>
           <cell r="B46" t="str">
-            <v>プリディカメント</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>11030</v>
+            <v>11020</v>
           </cell>
           <cell r="B47" t="str">
-            <v>アサルトシフト</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>11040</v>
+            <v>11030</v>
           </cell>
           <cell r="B48" t="str">
-            <v>スタートダッシュ</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>11050</v>
+            <v>11040</v>
           </cell>
           <cell r="B49" t="str">
-            <v>ライズアップマインド</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>11060</v>
+            <v>11050</v>
           </cell>
           <cell r="B50" t="str">
-            <v>イグナイテッド</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>11070</v>
+            <v>11060</v>
           </cell>
           <cell r="B51" t="str">
-            <v>アフターバーナー</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>12010</v>
+            <v>11070</v>
           </cell>
           <cell r="B52" t="str">
-            <v>エクステンション</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>12020</v>
+            <v>12010</v>
           </cell>
           <cell r="B53" t="str">
-            <v>スパークフォグ</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>12030</v>
+            <v>12020</v>
           </cell>
           <cell r="B54" t="str">
-            <v>スウィフトカレント</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>12040</v>
+            <v>12030</v>
           </cell>
           <cell r="B55" t="str">
-            <v>ファストキャスター</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>12050</v>
+            <v>12040</v>
           </cell>
           <cell r="B56" t="str">
-            <v>ヘブンリーラック</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>12060</v>
+            <v>12050</v>
           </cell>
           <cell r="B57" t="str">
-            <v>クイックアクト</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>12070</v>
+            <v>12060</v>
           </cell>
           <cell r="B58" t="str">
-            <v>リベリオススプリッツ</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>13010</v>
+            <v>12070</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ガーディアンソウル</v>
+            <v>リベリオススプリッツ</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>13020</v>
+            <v>13010</v>
           </cell>
           <cell r="B60" t="str">
-            <v>アーマーコード</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>13030</v>
+            <v>13020</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ガードシフト</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>13040</v>
+            <v>13030</v>
           </cell>
           <cell r="B62" t="str">
-            <v>ノーリミット</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>13050</v>
+            <v>13040</v>
           </cell>
           <cell r="B63" t="str">
-            <v>カウンターヒール</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>13060</v>
+            <v>13050</v>
           </cell>
           <cell r="B64" t="str">
-            <v>ペイシャンス</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>13070</v>
+            <v>13060</v>
           </cell>
           <cell r="B65" t="str">
-            <v>アシッドラッシュ</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>14010</v>
+            <v>13070</v>
           </cell>
           <cell r="B66" t="str">
-            <v>ディバインシールド</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>14020</v>
+            <v>14010</v>
           </cell>
           <cell r="B67" t="str">
-            <v>メディケーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>14030</v>
+            <v>14020</v>
           </cell>
           <cell r="B68" t="str">
-            <v>エイミングスコープ</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>14040</v>
+            <v>14030</v>
           </cell>
           <cell r="B69" t="str">
-            <v>リジェネレーション</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>14050</v>
+            <v>14040</v>
           </cell>
           <cell r="B70" t="str">
-            <v>アライアンス</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>14060</v>
+            <v>14050</v>
           </cell>
           <cell r="B71" t="str">
-            <v>スペクトルマイン</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>14070</v>
+            <v>14060</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>14080</v>
+            <v>14070</v>
           </cell>
           <cell r="B73" t="str">
-            <v>スペリオール</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>15010</v>
+            <v>14080</v>
           </cell>
           <cell r="B74" t="str">
-            <v>イーグルアイ</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>15020</v>
+            <v>15010</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ネヴァーエンド</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>15030</v>
+            <v>15020</v>
           </cell>
           <cell r="B76" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>15040</v>
+            <v>15030</v>
           </cell>
           <cell r="B77" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>15050</v>
+            <v>15040</v>
           </cell>
           <cell r="B78" t="str">
-            <v>クリープアウト</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>15060</v>
+            <v>15050</v>
           </cell>
           <cell r="B79" t="str">
-            <v>アンデッドペイン</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>15070</v>
+            <v>15060</v>
           </cell>
           <cell r="B80" t="str">
-            <v>アップグルント</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>100110</v>
+            <v>15070</v>
           </cell>
           <cell r="B81" t="str">
-            <v>インフェルノ</v>
+            <v>アップグルント</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>100111</v>
+            <v>100110</v>
           </cell>
           <cell r="B82" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>100210</v>
+            <v>100111</v>
           </cell>
           <cell r="B83" t="str">
-            <v>ステップリーダー</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>100211</v>
+            <v>100210</v>
           </cell>
           <cell r="B84" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>100310</v>
+            <v>100211</v>
           </cell>
           <cell r="B85" t="str">
-            <v>フリジットシェル</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>100311</v>
+            <v>100310</v>
           </cell>
           <cell r="B86" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>100320</v>
+            <v>100311</v>
           </cell>
           <cell r="B87" t="str">
-            <v>アンチドード</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>100321</v>
+            <v>100320</v>
           </cell>
           <cell r="B88" t="str">
-            <v>コオリノセカイヘ</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>100410</v>
+            <v>100321</v>
           </cell>
           <cell r="B89" t="str">
-            <v>エリクシール</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>100411</v>
+            <v>100410</v>
           </cell>
           <cell r="B90" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>100420</v>
+            <v>100411</v>
           </cell>
           <cell r="B91" t="str">
-            <v>ブレークザウォール</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>100421</v>
+            <v>100420</v>
           </cell>
           <cell r="B92" t="str">
-            <v>トリニティレイ</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>100510</v>
+            <v>100421</v>
           </cell>
           <cell r="B93" t="str">
-            <v>ディストラクション</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>100511</v>
+            <v>100510</v>
           </cell>
           <cell r="B94" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>100610</v>
+            <v>100511</v>
           </cell>
           <cell r="B95" t="str">
-            <v>フルバースト</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>100611</v>
+            <v>100610</v>
           </cell>
           <cell r="B96" t="str">
-            <v>コウソクテンショウ</v>
+            <v>フルバースト</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>100710</v>
+            <v>100611</v>
           </cell>
           <cell r="B97" t="str">
-            <v>セメタリーコール</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>100711</v>
+            <v>100710</v>
           </cell>
           <cell r="B98" t="str">
-            <v>セルフカット</v>
+            <v>セメタリーコール</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>300010</v>
+            <v>100711</v>
           </cell>
           <cell r="B99" t="str">
-            <v>ファイアエンチャント</v>
+            <v>セルフカット</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>300020</v>
+            <v>300010</v>
           </cell>
           <cell r="B100" t="str">
-            <v>サンダーエンチャント</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>300030</v>
+            <v>300020</v>
           </cell>
           <cell r="B101" t="str">
-            <v>アイスエンチャント</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>300040</v>
+            <v>300030</v>
           </cell>
           <cell r="B102" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>300050</v>
+            <v>300040</v>
           </cell>
           <cell r="B103" t="str">
-            <v>ダークエンチャント</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>400001</v>
+            <v>300050</v>
           </cell>
           <cell r="B104" t="str">
-            <v>人体錬成+\d</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>400002</v>
+            <v>400001</v>
           </cell>
           <cell r="B105" t="str">
-            <v>理性拡張+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>400003</v>
+            <v>400002</v>
           </cell>
           <cell r="B106" t="str">
-            <v>存在修復+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>400004</v>
+            <v>400003</v>
           </cell>
           <cell r="B107" t="str">
-            <v>救済執行+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>400005</v>
+            <v>400004</v>
           </cell>
           <cell r="B108" t="str">
-            <v>素子補充+\d</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>400101</v>
+            <v>400005</v>
           </cell>
           <cell r="B109" t="str">
-            <v>最大Hp+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>400102</v>
+            <v>400101</v>
           </cell>
           <cell r="B110" t="str">
-            <v>最大Mp+\d</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>400103</v>
+            <v>400102</v>
           </cell>
           <cell r="B111" t="str">
-            <v>ATK+\d</v>
+            <v>最大Mp+\d</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>400104</v>
+            <v>400103</v>
           </cell>
           <cell r="B112" t="str">
-            <v>DEF+\d</v>
+            <v>ATK+\d</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>400105</v>
+            <v>400104</v>
           </cell>
           <cell r="B113" t="str">
-            <v>SPD+\d</v>
+            <v>DEF+\d</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>400201</v>
+            <v>400105</v>
           </cell>
           <cell r="B114" t="str">
-            <v>\d</v>
+            <v>SPD+\d</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
+            <v>400201</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
             <v>400301</v>
           </cell>
-          <cell r="B115" t="str">
+          <cell r="B116" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2207,8 +2215,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2270,7 +2278,7 @@
         <v>42</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -2308,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -2346,7 +2354,7 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>14</v>
@@ -2384,7 +2392,7 @@
         <v>49</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -2422,7 +2430,7 @@
         <v>53</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2460,7 +2468,7 @@
         <v>45</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -2498,7 +2506,7 @@
         <v>36</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>13</v>
@@ -2536,7 +2544,7 @@
         <v>37</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -2574,7 +2582,7 @@
         <v>48</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>11</v>
@@ -2612,7 +2620,7 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>15</v>
@@ -2650,7 +2658,7 @@
         <v>44</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>14</v>
@@ -2688,7 +2696,7 @@
         <v>40</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -2726,7 +2734,7 @@
         <v>42</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>14</v>
@@ -2764,7 +2772,7 @@
         <v>50</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>13</v>
@@ -2802,7 +2810,7 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>21</v>
@@ -2840,7 +2848,7 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>35</v>
@@ -2875,7 +2883,7 @@
         <v>100</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>35</v>
@@ -2910,7 +2918,7 @@
         <v>100</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>35</v>
@@ -2945,7 +2953,7 @@
         <v>100</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>35</v>
@@ -2980,7 +2988,7 @@
         <v>80</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>35</v>
@@ -3015,7 +3023,7 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>35</v>
@@ -3050,7 +3058,7 @@
         <v>100</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>35</v>
@@ -3085,7 +3093,7 @@
         <v>80</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>35</v>
@@ -3120,7 +3128,7 @@
         <v>80</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>35</v>
@@ -3155,7 +3163,7 @@
         <v>100</v>
       </c>
       <c r="E26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>35</v>
@@ -3193,7 +3201,7 @@
         <v>100</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F27">
         <v>35</v>
@@ -3231,7 +3239,7 @@
         <v>100</v>
       </c>
       <c r="E28">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F28">
         <v>35</v>
@@ -3269,7 +3277,7 @@
         <v>200</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F29">
         <v>35</v>
@@ -3307,7 +3315,7 @@
         <v>100</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>35</v>
@@ -3345,7 +3353,7 @@
         <v>100</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <v>35</v>
@@ -3383,7 +3391,7 @@
         <v>100</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F32">
         <v>35</v>
@@ -3421,7 +3429,7 @@
         <v>100</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F33">
         <v>35</v>
@@ -3459,7 +3467,7 @@
         <v>200</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F34">
         <v>35</v>
@@ -3497,7 +3505,7 @@
         <v>500</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F35">
         <v>35</v>
@@ -3530,7 +3538,7 @@
   <sheetPr/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="A110" sqref="$A110:$XFD111"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -315,7 +315,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,15 +388,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,21 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -373,50 +427,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,31 +444,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,13 +467,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,43 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,30 +551,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -575,31 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +587,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,19 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,60 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -748,6 +694,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -755,6 +740,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,737 +1185,745 @@
         </row>
         <row r="25">
           <cell r="A25">
-            <v>3030</v>
+            <v>3021</v>
           </cell>
           <cell r="B25" t="str">
-            <v>シールドスペル</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>3040</v>
+            <v>3030</v>
           </cell>
           <cell r="B26" t="str">
-            <v>エスコートソール</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>3050</v>
+            <v>3040</v>
           </cell>
           <cell r="B27" t="str">
-            <v>ディープフリーズ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>3060</v>
+            <v>3050</v>
           </cell>
           <cell r="B28" t="str">
-            <v>バブルブロウ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>3070</v>
+            <v>3060</v>
           </cell>
           <cell r="B29" t="str">
-            <v>アクアミラージュ</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>4010</v>
+            <v>3070</v>
           </cell>
           <cell r="B30" t="str">
-            <v>セイントレーザー</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>4020</v>
+            <v>4010</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ペネトレイト</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>4030</v>
+            <v>4020</v>
           </cell>
           <cell r="B32" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>4040</v>
+            <v>4030</v>
           </cell>
           <cell r="B33" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>4050</v>
+            <v>4040</v>
           </cell>
           <cell r="B34" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>4060</v>
+            <v>4050</v>
           </cell>
           <cell r="B35" t="str">
-            <v>ホーリーグレイス</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>4070</v>
+            <v>4060</v>
           </cell>
           <cell r="B36" t="str">
-            <v>プリズムリフレクター</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>5010</v>
+            <v>4070</v>
           </cell>
           <cell r="B37" t="str">
-            <v>ダークプリズン</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>5020</v>
+            <v>5010</v>
           </cell>
           <cell r="B38" t="str">
-            <v>ユーサネイジア</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>5030</v>
+            <v>5020</v>
           </cell>
           <cell r="B39" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>5040</v>
+            <v>5030</v>
           </cell>
           <cell r="B40" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>5050</v>
+            <v>5040</v>
           </cell>
           <cell r="B41" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>5060</v>
+            <v>5050</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ダークネス</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>5070</v>
+            <v>5060</v>
           </cell>
           <cell r="B43" t="str">
-            <v>シェイディークラウド</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>6010</v>
+            <v>5070</v>
           </cell>
           <cell r="B44" t="str">
-            <v>エンドオブサイクル</v>
+            <v>シェイディークラウド</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>7010</v>
+            <v>6010</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ウェイトユニゾン</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>11010</v>
+            <v>7010</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ウルフソウル</v>
+            <v>ウェイトユニゾン</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>11020</v>
+            <v>11010</v>
           </cell>
           <cell r="B47" t="str">
-            <v>プリディカメント</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>11030</v>
+            <v>11020</v>
           </cell>
           <cell r="B48" t="str">
-            <v>アサルトシフト</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>11040</v>
+            <v>11030</v>
           </cell>
           <cell r="B49" t="str">
-            <v>スタートダッシュ</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>11050</v>
+            <v>11040</v>
           </cell>
           <cell r="B50" t="str">
-            <v>ライズアップマインド</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>11060</v>
+            <v>11050</v>
           </cell>
           <cell r="B51" t="str">
-            <v>イグナイテッド</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>11070</v>
+            <v>11060</v>
           </cell>
           <cell r="B52" t="str">
-            <v>アフターバーナー</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>12010</v>
+            <v>11070</v>
           </cell>
           <cell r="B53" t="str">
-            <v>エクステンション</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>12020</v>
+            <v>12010</v>
           </cell>
           <cell r="B54" t="str">
-            <v>スパークフォグ</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>12030</v>
+            <v>12020</v>
           </cell>
           <cell r="B55" t="str">
-            <v>スウィフトカレント</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>12040</v>
+            <v>12030</v>
           </cell>
           <cell r="B56" t="str">
-            <v>ファストキャスター</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>12050</v>
+            <v>12040</v>
           </cell>
           <cell r="B57" t="str">
-            <v>ヘブンリーラック</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>12060</v>
+            <v>12050</v>
           </cell>
           <cell r="B58" t="str">
-            <v>クイックアクト</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>12070</v>
+            <v>12060</v>
           </cell>
           <cell r="B59" t="str">
-            <v>リベリオススプリッツ</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>13010</v>
+            <v>12070</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ガーディアンソウル</v>
+            <v>リベリオススプリッツ</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>13020</v>
+            <v>13010</v>
           </cell>
           <cell r="B61" t="str">
-            <v>アーマーコード</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>13030</v>
+            <v>13020</v>
           </cell>
           <cell r="B62" t="str">
-            <v>ガードシフト</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>13040</v>
+            <v>13030</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ノーリミット</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>13050</v>
+            <v>13040</v>
           </cell>
           <cell r="B64" t="str">
-            <v>カウンターヒール</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>13060</v>
+            <v>13050</v>
           </cell>
           <cell r="B65" t="str">
-            <v>ペイシャンス</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>13070</v>
+            <v>13060</v>
           </cell>
           <cell r="B66" t="str">
-            <v>アシッドラッシュ</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>14010</v>
+            <v>13070</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ディバインシールド</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>14020</v>
+            <v>14010</v>
           </cell>
           <cell r="B68" t="str">
-            <v>メディケーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>14030</v>
+            <v>14020</v>
           </cell>
           <cell r="B69" t="str">
-            <v>エイミングスコープ</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>14040</v>
+            <v>14030</v>
           </cell>
           <cell r="B70" t="str">
-            <v>リジェネレーション</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>14050</v>
+            <v>14040</v>
           </cell>
           <cell r="B71" t="str">
-            <v>アライアンス</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>14060</v>
+            <v>14050</v>
           </cell>
           <cell r="B72" t="str">
-            <v>スペクトルマイン</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>14070</v>
+            <v>14060</v>
           </cell>
           <cell r="B73" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>14080</v>
+            <v>14070</v>
           </cell>
           <cell r="B74" t="str">
-            <v>スペリオール</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>15010</v>
+            <v>14080</v>
           </cell>
           <cell r="B75" t="str">
-            <v>イーグルアイ</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>15020</v>
+            <v>15010</v>
           </cell>
           <cell r="B76" t="str">
-            <v>ネヴァーエンド</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>15030</v>
+            <v>15020</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>15040</v>
+            <v>15030</v>
           </cell>
           <cell r="B78" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>15050</v>
+            <v>15040</v>
           </cell>
           <cell r="B79" t="str">
-            <v>クリープアウト</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>15060</v>
+            <v>15050</v>
           </cell>
           <cell r="B80" t="str">
-            <v>アンデッドペイン</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>15070</v>
+            <v>15060</v>
           </cell>
           <cell r="B81" t="str">
-            <v>アップグルント</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>100110</v>
+            <v>15070</v>
           </cell>
           <cell r="B82" t="str">
-            <v>インフェルノ</v>
+            <v>アップグルント</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>100111</v>
+            <v>100110</v>
           </cell>
           <cell r="B83" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>100210</v>
+            <v>100111</v>
           </cell>
           <cell r="B84" t="str">
-            <v>ステップリーダー</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>100211</v>
+            <v>100210</v>
           </cell>
           <cell r="B85" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>100310</v>
+            <v>100211</v>
           </cell>
           <cell r="B86" t="str">
-            <v>フリジットシェル</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>100311</v>
+            <v>100310</v>
           </cell>
           <cell r="B87" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>100320</v>
+            <v>100311</v>
           </cell>
           <cell r="B88" t="str">
-            <v>アンチドード</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>100321</v>
+            <v>100320</v>
           </cell>
           <cell r="B89" t="str">
-            <v>コオリノセカイヘ</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>100410</v>
+            <v>100321</v>
           </cell>
           <cell r="B90" t="str">
-            <v>エリクシール</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>100411</v>
+            <v>100410</v>
           </cell>
           <cell r="B91" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>100420</v>
+            <v>100411</v>
           </cell>
           <cell r="B92" t="str">
-            <v>ブレークザウォール</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>100421</v>
+            <v>100420</v>
           </cell>
           <cell r="B93" t="str">
-            <v>トリニティレイ</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>100510</v>
+            <v>100421</v>
           </cell>
           <cell r="B94" t="str">
-            <v>ディストラクション</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>100511</v>
+            <v>100510</v>
           </cell>
           <cell r="B95" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>100610</v>
+            <v>100511</v>
           </cell>
           <cell r="B96" t="str">
-            <v>フルバースト</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>100611</v>
+            <v>100610</v>
           </cell>
           <cell r="B97" t="str">
-            <v>コウソクテンショウ</v>
+            <v>フルバースト</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>100710</v>
+            <v>100611</v>
           </cell>
           <cell r="B98" t="str">
-            <v>セメタリーコール</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>100711</v>
+            <v>100710</v>
           </cell>
           <cell r="B99" t="str">
-            <v>セルフカット</v>
+            <v>セメタリーコール</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>300010</v>
+            <v>100711</v>
           </cell>
           <cell r="B100" t="str">
-            <v>ファイアエンチャント</v>
+            <v>セルフカット</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>300020</v>
+            <v>300010</v>
           </cell>
           <cell r="B101" t="str">
-            <v>サンダーエンチャント</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>300030</v>
+            <v>300020</v>
           </cell>
           <cell r="B102" t="str">
-            <v>アイスエンチャント</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>300040</v>
+            <v>300030</v>
           </cell>
           <cell r="B103" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>300050</v>
+            <v>300040</v>
           </cell>
           <cell r="B104" t="str">
-            <v>ダークエンチャント</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>400001</v>
+            <v>300050</v>
           </cell>
           <cell r="B105" t="str">
-            <v>人体錬成+\d</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>400002</v>
+            <v>400001</v>
           </cell>
           <cell r="B106" t="str">
-            <v>理性拡張+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>400003</v>
+            <v>400002</v>
           </cell>
           <cell r="B107" t="str">
-            <v>存在修復+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>400004</v>
+            <v>400003</v>
           </cell>
           <cell r="B108" t="str">
-            <v>救済執行+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>400005</v>
+            <v>400004</v>
           </cell>
           <cell r="B109" t="str">
-            <v>素子補充+\d</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>400101</v>
+            <v>400005</v>
           </cell>
           <cell r="B110" t="str">
-            <v>最大Hp+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>400102</v>
+            <v>400101</v>
           </cell>
           <cell r="B111" t="str">
-            <v>最大Mp+\d</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>400103</v>
+            <v>400102</v>
           </cell>
           <cell r="B112" t="str">
-            <v>ATK+\d</v>
+            <v>最大Mp+\d</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>400104</v>
+            <v>400103</v>
           </cell>
           <cell r="B113" t="str">
-            <v>DEF+\d</v>
+            <v>ATK+\d</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>400105</v>
+            <v>400104</v>
           </cell>
           <cell r="B114" t="str">
-            <v>SPD+\d</v>
+            <v>DEF+\d</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>400201</v>
+            <v>400105</v>
           </cell>
           <cell r="B115" t="str">
-            <v>\d</v>
+            <v>SPD+\d</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
+            <v>400201</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
             <v>400301</v>
           </cell>
-          <cell r="B116" t="str">
+          <cell r="B117" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2215,7 +2223,7 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -3538,8 +3546,8 @@
   <sheetPr/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A110" sqref="$A110:$XFD111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,8 +314,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,24 +336,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,15 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,14 +368,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,34 +412,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,18 +444,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,7 +467,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,37 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,61 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,43 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,19 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,24 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -695,6 +677,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -705,30 +702,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +731,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2223,7 +2223,7 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -3546,8 +3546,8 @@
   <sheetPr/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3736,11 +3736,11 @@
         <v>3</v>
       </c>
       <c r="B11">
-        <v>12050</v>
+        <v>12010</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B11,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+        <v>エクステンション</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -4132,11 +4132,11 @@
         <v>9</v>
       </c>
       <c r="B33">
-        <v>13030</v>
+        <v>11030</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B33,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
+        <v>アサルトシフト</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -4276,11 +4276,11 @@
         <v>11</v>
       </c>
       <c r="B41">
-        <v>3040</v>
+        <v>13020</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B41,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+        <v>アーマーコード</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -4294,11 +4294,11 @@
         <v>11</v>
       </c>
       <c r="B42">
-        <v>13020</v>
+        <v>3040</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B42,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
+        <v>エスコートソール</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -4384,11 +4384,11 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>4060</v>
+        <v>14040</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B47,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D47">
         <v>5</v>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,9 +300,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -314,9 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +328,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -336,8 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,6 +346,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,23 +391,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,33 +419,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,7 +437,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +452,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,13 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,25 +503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +527,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +587,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,55 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,19 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,7 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,32 +661,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,11 +689,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,11 +735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,15 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,7 +766,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,7 +775,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,127 +784,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,873 +1057,881 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>41</v>
+            <v>1010</v>
           </cell>
           <cell r="B9" t="str">
-            <v>アンデッド</v>
+            <v>ファイアボール</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>42</v>
+            <v>1020</v>
           </cell>
           <cell r="B10" t="str">
-            <v>アンデッド回復</v>
+            <v>バーンストーム</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>1010</v>
+            <v>1030</v>
           </cell>
           <cell r="B11" t="str">
-            <v>ファイアボール</v>
+            <v>ヒートスタンプ</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>1020</v>
+            <v>1040</v>
           </cell>
           <cell r="B12" t="str">
-            <v>バーンストーム</v>
+            <v>ソードアダプト</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>1030</v>
+            <v>1050</v>
           </cell>
           <cell r="B13" t="str">
-            <v>ヒートスタンプ</v>
+            <v>メルトバースト</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>1040</v>
+            <v>2010</v>
           </cell>
           <cell r="B14" t="str">
-            <v>ソードアダプト</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>1050</v>
+            <v>2020</v>
           </cell>
           <cell r="B15" t="str">
-            <v>メルトバースト</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>2010</v>
+            <v>2030</v>
           </cell>
           <cell r="B16" t="str">
-            <v>ディスチャージ</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>2020</v>
+            <v>2040</v>
           </cell>
           <cell r="B17" t="str">
-            <v>ライトニングウェブ</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>2030</v>
+            <v>2050</v>
           </cell>
           <cell r="B18" t="str">
-            <v>シャープコード</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>2040</v>
+            <v>2060</v>
           </cell>
           <cell r="B19" t="str">
-            <v>ショックインパルス</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>2050</v>
+            <v>2070</v>
           </cell>
           <cell r="B20" t="str">
-            <v>トラストチェイン</v>
+            <v>リフレクセス</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>2060</v>
+            <v>3010</v>
           </cell>
           <cell r="B21" t="str">
-            <v>アクセラレイト</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>2070</v>
+            <v>3020</v>
           </cell>
           <cell r="B22" t="str">
-            <v>リフレクセス</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>3010</v>
+            <v>3021</v>
           </cell>
           <cell r="B23" t="str">
-            <v>アイスブレイド</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>3020</v>
+            <v>3030</v>
           </cell>
           <cell r="B24" t="str">
-            <v>カウンターオーラ</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>3021</v>
+            <v>3040</v>
           </cell>
           <cell r="B25" t="str">
-            <v>カウンターオーラ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>3030</v>
+            <v>3050</v>
           </cell>
           <cell r="B26" t="str">
-            <v>シールドスペル</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>3040</v>
+            <v>3060</v>
           </cell>
           <cell r="B27" t="str">
-            <v>エスコートソール</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>3050</v>
+            <v>3070</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ディープフリーズ</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>3060</v>
+            <v>4010</v>
           </cell>
           <cell r="B29" t="str">
-            <v>バブルブロウ</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>3070</v>
+            <v>4020</v>
           </cell>
           <cell r="B30" t="str">
-            <v>アクアミラージュ</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>4010</v>
+            <v>4030</v>
           </cell>
           <cell r="B31" t="str">
-            <v>セイントレーザー</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>4020</v>
+            <v>4040</v>
           </cell>
           <cell r="B32" t="str">
-            <v>ペネトレイト</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>4030</v>
+            <v>4050</v>
           </cell>
           <cell r="B33" t="str">
-            <v>ヒーリング</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>4040</v>
+            <v>4060</v>
           </cell>
           <cell r="B34" t="str">
-            <v>リフレッシュ</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>4050</v>
+            <v>4070</v>
           </cell>
           <cell r="B35" t="str">
-            <v>べネディクション</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>4060</v>
+            <v>5010</v>
           </cell>
           <cell r="B36" t="str">
-            <v>ホーリーグレイス</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>4070</v>
+            <v>5020</v>
           </cell>
           <cell r="B37" t="str">
-            <v>プリズムリフレクター</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>5010</v>
+            <v>5030</v>
           </cell>
           <cell r="B38" t="str">
-            <v>ダークプリズン</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>5020</v>
+            <v>5040</v>
           </cell>
           <cell r="B39" t="str">
-            <v>ユーサネイジア</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>5030</v>
+            <v>5050</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ドレインヒール</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>5040</v>
+            <v>5060</v>
           </cell>
           <cell r="B41" t="str">
-            <v>デリートマジック</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>5050</v>
+            <v>5070</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ディプラヴィティ</v>
+            <v>シェイディークラウド</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>5060</v>
+            <v>6010</v>
           </cell>
           <cell r="B43" t="str">
-            <v>ダークネス</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>5070</v>
+            <v>7010</v>
           </cell>
           <cell r="B44" t="str">
-            <v>シェイディークラウド</v>
+            <v>ウェイトユニゾン</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>6010</v>
+            <v>10010</v>
           </cell>
           <cell r="B45" t="str">
-            <v>エンドオブサイクル</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>7010</v>
+            <v>10020</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ウェイトユニゾン</v>
+            <v>クリーチャー</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>11010</v>
+            <v>10030</v>
           </cell>
           <cell r="B47" t="str">
-            <v>ウルフソウル</v>
+            <v>ハイワンズ</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>11020</v>
+            <v>11010</v>
           </cell>
           <cell r="B48" t="str">
-            <v>プリディカメント</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>11030</v>
+            <v>11020</v>
           </cell>
           <cell r="B49" t="str">
-            <v>アサルトシフト</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>11040</v>
+            <v>11030</v>
           </cell>
           <cell r="B50" t="str">
-            <v>スタートダッシュ</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>11050</v>
+            <v>11040</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ライズアップマインド</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>11060</v>
+            <v>11050</v>
           </cell>
           <cell r="B52" t="str">
-            <v>イグナイテッド</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>11070</v>
+            <v>11060</v>
           </cell>
           <cell r="B53" t="str">
-            <v>アフターバーナー</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>12010</v>
+            <v>11070</v>
           </cell>
           <cell r="B54" t="str">
-            <v>エクステンション</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>12020</v>
+            <v>12010</v>
           </cell>
           <cell r="B55" t="str">
-            <v>スパークフォグ</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>12030</v>
+            <v>12020</v>
           </cell>
           <cell r="B56" t="str">
-            <v>スウィフトカレント</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>12040</v>
+            <v>12030</v>
           </cell>
           <cell r="B57" t="str">
-            <v>ファストキャスター</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>12050</v>
+            <v>12040</v>
           </cell>
           <cell r="B58" t="str">
-            <v>ヘブンリーラック</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>12060</v>
+            <v>12050</v>
           </cell>
           <cell r="B59" t="str">
-            <v>クイックアクト</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>12070</v>
+            <v>12060</v>
           </cell>
           <cell r="B60" t="str">
-            <v>リベリオススプリッツ</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>13010</v>
+            <v>12070</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ガーディアンソウル</v>
+            <v>リベリオススプリッツ</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>13020</v>
+            <v>13010</v>
           </cell>
           <cell r="B62" t="str">
-            <v>アーマーコード</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>13030</v>
+            <v>13020</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ガードシフト</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>13040</v>
+            <v>13030</v>
           </cell>
           <cell r="B64" t="str">
-            <v>ノーリミット</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>13050</v>
+            <v>13040</v>
           </cell>
           <cell r="B65" t="str">
-            <v>カウンターヒール</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>13060</v>
+            <v>13050</v>
           </cell>
           <cell r="B66" t="str">
-            <v>ペイシャンス</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>13070</v>
+            <v>13060</v>
           </cell>
           <cell r="B67" t="str">
-            <v>アシッドラッシュ</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>14010</v>
+            <v>13070</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ディバインシールド</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>14020</v>
+            <v>14010</v>
           </cell>
           <cell r="B69" t="str">
-            <v>メディケーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>14030</v>
+            <v>14020</v>
           </cell>
           <cell r="B70" t="str">
-            <v>エイミングスコープ</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>14040</v>
+            <v>14030</v>
           </cell>
           <cell r="B71" t="str">
-            <v>リジェネレーション</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>14050</v>
+            <v>14040</v>
           </cell>
           <cell r="B72" t="str">
-            <v>アライアンス</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>14060</v>
+            <v>14050</v>
           </cell>
           <cell r="B73" t="str">
-            <v>スペクトルマイン</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>14070</v>
+            <v>14060</v>
           </cell>
           <cell r="B74" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>14080</v>
+            <v>14070</v>
           </cell>
           <cell r="B75" t="str">
-            <v>スペリオール</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>15010</v>
+            <v>14080</v>
           </cell>
           <cell r="B76" t="str">
-            <v>イーグルアイ</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>15020</v>
+            <v>15010</v>
           </cell>
           <cell r="B77" t="str">
-            <v>ネヴァーエンド</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>15030</v>
+            <v>15020</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>15040</v>
+            <v>15030</v>
           </cell>
           <cell r="B79" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>15050</v>
+            <v>15040</v>
           </cell>
           <cell r="B80" t="str">
-            <v>クリープアウト</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>15060</v>
+            <v>15050</v>
           </cell>
           <cell r="B81" t="str">
-            <v>アンデッドペイン</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>15070</v>
+            <v>15060</v>
           </cell>
           <cell r="B82" t="str">
-            <v>アップグルント</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>100110</v>
+            <v>15070</v>
           </cell>
           <cell r="B83" t="str">
-            <v>インフェルノ</v>
+            <v>アップグルント</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>100111</v>
+            <v>100110</v>
           </cell>
           <cell r="B84" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>100210</v>
+            <v>100111</v>
           </cell>
           <cell r="B85" t="str">
-            <v>ステップリーダー</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>100211</v>
+            <v>100210</v>
           </cell>
           <cell r="B86" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>100310</v>
+            <v>100211</v>
           </cell>
           <cell r="B87" t="str">
-            <v>フリジットシェル</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>100311</v>
+            <v>100310</v>
           </cell>
           <cell r="B88" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>100320</v>
+            <v>100311</v>
           </cell>
           <cell r="B89" t="str">
-            <v>アンチドード</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>100321</v>
+            <v>100320</v>
           </cell>
           <cell r="B90" t="str">
-            <v>コオリノセカイヘ</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>100410</v>
+            <v>100321</v>
           </cell>
           <cell r="B91" t="str">
-            <v>エリクシール</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>100411</v>
+            <v>100410</v>
           </cell>
           <cell r="B92" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>100420</v>
+            <v>100411</v>
           </cell>
           <cell r="B93" t="str">
-            <v>ブレークザウォール</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>100421</v>
+            <v>100420</v>
           </cell>
           <cell r="B94" t="str">
-            <v>トリニティレイ</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>100510</v>
+            <v>100421</v>
           </cell>
           <cell r="B95" t="str">
-            <v>ディストラクション</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>100511</v>
+            <v>100510</v>
           </cell>
           <cell r="B96" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>100610</v>
+            <v>100511</v>
           </cell>
           <cell r="B97" t="str">
-            <v>フルバースト</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>100611</v>
+            <v>100610</v>
           </cell>
           <cell r="B98" t="str">
-            <v>コウソクテンショウ</v>
+            <v>フルバースト</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>100710</v>
+            <v>100611</v>
           </cell>
           <cell r="B99" t="str">
-            <v>セメタリーコール</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>100711</v>
+            <v>100710</v>
           </cell>
           <cell r="B100" t="str">
-            <v>セルフカット</v>
+            <v>セメタリーコール</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>300010</v>
+            <v>100711</v>
           </cell>
           <cell r="B101" t="str">
-            <v>ファイアエンチャント</v>
+            <v>セルフカット</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>300020</v>
+            <v>300010</v>
           </cell>
           <cell r="B102" t="str">
-            <v>サンダーエンチャント</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>300030</v>
+            <v>300020</v>
           </cell>
           <cell r="B103" t="str">
-            <v>アイスエンチャント</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>300040</v>
+            <v>300030</v>
           </cell>
           <cell r="B104" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>300050</v>
+            <v>300040</v>
           </cell>
           <cell r="B105" t="str">
-            <v>ダークエンチャント</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>400001</v>
+            <v>300050</v>
           </cell>
           <cell r="B106" t="str">
-            <v>人体錬成+\d</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>400002</v>
+            <v>400001</v>
           </cell>
           <cell r="B107" t="str">
-            <v>理性拡張+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>400003</v>
+            <v>400002</v>
           </cell>
           <cell r="B108" t="str">
-            <v>存在修復+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>400004</v>
+            <v>400003</v>
           </cell>
           <cell r="B109" t="str">
-            <v>救済執行+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>400005</v>
+            <v>400004</v>
           </cell>
           <cell r="B110" t="str">
-            <v>素子補充+\d</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>400101</v>
+            <v>400005</v>
           </cell>
           <cell r="B111" t="str">
-            <v>最大Hp+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>400102</v>
+            <v>400101</v>
           </cell>
           <cell r="B112" t="str">
-            <v>最大Mp+\d</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>400103</v>
+            <v>400102</v>
           </cell>
           <cell r="B113" t="str">
-            <v>ATK+\d</v>
+            <v>最大Mp+\d</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>400104</v>
+            <v>400103</v>
           </cell>
           <cell r="B114" t="str">
-            <v>DEF+\d</v>
+            <v>ATK+\d</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>400105</v>
+            <v>400104</v>
           </cell>
           <cell r="B115" t="str">
-            <v>SPD+\d</v>
+            <v>DEF+\d</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>400201</v>
+            <v>400105</v>
           </cell>
           <cell r="B116" t="str">
-            <v>\d</v>
+            <v>SPD+\d</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
+            <v>400201</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>\d</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
             <v>400301</v>
           </cell>
-          <cell r="B117" t="str">
+          <cell r="B118" t="str">
             <v>すべて死せる魂+\d</v>
           </cell>
         </row>
@@ -2223,8 +2231,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2298,7 +2306,7 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2339,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2374,7 +2382,7 @@
         <v>37</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2412,7 +2420,7 @@
         <v>22</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2450,7 +2458,7 @@
         <v>16</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2488,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2526,7 +2534,7 @@
         <v>32</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2564,7 +2572,7 @@
         <v>14</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2602,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2640,7 +2648,7 @@
         <v>35</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2678,7 +2686,7 @@
         <v>26</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2719,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2754,7 +2762,7 @@
         <v>30</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2795,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2830,7 +2838,7 @@
         <v>24</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2868,7 +2876,7 @@
         <v>30</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2903,7 +2911,7 @@
         <v>30</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2938,7 +2946,7 @@
         <v>30</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2973,7 +2981,7 @@
         <v>30</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3011,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3043,7 +3051,7 @@
         <v>30</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3078,7 +3086,7 @@
         <v>30</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3116,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3148,7 +3156,7 @@
         <v>30</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3186,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3221,7 +3229,7 @@
         <v>30</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3259,7 +3267,7 @@
         <v>30</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3297,7 +3305,7 @@
         <v>30</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3335,7 +3343,7 @@
         <v>30</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3373,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3411,7 +3419,7 @@
         <v>30</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3449,7 +3457,7 @@
         <v>30</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3487,7 +3495,7 @@
         <v>30</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3546,7 +3554,7 @@
   <sheetPr/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -301,8 +301,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -315,9 +315,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,9 +336,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,26 +382,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,14 +402,6 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,7 +414,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +422,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,38 +444,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +467,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,85 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,55 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,13 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,11 +663,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,24 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -720,17 +724,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,15 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,15 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -330,7 +323,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,6 +352,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -361,75 +392,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,7 +407,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +415,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,25 +467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,25 +503,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,13 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,37 +569,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,37 +617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,19 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,31 +665,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,16 +686,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,8 +703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +734,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1516,7 +1516,7 @@
             <v>13050</v>
           </cell>
           <cell r="B66" t="str">
-            <v>カウンターヒール</v>
+            <v>コールドシェル</v>
           </cell>
         </row>
         <row r="67">
@@ -2231,7 +2231,7 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -316,9 +316,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,22 +353,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,32 +375,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,15 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -421,8 +396,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -437,22 +419,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,13 +467,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +509,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,25 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,31 +581,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,79 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,6 +627,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -658,30 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -700,26 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -731,6 +687,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +729,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2231,7 +2231,7 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -5908,10 +5908,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -5941,19 +5941,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4030</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5964,19 +5964,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4050</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5987,19 +5987,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1030</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6010,19 +6010,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4060</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6033,19 +6033,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4030</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6056,42 +6056,42 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7">
+        <v>1040</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>4030</v>
+        <v>1040</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6102,13 +6102,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="B9">
-        <v>4050</v>
+        <v>3060</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6125,19 +6125,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B10">
+        <v>2060</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6148,42 +6148,42 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B11">
+        <v>1040</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="B12">
+        <v>1040</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>32</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6194,19 +6194,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="B13">
-        <v>1030</v>
+        <v>1050</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -6217,45 +6217,45 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B14">
+        <v>4050</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>4050</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6263,19 +6263,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B16">
+        <v>5060</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <v>2</v>
-      </c>
-      <c r="C16">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6286,10 +6286,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B17">
-        <v>4060</v>
+        <v>5050</v>
       </c>
       <c r="C17">
         <v>21</v>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6309,19 +6309,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B18">
+        <v>3060</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>2</v>
-      </c>
-      <c r="C18">
-        <v>32</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -6332,19 +6332,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="B19">
-        <v>4030</v>
+        <v>3020</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -6355,392 +6355,70 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="B20">
+        <v>4050</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>32</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="B21">
-        <v>1040</v>
+        <v>4050</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>15</v>
+        <v>301</v>
       </c>
       <c r="B22">
-        <v>1040</v>
+        <v>6010</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>101</v>
-      </c>
-      <c r="B23">
-        <v>3060</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>50</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>102</v>
-      </c>
-      <c r="B24">
-        <v>2060</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>50</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>103</v>
-      </c>
-      <c r="B25">
-        <v>1040</v>
-      </c>
-      <c r="C25">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>103</v>
-      </c>
-      <c r="B26">
-        <v>1040</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>75</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>104</v>
-      </c>
-      <c r="B27">
-        <v>1050</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>105</v>
-      </c>
-      <c r="B28">
-        <v>4050</v>
-      </c>
-      <c r="C28">
-        <v>22</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>105</v>
-      </c>
-      <c r="B29">
-        <v>4050</v>
-      </c>
-      <c r="C29">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>107</v>
-      </c>
-      <c r="B30">
-        <v>5060</v>
-      </c>
-      <c r="C30">
-        <v>22</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>113</v>
-      </c>
-      <c r="B31">
-        <v>5050</v>
-      </c>
-      <c r="C31">
-        <v>21</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>114</v>
-      </c>
-      <c r="B32">
-        <v>3060</v>
-      </c>
-      <c r="C32">
-        <v>22</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>203</v>
-      </c>
-      <c r="B33">
-        <v>3020</v>
-      </c>
-      <c r="C33">
-        <v>22</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>204</v>
-      </c>
-      <c r="B34">
-        <v>4050</v>
-      </c>
-      <c r="C34">
-        <v>22</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>204</v>
-      </c>
-      <c r="B35">
-        <v>4050</v>
-      </c>
-      <c r="C35">
-        <v>63</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>301</v>
-      </c>
-      <c r="B36">
-        <v>6010</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>100</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -311,37 +311,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,7 +329,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,48 +396,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,16 +427,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,6 +449,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -464,6 +464,78 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -479,13 +551,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,25 +611,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,127 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -691,41 +721,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,8 +742,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1933,6 +1933,182 @@
           </cell>
           <cell r="B118" t="str">
             <v>すべて死せる魂+\d</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>500001</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>【愚者】</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>500002</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>【魔術師】</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>500003</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>【女教皇】</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>500004</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>【女帝】</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>500005</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>【皇帝】</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>500006</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>【法王】</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>500007</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>【恋愛】</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>500008</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>【戦車】</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>500009</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>【正義】</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>500010</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>【隠者】</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>500011</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>【運命】</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>500012</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>【剛毅】</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>500013</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>【刑死者】</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>500014</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>【死神】</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>500015</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>【節制】</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>500016</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>【悪魔】</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>500017</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>【塔】</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136">
+            <v>500018</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>【星】</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>500019</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>【月】</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>500020</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>【太陽】</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>500021</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>【審判】</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>500022</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>【世界】</v>
           </cell>
         </row>
       </sheetData>
@@ -3554,8 +3730,8 @@
   <sheetPr/>
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -5908,10 +6084,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -6235,27 +6411,27 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B15">
-        <v>4050</v>
+        <v>5060</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -6263,13 +6439,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B16">
-        <v>5060</v>
+        <v>5050</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -6286,13 +6462,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B17">
-        <v>5050</v>
+        <v>3060</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6309,10 +6485,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B18">
-        <v>3060</v>
+        <v>3020</v>
       </c>
       <c r="C18">
         <v>22</v>
@@ -6332,10 +6508,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19">
-        <v>3020</v>
+        <v>4050</v>
       </c>
       <c r="C19">
         <v>22</v>
@@ -6350,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6361,64 +6537,41 @@
         <v>4050</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="B21">
-        <v>4050</v>
+        <v>6010</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>301</v>
-      </c>
-      <c r="B22">
-        <v>6010</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
         <v>0</v>
       </c>
     </row>
@@ -6433,7 +6586,7 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -311,6 +311,29 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,22 +358,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +376,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,37 +413,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -420,21 +436,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -442,17 +443,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,49 +467,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +539,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,31 +599,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,61 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,21 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -706,35 +691,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +725,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1924,7 +1924,7 @@
             <v>400201</v>
           </cell>
           <cell r="B117" t="str">
-            <v>\d</v>
+            <v>\d入手</v>
           </cell>
         </row>
         <row r="118">
@@ -2407,8 +2407,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3728,10 +3728,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -4925,20 +4925,20 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67">
-        <v>2010</v>
+        <v>14010</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4946,35 +4946,35 @@
         <v>106</v>
       </c>
       <c r="B68">
-        <v>2050</v>
+        <v>2010</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69">
-        <v>5010</v>
+        <v>2050</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4982,35 +4982,35 @@
         <v>107</v>
       </c>
       <c r="B70">
-        <v>5060</v>
+        <v>5010</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B71">
-        <v>5010</v>
+        <v>5060</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>ダークネス</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5018,35 +5018,35 @@
         <v>113</v>
       </c>
       <c r="B72">
-        <v>5050</v>
+        <v>5010</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73">
-        <v>3010</v>
+        <v>5050</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5054,17 +5054,17 @@
         <v>114</v>
       </c>
       <c r="B74">
-        <v>3070</v>
+        <v>3010</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5072,35 +5072,35 @@
         <v>114</v>
       </c>
       <c r="B75">
-        <v>2060</v>
+        <v>3070</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B76">
-        <v>5010</v>
+        <v>2060</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5108,17 +5108,17 @@
         <v>201</v>
       </c>
       <c r="B77">
-        <v>15030</v>
+        <v>5010</v>
       </c>
       <c r="C77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B77,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5126,17 +5126,17 @@
         <v>201</v>
       </c>
       <c r="B78">
-        <v>5020</v>
+        <v>15030</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5144,11 +5144,11 @@
         <v>201</v>
       </c>
       <c r="B79">
-        <v>100510</v>
+        <v>5020</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -5162,11 +5162,11 @@
         <v>201</v>
       </c>
       <c r="B80">
-        <v>100511</v>
+        <v>100510</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>ディストラクション</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -5177,20 +5177,20 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81">
-        <v>2010</v>
+        <v>100511</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>カオスペイン</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5198,17 +5198,17 @@
         <v>202</v>
       </c>
       <c r="B82">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5216,17 +5216,17 @@
         <v>202</v>
       </c>
       <c r="B83">
-        <v>100210</v>
+        <v>2020</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5234,35 +5234,35 @@
         <v>202</v>
       </c>
       <c r="B84">
-        <v>100211</v>
+        <v>100210</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>ステップリーダー</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B85">
-        <v>3010</v>
+        <v>100211</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ユビサキデカラメトル</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5270,17 +5270,17 @@
         <v>203</v>
       </c>
       <c r="B86">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5288,11 +5288,11 @@
         <v>203</v>
       </c>
       <c r="B87">
-        <v>3050</v>
+        <v>3020</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -5306,11 +5306,11 @@
         <v>203</v>
       </c>
       <c r="B88">
-        <v>100310</v>
+        <v>3050</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5324,11 +5324,11 @@
         <v>203</v>
       </c>
       <c r="B89">
-        <v>100311</v>
+        <v>100310</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>フリジットシェル</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -5339,20 +5339,20 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B90">
-        <v>4010</v>
+        <v>100311</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>ノロマナカメニナレ</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5360,11 +5360,11 @@
         <v>204</v>
       </c>
       <c r="B91">
-        <v>14040</v>
+        <v>4010</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -5378,11 +5378,11 @@
         <v>204</v>
       </c>
       <c r="B92">
-        <v>100410</v>
+        <v>14040</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -5396,11 +5396,11 @@
         <v>204</v>
       </c>
       <c r="B93">
-        <v>100411</v>
+        <v>100410</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>エリクシール</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5414,11 +5414,11 @@
         <v>204</v>
       </c>
       <c r="B94">
-        <v>14010</v>
+        <v>100411</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>エンジェルフェザー</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5432,17 +5432,17 @@
         <v>204</v>
       </c>
       <c r="B95">
-        <v>12010</v>
+        <v>14010</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5450,17 +5450,17 @@
         <v>204</v>
       </c>
       <c r="B96">
-        <v>4050</v>
+        <v>12010</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>エクステンション</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5468,11 +5468,11 @@
         <v>204</v>
       </c>
       <c r="B97">
-        <v>4060</v>
+        <v>4050</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>べネディクション</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -5486,11 +5486,11 @@
         <v>204</v>
       </c>
       <c r="B98">
-        <v>14070</v>
+        <v>4060</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5501,14 +5501,14 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B99">
-        <v>1010</v>
+        <v>14070</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5522,17 +5522,17 @@
         <v>205</v>
       </c>
       <c r="B100">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5540,17 +5540,17 @@
         <v>205</v>
       </c>
       <c r="B101">
-        <v>100110</v>
+        <v>1020</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5558,11 +5558,11 @@
         <v>205</v>
       </c>
       <c r="B102">
-        <v>100111</v>
+        <v>100110</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>インフェルノ</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5576,11 +5576,11 @@
         <v>205</v>
       </c>
       <c r="B103">
-        <v>12010</v>
+        <v>100111</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>スベテモヤシツクス</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5591,20 +5591,20 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B104">
-        <v>2010</v>
+        <v>12010</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>エクステンション</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5612,17 +5612,17 @@
         <v>206</v>
       </c>
       <c r="B105">
-        <v>2070</v>
+        <v>2010</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>リフレクセス</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
       <c r="E105">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5630,17 +5630,17 @@
         <v>206</v>
       </c>
       <c r="B106">
-        <v>100610</v>
+        <v>2070</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>フルバースト</v>
+        <v>リフレクセス</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5648,17 +5648,17 @@
         <v>206</v>
       </c>
       <c r="B107">
-        <v>100611</v>
+        <v>100610</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>コウソクテンショウ</v>
+        <v>フルバースト</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5666,35 +5666,35 @@
         <v>206</v>
       </c>
       <c r="B108">
-        <v>12010</v>
+        <v>100611</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>コウソクテンショウ</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B109">
-        <v>5010</v>
+        <v>12010</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>エクステンション</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5702,17 +5702,17 @@
         <v>207</v>
       </c>
       <c r="B110">
-        <v>5050</v>
+        <v>5010</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5720,17 +5720,17 @@
         <v>207</v>
       </c>
       <c r="B111">
-        <v>15040</v>
+        <v>5050</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5738,17 +5738,17 @@
         <v>207</v>
       </c>
       <c r="B112">
-        <v>100710</v>
+        <v>15040</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
-        <v>セメタリーコール</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5756,11 +5756,11 @@
         <v>207</v>
       </c>
       <c r="B113">
-        <v>100711</v>
+        <v>100710</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
-        <v>セルフカット</v>
+        <v>セメタリーコール</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -5771,20 +5771,20 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="B114">
-        <v>2010</v>
+        <v>100711</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>セルフカット</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5792,17 +5792,17 @@
         <v>301</v>
       </c>
       <c r="B115">
-        <v>6010</v>
+        <v>2010</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D115">
         <v>1</v>
       </c>
       <c r="E115">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5810,35 +5810,35 @@
         <v>301</v>
       </c>
       <c r="B116">
-        <v>12010</v>
+        <v>6010</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>エンドオブサイクル</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="B117">
-        <v>3010</v>
+        <v>12010</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>エクステンション</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5846,17 +5846,17 @@
         <v>213</v>
       </c>
       <c r="B118">
-        <v>3050</v>
+        <v>3010</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5864,17 +5864,17 @@
         <v>213</v>
       </c>
       <c r="B119">
-        <v>3070</v>
+        <v>3050</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5882,17 +5882,17 @@
         <v>213</v>
       </c>
       <c r="B120">
-        <v>100320</v>
+        <v>3070</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
-        <v>アンチドード</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5900,35 +5900,35 @@
         <v>213</v>
       </c>
       <c r="B121">
-        <v>100321</v>
+        <v>100320</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
-        <v>コオリノセカイヘ</v>
+        <v>アンチドード</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B122">
-        <v>4010</v>
+        <v>100321</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B122,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>コオリノセカイヘ</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5936,11 +5936,11 @@
         <v>214</v>
       </c>
       <c r="B123">
-        <v>14040</v>
+        <v>4010</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B123,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -5954,11 +5954,11 @@
         <v>214</v>
       </c>
       <c r="B124">
-        <v>100420</v>
+        <v>14040</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
-        <v>ブレークザウォール</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -5972,17 +5972,17 @@
         <v>214</v>
       </c>
       <c r="B125">
-        <v>100421</v>
+        <v>100420</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
-        <v>トリニティレイ</v>
+        <v>ブレークザウォール</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5990,17 +5990,17 @@
         <v>214</v>
       </c>
       <c r="B126">
-        <v>14080</v>
+        <v>100421</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
-        <v>スペリオール</v>
+        <v>トリニティレイ</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -6008,17 +6008,17 @@
         <v>214</v>
       </c>
       <c r="B127">
-        <v>12010</v>
+        <v>14080</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>スペリオール</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -6026,17 +6026,17 @@
         <v>214</v>
       </c>
       <c r="B128">
-        <v>4070</v>
+        <v>12010</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
-        <v>プリズムリフレクター</v>
+        <v>エクステンション</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -6044,11 +6044,11 @@
         <v>214</v>
       </c>
       <c r="B129">
-        <v>4060</v>
+        <v>4070</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>プリズムリフレクター</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -6062,16 +6062,34 @@
         <v>214</v>
       </c>
       <c r="B130">
-        <v>14070</v>
+        <v>4060</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B130,[1]TextData!A:A))</f>
+        <v>ホーリーグレイス</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>214</v>
+      </c>
+      <c r="B131">
+        <v>14070</v>
+      </c>
+      <c r="C131" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
         <v>ホーミングクルセイド</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
         <v>30</v>
       </c>
     </row>
@@ -6086,7 +6104,7 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,16 +314,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,15 +366,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,38 +396,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -411,6 +419,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,40 +451,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,19 +467,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,19 +509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,19 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,19 +569,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,73 +635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,36 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -706,22 +676,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +709,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -758,6 +747,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,79 +1097,79 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>2010</v>
+            <v>1060</v>
           </cell>
           <cell r="B14" t="str">
-            <v>ディスチャージ</v>
+            <v>コンセントレイト</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>2020</v>
+            <v>2010</v>
           </cell>
           <cell r="B15" t="str">
-            <v>ライトニングウェブ</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>2030</v>
+            <v>2020</v>
           </cell>
           <cell r="B16" t="str">
-            <v>シャープコード</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>2040</v>
+            <v>2030</v>
           </cell>
           <cell r="B17" t="str">
-            <v>ショックインパルス</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>2050</v>
+            <v>2040</v>
           </cell>
           <cell r="B18" t="str">
-            <v>トラストチェイン</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>2060</v>
+            <v>2050</v>
           </cell>
           <cell r="B19" t="str">
-            <v>アクセラレイト</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>2070</v>
+            <v>2060</v>
           </cell>
           <cell r="B20" t="str">
-            <v>リフレクセス</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>3010</v>
+            <v>2070</v>
           </cell>
           <cell r="B21" t="str">
-            <v>アイスブレイド</v>
+            <v>リフレクセス</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>3020</v>
+            <v>3010</v>
           </cell>
           <cell r="B22" t="str">
-            <v>カウンターオーラ</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>3021</v>
+            <v>3020</v>
           </cell>
           <cell r="B23" t="str">
             <v>カウンターオーラ</v>
@@ -1177,937 +1177,945 @@
         </row>
         <row r="24">
           <cell r="A24">
-            <v>3030</v>
+            <v>3021</v>
           </cell>
           <cell r="B24" t="str">
-            <v>シールドスペル</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>3040</v>
+            <v>3030</v>
           </cell>
           <cell r="B25" t="str">
-            <v>エスコートソール</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>3050</v>
+            <v>3040</v>
           </cell>
           <cell r="B26" t="str">
-            <v>ディープフリーズ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>3060</v>
+            <v>3050</v>
           </cell>
           <cell r="B27" t="str">
-            <v>バブルブロウ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>3070</v>
+            <v>3060</v>
           </cell>
           <cell r="B28" t="str">
-            <v>アクアミラージュ</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>4010</v>
+            <v>3070</v>
           </cell>
           <cell r="B29" t="str">
-            <v>セイントレーザー</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>4020</v>
+            <v>4010</v>
           </cell>
           <cell r="B30" t="str">
-            <v>ペネトレイト</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>4030</v>
+            <v>4020</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>4040</v>
+            <v>4030</v>
           </cell>
           <cell r="B32" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>4050</v>
+            <v>4040</v>
           </cell>
           <cell r="B33" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>4060</v>
+            <v>4050</v>
           </cell>
           <cell r="B34" t="str">
-            <v>ホーリーグレイス</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>4070</v>
+            <v>4060</v>
           </cell>
           <cell r="B35" t="str">
-            <v>プリズムリフレクター</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>5010</v>
+            <v>4070</v>
           </cell>
           <cell r="B36" t="str">
-            <v>ダークプリズン</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>5020</v>
+            <v>5010</v>
           </cell>
           <cell r="B37" t="str">
-            <v>ユーサネイジア</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>5030</v>
+            <v>5020</v>
           </cell>
           <cell r="B38" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>5040</v>
+            <v>5030</v>
           </cell>
           <cell r="B39" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>5050</v>
+            <v>5040</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>5060</v>
+            <v>5050</v>
           </cell>
           <cell r="B41" t="str">
-            <v>ダークネス</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>5070</v>
+            <v>5060</v>
           </cell>
           <cell r="B42" t="str">
-            <v>シェイディークラウド</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>6010</v>
+            <v>5070</v>
           </cell>
           <cell r="B43" t="str">
-            <v>エンドオブサイクル</v>
+            <v>シェイディークラウド</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>7010</v>
+            <v>6010</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ウェイトユニゾン</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>10010</v>
+            <v>7010</v>
           </cell>
           <cell r="B45" t="str">
-            <v>アンデッド</v>
+            <v>ウェイトユニゾン</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>10020</v>
+            <v>10010</v>
           </cell>
           <cell r="B46" t="str">
-            <v>クリーチャー</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>10030</v>
+            <v>10020</v>
           </cell>
           <cell r="B47" t="str">
-            <v>ハイワンズ</v>
+            <v>クリーチャー</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>11010</v>
+            <v>10030</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ウルフソウル</v>
+            <v>ハイワンズ</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>11020</v>
+            <v>11010</v>
           </cell>
           <cell r="B49" t="str">
-            <v>プリディカメント</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>11030</v>
+            <v>11020</v>
           </cell>
           <cell r="B50" t="str">
-            <v>アサルトシフト</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>11040</v>
+            <v>11030</v>
           </cell>
           <cell r="B51" t="str">
-            <v>スタートダッシュ</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>11050</v>
+            <v>11040</v>
           </cell>
           <cell r="B52" t="str">
-            <v>ライズアップマインド</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>11060</v>
+            <v>11050</v>
           </cell>
           <cell r="B53" t="str">
-            <v>イグナイテッド</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>11070</v>
+            <v>11060</v>
           </cell>
           <cell r="B54" t="str">
-            <v>アフターバーナー</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>12010</v>
+            <v>11070</v>
           </cell>
           <cell r="B55" t="str">
-            <v>エクステンション</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>12020</v>
+            <v>12010</v>
           </cell>
           <cell r="B56" t="str">
-            <v>スパークフォグ</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>12030</v>
+            <v>12020</v>
           </cell>
           <cell r="B57" t="str">
-            <v>スウィフトカレント</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>12040</v>
+            <v>12030</v>
           </cell>
           <cell r="B58" t="str">
-            <v>ファストキャスター</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>12050</v>
+            <v>12040</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ヘブンリーラック</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>12060</v>
+            <v>12050</v>
           </cell>
           <cell r="B60" t="str">
-            <v>クイックアクト</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>12070</v>
+            <v>12060</v>
           </cell>
           <cell r="B61" t="str">
-            <v>リベリオススプリッツ</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>13010</v>
+            <v>12070</v>
           </cell>
           <cell r="B62" t="str">
-            <v>ガーディアンソウル</v>
+            <v>リベリオススプリッツ</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>13020</v>
+            <v>13010</v>
           </cell>
           <cell r="B63" t="str">
-            <v>アーマーコード</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>13030</v>
+            <v>13020</v>
           </cell>
           <cell r="B64" t="str">
-            <v>ガードシフト</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>13040</v>
+            <v>13030</v>
           </cell>
           <cell r="B65" t="str">
-            <v>ノーリミット</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>13050</v>
+            <v>13040</v>
           </cell>
           <cell r="B66" t="str">
-            <v>コールドシェル</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>13060</v>
+            <v>13050</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ペイシャンス</v>
+            <v>コールドシェル</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>13070</v>
+            <v>13060</v>
           </cell>
           <cell r="B68" t="str">
-            <v>アシッドラッシュ</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>14010</v>
+            <v>13070</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ディバインシールド</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>14020</v>
+            <v>14010</v>
           </cell>
           <cell r="B70" t="str">
-            <v>メディケーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>14030</v>
+            <v>14020</v>
           </cell>
           <cell r="B71" t="str">
-            <v>エイミングスコープ</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>14040</v>
+            <v>14030</v>
           </cell>
           <cell r="B72" t="str">
-            <v>リジェネレーション</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>14050</v>
+            <v>14040</v>
           </cell>
           <cell r="B73" t="str">
-            <v>アライアンス</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>14060</v>
+            <v>14050</v>
           </cell>
           <cell r="B74" t="str">
-            <v>スペクトルマイン</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>14070</v>
+            <v>14060</v>
           </cell>
           <cell r="B75" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>14080</v>
+            <v>14070</v>
           </cell>
           <cell r="B76" t="str">
-            <v>スペリオール</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>15010</v>
+            <v>14080</v>
           </cell>
           <cell r="B77" t="str">
-            <v>イーグルアイ</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>15020</v>
+            <v>15010</v>
           </cell>
           <cell r="B78" t="str">
-            <v>ネヴァーエンド</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>15030</v>
+            <v>15020</v>
           </cell>
           <cell r="B79" t="str">
-            <v>ネガティブドレイン</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>15040</v>
+            <v>15030</v>
           </cell>
           <cell r="B80" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>15050</v>
+            <v>15040</v>
           </cell>
           <cell r="B81" t="str">
-            <v>クリープアウト</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>15060</v>
+            <v>15050</v>
           </cell>
           <cell r="B82" t="str">
-            <v>アンデッドペイン</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>15070</v>
+            <v>15060</v>
           </cell>
           <cell r="B83" t="str">
-            <v>アップグルント</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>100110</v>
+            <v>15070</v>
           </cell>
           <cell r="B84" t="str">
-            <v>インフェルノ</v>
+            <v>アップグルント</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>100111</v>
+            <v>100110</v>
           </cell>
           <cell r="B85" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>インフェルノ</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>100210</v>
+            <v>100111</v>
           </cell>
           <cell r="B86" t="str">
-            <v>ステップリーダー</v>
+            <v>スベテモヤシツクス</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>100211</v>
+            <v>100210</v>
           </cell>
           <cell r="B87" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>100310</v>
+            <v>100211</v>
           </cell>
           <cell r="B88" t="str">
-            <v>フリジットシェル</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>100311</v>
+            <v>100310</v>
           </cell>
           <cell r="B89" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>100320</v>
+            <v>100311</v>
           </cell>
           <cell r="B90" t="str">
-            <v>アンチドード</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>100321</v>
+            <v>100320</v>
           </cell>
           <cell r="B91" t="str">
-            <v>コオリノセカイヘ</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>100410</v>
+            <v>100321</v>
           </cell>
           <cell r="B92" t="str">
-            <v>エリクシール</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>100411</v>
+            <v>100410</v>
           </cell>
           <cell r="B93" t="str">
-            <v>エンジェルフェザー</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>100420</v>
+            <v>100411</v>
           </cell>
           <cell r="B94" t="str">
-            <v>ブレークザウォール</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>100421</v>
+            <v>100420</v>
           </cell>
           <cell r="B95" t="str">
-            <v>トリニティレイ</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>100510</v>
+            <v>100421</v>
           </cell>
           <cell r="B96" t="str">
-            <v>ディストラクション</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>100511</v>
+            <v>100510</v>
           </cell>
           <cell r="B97" t="str">
-            <v>カオスペイン</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>100610</v>
+            <v>100511</v>
           </cell>
           <cell r="B98" t="str">
-            <v>フルバースト</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>100611</v>
+            <v>100610</v>
           </cell>
           <cell r="B99" t="str">
-            <v>コウソクテンショウ</v>
+            <v>フルバースト</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>100710</v>
+            <v>100611</v>
           </cell>
           <cell r="B100" t="str">
-            <v>セメタリーコール</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>100711</v>
+            <v>100710</v>
           </cell>
           <cell r="B101" t="str">
-            <v>セルフカット</v>
+            <v>セメタリーコール</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>300010</v>
+            <v>100711</v>
           </cell>
           <cell r="B102" t="str">
-            <v>ファイアエンチャント</v>
+            <v>セルフカット</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>300020</v>
+            <v>300010</v>
           </cell>
           <cell r="B103" t="str">
-            <v>サンダーエンチャント</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>300030</v>
+            <v>300020</v>
           </cell>
           <cell r="B104" t="str">
-            <v>アイスエンチャント</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>300040</v>
+            <v>300030</v>
           </cell>
           <cell r="B105" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>300050</v>
+            <v>300040</v>
           </cell>
           <cell r="B106" t="str">
-            <v>ダークエンチャント</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>400001</v>
+            <v>300050</v>
           </cell>
           <cell r="B107" t="str">
-            <v>人体錬成+\d</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>400002</v>
+            <v>400001</v>
           </cell>
           <cell r="B108" t="str">
-            <v>理性拡張+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>400003</v>
+            <v>400002</v>
           </cell>
           <cell r="B109" t="str">
-            <v>存在修復+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>400004</v>
+            <v>400003</v>
           </cell>
           <cell r="B110" t="str">
-            <v>救済執行+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>400005</v>
+            <v>400004</v>
           </cell>
           <cell r="B111" t="str">
-            <v>素子補充+\d</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>400101</v>
+            <v>400005</v>
           </cell>
           <cell r="B112" t="str">
-            <v>最大Hp+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>400102</v>
+            <v>400101</v>
           </cell>
           <cell r="B113" t="str">
-            <v>最大Mp+\d</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>400103</v>
+            <v>400102</v>
           </cell>
           <cell r="B114" t="str">
-            <v>ATK+\d</v>
+            <v>最大Mp+\d</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>400104</v>
+            <v>400103</v>
           </cell>
           <cell r="B115" t="str">
-            <v>DEF+\d</v>
+            <v>ATK+\d</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>400105</v>
+            <v>400104</v>
           </cell>
           <cell r="B116" t="str">
-            <v>SPD+\d</v>
+            <v>DEF+\d</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>400201</v>
+            <v>400105</v>
           </cell>
           <cell r="B117" t="str">
-            <v>\d入手</v>
+            <v>SPD+\d</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>400301</v>
+            <v>400201</v>
           </cell>
           <cell r="B118" t="str">
-            <v>すべて死せる魂+\d</v>
+            <v>\d入手</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>500001</v>
+            <v>400301</v>
           </cell>
           <cell r="B119" t="str">
-            <v>【愚者】</v>
+            <v>すべて死せる魂+\d</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>500002</v>
+            <v>500001</v>
           </cell>
           <cell r="B120" t="str">
-            <v>【魔術師】</v>
+            <v>【愚者】</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>500003</v>
+            <v>500002</v>
           </cell>
           <cell r="B121" t="str">
-            <v>【女教皇】</v>
+            <v>【魔術師】</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>500004</v>
+            <v>500003</v>
           </cell>
           <cell r="B122" t="str">
-            <v>【女帝】</v>
+            <v>【女教皇】</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>500005</v>
+            <v>500004</v>
           </cell>
           <cell r="B123" t="str">
-            <v>【皇帝】</v>
+            <v>【女帝】</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>500006</v>
+            <v>500005</v>
           </cell>
           <cell r="B124" t="str">
-            <v>【法王】</v>
+            <v>【皇帝】</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>500007</v>
+            <v>500006</v>
           </cell>
           <cell r="B125" t="str">
-            <v>【恋愛】</v>
+            <v>【法王】</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>500008</v>
+            <v>500007</v>
           </cell>
           <cell r="B126" t="str">
-            <v>【戦車】</v>
+            <v>【恋愛】</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>500009</v>
+            <v>500008</v>
           </cell>
           <cell r="B127" t="str">
-            <v>【正義】</v>
+            <v>【戦車】</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>500010</v>
+            <v>500009</v>
           </cell>
           <cell r="B128" t="str">
-            <v>【隠者】</v>
+            <v>【正義】</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>500011</v>
+            <v>500010</v>
           </cell>
           <cell r="B129" t="str">
-            <v>【運命】</v>
+            <v>【隠者】</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>500012</v>
+            <v>500011</v>
           </cell>
           <cell r="B130" t="str">
-            <v>【剛毅】</v>
+            <v>【運命】</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>500013</v>
+            <v>500012</v>
           </cell>
           <cell r="B131" t="str">
-            <v>【刑死者】</v>
+            <v>【剛毅】</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>500014</v>
+            <v>500013</v>
           </cell>
           <cell r="B132" t="str">
-            <v>【死神】</v>
+            <v>【刑死者】</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>500015</v>
+            <v>500014</v>
           </cell>
           <cell r="B133" t="str">
-            <v>【節制】</v>
+            <v>【死神】</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>500016</v>
+            <v>500015</v>
           </cell>
           <cell r="B134" t="str">
-            <v>【悪魔】</v>
+            <v>【節制】</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>500017</v>
+            <v>500016</v>
           </cell>
           <cell r="B135" t="str">
-            <v>【塔】</v>
+            <v>【悪魔】</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>500018</v>
+            <v>500017</v>
           </cell>
           <cell r="B136" t="str">
-            <v>【星】</v>
+            <v>【塔】</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>500019</v>
+            <v>500018</v>
           </cell>
           <cell r="B137" t="str">
-            <v>【月】</v>
+            <v>【星】</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>500020</v>
+            <v>500019</v>
           </cell>
           <cell r="B138" t="str">
-            <v>【太陽】</v>
+            <v>【月】</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>500021</v>
+            <v>500020</v>
           </cell>
           <cell r="B139" t="str">
-            <v>【審判】</v>
+            <v>【太陽】</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
+            <v>500021</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>【審判】</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141">
             <v>500022</v>
           </cell>
-          <cell r="B140" t="str">
+          <cell r="B141" t="str">
             <v>【世界】</v>
           </cell>
         </row>
@@ -2407,8 +2415,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -2543,19 +2551,19 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2581,19 +2589,19 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -3730,7 +3738,7 @@
   <sheetPr/>
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -301,9 +301,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -315,14 +315,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -330,37 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,43 +346,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -429,7 +400,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,13 +408,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -452,7 +430,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +467,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,19 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,13 +593,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,25 +617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,85 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,17 +661,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +717,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -719,42 +745,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,19 +766,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,124 +787,124 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,6 +983,7 @@
       <sheetName val="Skills"/>
       <sheetName val="Features"/>
       <sheetName val="Triggers"/>
+      <sheetName val="ScopeTriggers"/>
       <sheetName val="TextData"/>
       <sheetName val="Define"/>
     </sheetNames>
@@ -990,7 +991,8 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="1">
           <cell r="A1" t="str">
             <v>Id</v>
@@ -1100,7 +1102,7 @@
             <v>1060</v>
           </cell>
           <cell r="B14" t="str">
-            <v>コンセントレイト</v>
+            <v>イクスティンクション</v>
           </cell>
         </row>
         <row r="15">
@@ -1161,23 +1163,23 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>3010</v>
+            <v>2080</v>
           </cell>
           <cell r="B22" t="str">
-            <v>アイスブレイド</v>
+            <v>コンセントレイト</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>3020</v>
+            <v>3010</v>
           </cell>
           <cell r="B23" t="str">
-            <v>カウンターオーラ</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>3021</v>
+            <v>3020</v>
           </cell>
           <cell r="B24" t="str">
             <v>カウンターオーラ</v>
@@ -1185,942 +1187,958 @@
         </row>
         <row r="25">
           <cell r="A25">
-            <v>3030</v>
+            <v>3021</v>
           </cell>
           <cell r="B25" t="str">
-            <v>シールドスペル</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>3040</v>
+            <v>3030</v>
           </cell>
           <cell r="B26" t="str">
-            <v>エスコートソール</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>3050</v>
+            <v>3040</v>
           </cell>
           <cell r="B27" t="str">
-            <v>ディープフリーズ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>3060</v>
+            <v>3050</v>
           </cell>
           <cell r="B28" t="str">
-            <v>バブルブロウ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>3070</v>
+            <v>3060</v>
           </cell>
           <cell r="B29" t="str">
-            <v>アクアミラージュ</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>4010</v>
+            <v>3070</v>
           </cell>
           <cell r="B30" t="str">
-            <v>セイントレーザー</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>4020</v>
+            <v>4010</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ペネトレイト</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>4030</v>
+            <v>4020</v>
           </cell>
           <cell r="B32" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>4040</v>
+            <v>4030</v>
           </cell>
           <cell r="B33" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>4050</v>
+            <v>4040</v>
           </cell>
           <cell r="B34" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>4060</v>
+            <v>4050</v>
           </cell>
           <cell r="B35" t="str">
-            <v>ホーリーグレイス</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>4070</v>
+            <v>4060</v>
           </cell>
           <cell r="B36" t="str">
-            <v>プリズムリフレクター</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>5010</v>
+            <v>4070</v>
           </cell>
           <cell r="B37" t="str">
-            <v>ダークプリズン</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>5020</v>
+            <v>4080</v>
           </cell>
           <cell r="B38" t="str">
-            <v>ユーサネイジア</v>
+            <v>アバイドフラッシュ</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>5030</v>
+            <v>5010</v>
           </cell>
           <cell r="B39" t="str">
-            <v>ドレインヒール</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>5040</v>
+            <v>5020</v>
           </cell>
           <cell r="B40" t="str">
-            <v>デリートマジック</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>5050</v>
+            <v>5030</v>
           </cell>
           <cell r="B41" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>5060</v>
+            <v>5040</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ダークネス</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>5070</v>
+            <v>5050</v>
           </cell>
           <cell r="B43" t="str">
-            <v>シェイディークラウド</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>6010</v>
+            <v>5060</v>
           </cell>
           <cell r="B44" t="str">
-            <v>エンドオブサイクル</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>7010</v>
+            <v>5070</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ウェイトユニゾン</v>
+            <v>シェイディークラウド</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>10010</v>
+            <v>6010</v>
           </cell>
           <cell r="B46" t="str">
-            <v>アンデッド</v>
+            <v>エンドオブサイクル</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>10020</v>
+            <v>7010</v>
           </cell>
           <cell r="B47" t="str">
-            <v>クリーチャー</v>
+            <v>ウェイトユニゾン</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>10030</v>
+            <v>10010</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ハイワンズ</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>11010</v>
+            <v>10020</v>
           </cell>
           <cell r="B49" t="str">
-            <v>ウルフソウル</v>
+            <v>クリーチャー</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>11020</v>
+            <v>10030</v>
           </cell>
           <cell r="B50" t="str">
-            <v>プリディカメント</v>
+            <v>ハイワンズ</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>11030</v>
+            <v>11010</v>
           </cell>
           <cell r="B51" t="str">
-            <v>アサルトシフト</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>11040</v>
+            <v>11020</v>
           </cell>
           <cell r="B52" t="str">
-            <v>スタートダッシュ</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>11050</v>
+            <v>11030</v>
           </cell>
           <cell r="B53" t="str">
-            <v>ライズアップマインド</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>11060</v>
+            <v>11040</v>
           </cell>
           <cell r="B54" t="str">
-            <v>イグナイテッド</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>11070</v>
+            <v>11050</v>
           </cell>
           <cell r="B55" t="str">
-            <v>アフターバーナー</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>12010</v>
+            <v>11060</v>
           </cell>
           <cell r="B56" t="str">
-            <v>エクステンション</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>12020</v>
+            <v>11070</v>
           </cell>
           <cell r="B57" t="str">
-            <v>スパークフォグ</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>12030</v>
+            <v>12010</v>
           </cell>
           <cell r="B58" t="str">
-            <v>スウィフトカレント</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>12040</v>
+            <v>12020</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ファストキャスター</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>12050</v>
+            <v>12030</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ヘブンリーラック</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>12060</v>
+            <v>12040</v>
           </cell>
           <cell r="B61" t="str">
-            <v>クイックアクト</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>12070</v>
+            <v>12050</v>
           </cell>
           <cell r="B62" t="str">
-            <v>リベリオススプリッツ</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>13010</v>
+            <v>12060</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ガーディアンソウル</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>13020</v>
+            <v>12070</v>
           </cell>
           <cell r="B64" t="str">
-            <v>アーマーコード</v>
+            <v>リベリオススプリッツ</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>13030</v>
+            <v>13010</v>
           </cell>
           <cell r="B65" t="str">
-            <v>ガードシフト</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>13040</v>
+            <v>13020</v>
           </cell>
           <cell r="B66" t="str">
-            <v>ノーリミット</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>13050</v>
+            <v>13030</v>
           </cell>
           <cell r="B67" t="str">
-            <v>コールドシェル</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>13060</v>
+            <v>13040</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ペイシャンス</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>13070</v>
+            <v>13050</v>
           </cell>
           <cell r="B69" t="str">
-            <v>アシッドラッシュ</v>
+            <v>コールドシェル</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>14010</v>
+            <v>13060</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ディバインシールド</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>14020</v>
+            <v>13070</v>
           </cell>
           <cell r="B71" t="str">
-            <v>メディケーション</v>
+            <v>アシッドラッシュ</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>14030</v>
+            <v>14010</v>
           </cell>
           <cell r="B72" t="str">
-            <v>エイミングスコープ</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>14040</v>
+            <v>14020</v>
           </cell>
           <cell r="B73" t="str">
-            <v>リジェネレーション</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>14050</v>
+            <v>14030</v>
           </cell>
           <cell r="B74" t="str">
-            <v>アライアンス</v>
+            <v>エイミングスコープ</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>14060</v>
+            <v>14040</v>
           </cell>
           <cell r="B75" t="str">
-            <v>スペクトルマイン</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>14070</v>
+            <v>14050</v>
           </cell>
           <cell r="B76" t="str">
-            <v>ホーミングクルセイド</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>14080</v>
+            <v>14060</v>
           </cell>
           <cell r="B77" t="str">
-            <v>スペリオール</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>15010</v>
+            <v>14070</v>
           </cell>
           <cell r="B78" t="str">
-            <v>イーグルアイ</v>
+            <v>ホーミングクルセイド</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>15020</v>
+            <v>14080</v>
           </cell>
           <cell r="B79" t="str">
-            <v>ネヴァーエンド</v>
+            <v>スペリオール</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>15030</v>
+            <v>15010</v>
           </cell>
           <cell r="B80" t="str">
-            <v>ネガティブドレイン</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>15040</v>
+            <v>15020</v>
           </cell>
           <cell r="B81" t="str">
-            <v>スカルグラッジ</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>15050</v>
+            <v>15030</v>
           </cell>
           <cell r="B82" t="str">
-            <v>クリープアウト</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>15060</v>
+            <v>15040</v>
           </cell>
           <cell r="B83" t="str">
-            <v>アンデッドペイン</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>15070</v>
+            <v>15050</v>
           </cell>
           <cell r="B84" t="str">
-            <v>アップグルント</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>100110</v>
+            <v>15060</v>
           </cell>
           <cell r="B85" t="str">
-            <v>インフェルノ</v>
+            <v>アンデッドペイン</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>100111</v>
+            <v>15070</v>
           </cell>
           <cell r="B86" t="str">
-            <v>スベテモヤシツクス</v>
+            <v>アップグルント</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>100210</v>
+            <v>100110</v>
           </cell>
           <cell r="B87" t="str">
-            <v>ステップリーダー</v>
+            <v>ソーイングアームド</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>100211</v>
+            <v>100111</v>
           </cell>
           <cell r="B88" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>エターナルロンド</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>100310</v>
+            <v>100210</v>
           </cell>
           <cell r="B89" t="str">
-            <v>フリジットシェル</v>
+            <v>セイクリッドバリア</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>100311</v>
+            <v>100211</v>
           </cell>
           <cell r="B90" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>レヴェリー</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>100320</v>
+            <v>100310</v>
           </cell>
           <cell r="B91" t="str">
-            <v>アンチドード</v>
+            <v>アゲインストレイジ</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>100321</v>
+            <v>100311</v>
           </cell>
           <cell r="B92" t="str">
-            <v>コオリノセカイヘ</v>
+            <v>フロストニードル</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>100410</v>
+            <v>100320</v>
           </cell>
           <cell r="B93" t="str">
-            <v>エリクシール</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>100411</v>
+            <v>100321</v>
           </cell>
           <cell r="B94" t="str">
-            <v>エンジェルフェザー</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>100420</v>
+            <v>100410</v>
           </cell>
           <cell r="B95" t="str">
-            <v>ブレークザウォール</v>
+            <v>アバンデンス</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>100421</v>
+            <v>100411</v>
           </cell>
           <cell r="B96" t="str">
-            <v>トリニティレイ</v>
+            <v>ハーヴェスト</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>100510</v>
+            <v>100420</v>
           </cell>
           <cell r="B97" t="str">
-            <v>ディストラクション</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>100511</v>
+            <v>100421</v>
           </cell>
           <cell r="B98" t="str">
-            <v>カオスペイン</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>100610</v>
+            <v>100510</v>
           </cell>
           <cell r="B99" t="str">
-            <v>フルバースト</v>
+            <v>シェイディークラウド</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>100611</v>
+            <v>100511</v>
           </cell>
           <cell r="B100" t="str">
-            <v>コウソクテンショウ</v>
+            <v>ムーンライトレイ</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>100710</v>
+            <v>100610</v>
           </cell>
           <cell r="B101" t="str">
-            <v>セメタリーコール</v>
+            <v>フルバースト</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>100711</v>
+            <v>100611</v>
           </cell>
           <cell r="B102" t="str">
-            <v>セルフカット</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>300010</v>
+            <v>100710</v>
           </cell>
           <cell r="B103" t="str">
-            <v>ファイアエンチャント</v>
+            <v>セメタリーコール</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>300020</v>
+            <v>100711</v>
           </cell>
           <cell r="B104" t="str">
-            <v>サンダーエンチャント</v>
+            <v>セルフカット</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>300030</v>
+            <v>300010</v>
           </cell>
           <cell r="B105" t="str">
-            <v>アイスエンチャント</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>300040</v>
+            <v>300020</v>
           </cell>
           <cell r="B106" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>300050</v>
+            <v>300030</v>
           </cell>
           <cell r="B107" t="str">
-            <v>ダークエンチャント</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>400001</v>
+            <v>300040</v>
           </cell>
           <cell r="B108" t="str">
-            <v>人体錬成+\d</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>400002</v>
+            <v>300050</v>
           </cell>
           <cell r="B109" t="str">
-            <v>理性拡張+\d</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>400003</v>
+            <v>400001</v>
           </cell>
           <cell r="B110" t="str">
-            <v>存在修復+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>400004</v>
+            <v>400002</v>
           </cell>
           <cell r="B111" t="str">
-            <v>救済執行+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>400005</v>
+            <v>400003</v>
           </cell>
           <cell r="B112" t="str">
-            <v>素子補充+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>400101</v>
+            <v>400004</v>
           </cell>
           <cell r="B113" t="str">
-            <v>最大Hp+\d</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>400102</v>
+            <v>400005</v>
           </cell>
           <cell r="B114" t="str">
-            <v>最大Mp+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>400103</v>
+            <v>400101</v>
           </cell>
           <cell r="B115" t="str">
-            <v>ATK+\d</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>400104</v>
+            <v>400102</v>
           </cell>
           <cell r="B116" t="str">
-            <v>DEF+\d</v>
+            <v>最大Mp+\d</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>400105</v>
+            <v>400103</v>
           </cell>
           <cell r="B117" t="str">
-            <v>SPD+\d</v>
+            <v>ATK+\d</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>400201</v>
+            <v>400104</v>
           </cell>
           <cell r="B118" t="str">
-            <v>\d入手</v>
+            <v>DEF+\d</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>400301</v>
+            <v>400105</v>
           </cell>
           <cell r="B119" t="str">
-            <v>すべて死せる魂+\d</v>
+            <v>SPD+\d</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>500001</v>
+            <v>400201</v>
           </cell>
           <cell r="B120" t="str">
-            <v>【愚者】</v>
+            <v>\d入手</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>500002</v>
+            <v>400301</v>
           </cell>
           <cell r="B121" t="str">
-            <v>【魔術師】</v>
+            <v>すべて死せる魂+\d</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>500003</v>
+            <v>500001</v>
           </cell>
           <cell r="B122" t="str">
-            <v>【女教皇】</v>
+            <v>【愚者】</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>500004</v>
+            <v>500002</v>
           </cell>
           <cell r="B123" t="str">
-            <v>【女帝】</v>
+            <v>【魔術師】</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>500005</v>
+            <v>500003</v>
           </cell>
           <cell r="B124" t="str">
-            <v>【皇帝】</v>
+            <v>【女教皇】</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>500006</v>
+            <v>500004</v>
           </cell>
           <cell r="B125" t="str">
-            <v>【法王】</v>
+            <v>【女帝】</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>500007</v>
+            <v>500005</v>
           </cell>
           <cell r="B126" t="str">
-            <v>【恋愛】</v>
+            <v>【皇帝】</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>500008</v>
+            <v>500006</v>
           </cell>
           <cell r="B127" t="str">
-            <v>【戦車】</v>
+            <v>【法王】</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>500009</v>
+            <v>500007</v>
           </cell>
           <cell r="B128" t="str">
-            <v>【正義】</v>
+            <v>【恋愛】</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>500010</v>
+            <v>500008</v>
           </cell>
           <cell r="B129" t="str">
-            <v>【隠者】</v>
+            <v>【戦車】</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>500011</v>
+            <v>500009</v>
           </cell>
           <cell r="B130" t="str">
-            <v>【運命】</v>
+            <v>【正義】</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>500012</v>
+            <v>500010</v>
           </cell>
           <cell r="B131" t="str">
-            <v>【剛毅】</v>
+            <v>【隠者】</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>500013</v>
+            <v>500011</v>
           </cell>
           <cell r="B132" t="str">
-            <v>【刑死者】</v>
+            <v>【運命】</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>500014</v>
+            <v>500012</v>
           </cell>
           <cell r="B133" t="str">
-            <v>【死神】</v>
+            <v>【剛毅】</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>500015</v>
+            <v>500013</v>
           </cell>
           <cell r="B134" t="str">
-            <v>【節制】</v>
+            <v>【刑死者】</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>500016</v>
+            <v>500014</v>
           </cell>
           <cell r="B135" t="str">
-            <v>【悪魔】</v>
+            <v>【死神】</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>500017</v>
+            <v>500015</v>
           </cell>
           <cell r="B136" t="str">
-            <v>【塔】</v>
+            <v>【節制】</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>500018</v>
+            <v>500016</v>
           </cell>
           <cell r="B137" t="str">
-            <v>【星】</v>
+            <v>【悪魔】</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>500019</v>
+            <v>500017</v>
           </cell>
           <cell r="B138" t="str">
-            <v>【月】</v>
+            <v>【塔】</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>500020</v>
+            <v>500018</v>
           </cell>
           <cell r="B139" t="str">
-            <v>【太陽】</v>
+            <v>【星】</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>500021</v>
+            <v>500019</v>
           </cell>
           <cell r="B140" t="str">
-            <v>【審判】</v>
+            <v>【月】</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
+            <v>500020</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>【太陽】</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>500021</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>【審判】</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
             <v>500022</v>
           </cell>
-          <cell r="B141" t="str">
+          <cell r="B143" t="str">
             <v>【世界】</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3738,8 +3756,8 @@
   <sheetPr/>
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -3971,7 +3989,7 @@
         <v>ウルフソウル</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -3989,7 +4007,7 @@
         <v>プリディカメント</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -4007,7 +4025,7 @@
         <v>スタートダッシュ</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -5174,7 +5192,7 @@
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>ディストラクション</v>
+        <v>シェイディークラウド</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -5192,7 +5210,7 @@
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
-        <v>カオスペイン</v>
+        <v>ムーンライトレイ</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -5246,7 +5264,7 @@
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>ステップリーダー</v>
+        <v>セイクリッドバリア</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -5264,7 +5282,7 @@
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>ユビサキデカラメトル</v>
+        <v>レヴェリー</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -5336,7 +5354,7 @@
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>フリジットシェル</v>
+        <v>アゲインストレイジ</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -5354,7 +5372,7 @@
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>ノロマナカメニナレ</v>
+        <v>フロストニードル</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -5408,7 +5426,7 @@
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>エリクシール</v>
+        <v>アバンデンス</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5426,7 +5444,7 @@
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>エンジェルフェザー</v>
+        <v>ハーヴェスト</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5570,7 +5588,7 @@
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>インフェルノ</v>
+        <v>ソーイングアームド</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5588,7 +5606,7 @@
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>スベテモヤシツクス</v>
+        <v>エターナルロンド</v>
       </c>
       <c r="D103">
         <v>1</v>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -115,15 +115,15 @@
     <t>Sword</t>
   </si>
   <si>
+    <t>Ammon</t>
+  </si>
+  <si>
     <t>Bifrons</t>
   </si>
   <si>
     <t>Andras</t>
   </si>
   <si>
-    <t>Ammon</t>
-  </si>
-  <si>
     <t>Berith</t>
   </si>
   <si>
@@ -244,19 +244,19 @@
     <t>ソード</t>
   </si>
   <si>
-    <t>ビフロンス</t>
-  </si>
-  <si>
-    <t>アンドラス</t>
-  </si>
-  <si>
-    <t>アモン</t>
-  </si>
-  <si>
-    <t>ベリト</t>
-  </si>
-  <si>
-    <t>パイモン</t>
+    <t>タルウィ</t>
+  </si>
+  <si>
+    <t>ザリチュ</t>
+  </si>
+  <si>
+    <t>サルワ</t>
+  </si>
+  <si>
+    <t>タローマティ</t>
+  </si>
+  <si>
+    <t>ドゥルジ</t>
   </si>
   <si>
     <t>ビヤーキー</t>
@@ -271,7 +271,7 @@
     <t>ノーデンス</t>
   </si>
   <si>
-    <t>ブエル</t>
+    <t>アカマナフ</t>
   </si>
   <si>
     <t>デカラビア</t>
@@ -289,7 +289,7 @@
     <t>イタクァ</t>
   </si>
   <si>
-    <t>シアエガ</t>
+    <t>アンリ・マンユ</t>
   </si>
   <si>
     <t>デビルドラゴン</t>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,15 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -330,15 +323,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +332,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,14 +377,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +385,50 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,14 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,51 +452,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,37 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,79 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +515,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,13 +617,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,19 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -691,17 +715,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,39 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,19 +766,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,124 +787,124 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,42 +1355,42 @@
         </row>
         <row r="46">
           <cell r="A46">
-            <v>6010</v>
+            <v>7010</v>
           </cell>
           <cell r="B46" t="str">
-            <v>エンドオブサイクル</v>
+            <v>ウェイトユニゾン</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>7010</v>
+            <v>10010</v>
           </cell>
           <cell r="B47" t="str">
-            <v>ウェイトユニゾン</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>10010</v>
+            <v>10020</v>
           </cell>
           <cell r="B48" t="str">
-            <v>アンデッド</v>
+            <v>クリーチャー</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>10020</v>
+            <v>10030</v>
           </cell>
           <cell r="B49" t="str">
-            <v>クリーチャー</v>
+            <v>ダエーワ(サルワ)</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>10030</v>
+            <v>10040</v>
           </cell>
           <cell r="B50" t="str">
-            <v>ハイワンズ</v>
+            <v>ダエーワ(ザリチュ)</v>
           </cell>
         </row>
         <row r="51">
@@ -1694,446 +1694,502 @@
             <v>100111</v>
           </cell>
           <cell r="B88" t="str">
-            <v>エターナルロンド</v>
+            <v>ソーイングアームド+</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>100210</v>
+            <v>100120</v>
           </cell>
           <cell r="B89" t="str">
-            <v>セイクリッドバリア</v>
+            <v>エターナルロンド</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>100211</v>
+            <v>100210</v>
           </cell>
           <cell r="B90" t="str">
-            <v>レヴェリー</v>
+            <v>セイクリッドバリア</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>100310</v>
+            <v>100211</v>
           </cell>
           <cell r="B91" t="str">
-            <v>アゲインストレイジ</v>
+            <v>レヴェリー</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>100311</v>
+            <v>100310</v>
           </cell>
           <cell r="B92" t="str">
-            <v>フロストニードル</v>
+            <v>アゲインストレイジ</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>100320</v>
+            <v>100311</v>
           </cell>
           <cell r="B93" t="str">
-            <v>アンチドード</v>
+            <v>フロストニードル</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>100321</v>
+            <v>100320</v>
           </cell>
           <cell r="B94" t="str">
-            <v>コオリノセカイヘ</v>
+            <v>アンチドード</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>100410</v>
+            <v>100321</v>
           </cell>
           <cell r="B95" t="str">
-            <v>アバンデンス</v>
+            <v>コオリノセカイヘ</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>100411</v>
+            <v>100410</v>
           </cell>
           <cell r="B96" t="str">
-            <v>ハーヴェスト</v>
+            <v>アバンデンス</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>100420</v>
+            <v>100411</v>
           </cell>
           <cell r="B97" t="str">
-            <v>ブレークザウォール</v>
+            <v>ハーヴェスト</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>100421</v>
+            <v>100420</v>
           </cell>
           <cell r="B98" t="str">
-            <v>トリニティレイ</v>
+            <v>ブレークザウォール</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>100510</v>
+            <v>100421</v>
           </cell>
           <cell r="B99" t="str">
-            <v>シェイディークラウド</v>
+            <v>トリニティレイ</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>100511</v>
+            <v>100510</v>
           </cell>
           <cell r="B100" t="str">
-            <v>ムーンライトレイ</v>
+            <v>シェイディークラウド</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>100610</v>
+            <v>100511</v>
           </cell>
           <cell r="B101" t="str">
-            <v>フルバースト</v>
+            <v>ムーンライトレイ</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>100611</v>
+            <v>100610</v>
           </cell>
           <cell r="B102" t="str">
-            <v>コウソクテンショウ</v>
+            <v>フルバースト</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>100710</v>
+            <v>100611</v>
           </cell>
           <cell r="B103" t="str">
-            <v>セメタリーコール</v>
+            <v>コウソクテンショウ</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>100711</v>
+            <v>100710</v>
           </cell>
           <cell r="B104" t="str">
-            <v>セルフカット</v>
+            <v>セメタリーコール</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>300010</v>
+            <v>100711</v>
           </cell>
           <cell r="B105" t="str">
-            <v>ファイアエンチャント</v>
+            <v>セルフカット</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>300020</v>
+            <v>200110</v>
           </cell>
           <cell r="B106" t="str">
-            <v>サンダーエンチャント</v>
+            <v>マイトレインフォース</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>300030</v>
+            <v>200120</v>
           </cell>
           <cell r="B107" t="str">
-            <v>アイスエンチャント</v>
+            <v>イラプション</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>300040</v>
+            <v>200130</v>
           </cell>
           <cell r="B108" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>ダエーワ(タルウィ)</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>300050</v>
+            <v>200210</v>
           </cell>
           <cell r="B109" t="str">
-            <v>ダークエンチャント</v>
+            <v>ダブルアクセル</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>400001</v>
+            <v>200220</v>
           </cell>
           <cell r="B110" t="str">
-            <v>人体錬成+\d</v>
+            <v>マグネティック</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>400002</v>
+            <v>200230</v>
           </cell>
           <cell r="B111" t="str">
-            <v>理性拡張+\d</v>
+            <v>ダエーワ(サルワ)</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>400003</v>
+            <v>300010</v>
           </cell>
           <cell r="B112" t="str">
-            <v>存在修復+\d</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>400004</v>
+            <v>300020</v>
           </cell>
           <cell r="B113" t="str">
-            <v>救済執行+\d</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>400005</v>
+            <v>300030</v>
           </cell>
           <cell r="B114" t="str">
-            <v>素子補充+\d</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>400101</v>
+            <v>300040</v>
           </cell>
           <cell r="B115" t="str">
-            <v>最大Hp+\d</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>400102</v>
+            <v>300050</v>
           </cell>
           <cell r="B116" t="str">
-            <v>最大Mp+\d</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>400103</v>
+            <v>400001</v>
           </cell>
           <cell r="B117" t="str">
-            <v>ATK+\d</v>
+            <v>人体錬成+\d</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>400104</v>
+            <v>400002</v>
           </cell>
           <cell r="B118" t="str">
-            <v>DEF+\d</v>
+            <v>理性拡張+\d</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>400105</v>
+            <v>400003</v>
           </cell>
           <cell r="B119" t="str">
-            <v>SPD+\d</v>
+            <v>存在修復+\d</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>400201</v>
+            <v>400004</v>
           </cell>
           <cell r="B120" t="str">
-            <v>\d入手</v>
+            <v>救済執行+\d</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>400301</v>
+            <v>400005</v>
           </cell>
           <cell r="B121" t="str">
-            <v>すべて死せる魂+\d</v>
+            <v>素子補充+\d</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>500001</v>
+            <v>400101</v>
           </cell>
           <cell r="B122" t="str">
-            <v>【愚者】</v>
+            <v>最大Hp+\d</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>500002</v>
+            <v>400102</v>
           </cell>
           <cell r="B123" t="str">
-            <v>【魔術師】</v>
+            <v>最大Mp+\d</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>500003</v>
+            <v>400103</v>
           </cell>
           <cell r="B124" t="str">
-            <v>【女教皇】</v>
+            <v>ATK+\d</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>500004</v>
+            <v>400104</v>
           </cell>
           <cell r="B125" t="str">
-            <v>【女帝】</v>
+            <v>DEF+\d</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>500005</v>
+            <v>400105</v>
           </cell>
           <cell r="B126" t="str">
-            <v>【皇帝】</v>
+            <v>SPD+\d</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>500006</v>
+            <v>400201</v>
           </cell>
           <cell r="B127" t="str">
-            <v>【法王】</v>
+            <v>\d入手</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>500007</v>
+            <v>400301</v>
           </cell>
           <cell r="B128" t="str">
-            <v>【恋愛】</v>
+            <v>すべて死せる魂+\d</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>500008</v>
+            <v>500001</v>
           </cell>
           <cell r="B129" t="str">
-            <v>【戦車】</v>
+            <v>【愚者】</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>500009</v>
+            <v>500002</v>
           </cell>
           <cell r="B130" t="str">
-            <v>【正義】</v>
+            <v>【魔術師】</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>500010</v>
+            <v>500003</v>
           </cell>
           <cell r="B131" t="str">
-            <v>【隠者】</v>
+            <v>【女教皇】</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>500011</v>
+            <v>500004</v>
           </cell>
           <cell r="B132" t="str">
-            <v>【運命】</v>
+            <v>【女帝】</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>500012</v>
+            <v>500005</v>
           </cell>
           <cell r="B133" t="str">
-            <v>【剛毅】</v>
+            <v>【皇帝】</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>500013</v>
+            <v>500006</v>
           </cell>
           <cell r="B134" t="str">
-            <v>【刑死者】</v>
+            <v>【法王】</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>500014</v>
+            <v>500007</v>
           </cell>
           <cell r="B135" t="str">
-            <v>【死神】</v>
+            <v>【恋愛】</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>500015</v>
+            <v>500008</v>
           </cell>
           <cell r="B136" t="str">
-            <v>【節制】</v>
+            <v>【戦車】</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>500016</v>
+            <v>500009</v>
           </cell>
           <cell r="B137" t="str">
-            <v>【悪魔】</v>
+            <v>【正義】</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>500017</v>
+            <v>500010</v>
           </cell>
           <cell r="B138" t="str">
-            <v>【塔】</v>
+            <v>【隠者】</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>500018</v>
+            <v>500011</v>
           </cell>
           <cell r="B139" t="str">
-            <v>【星】</v>
+            <v>【運命】</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>500019</v>
+            <v>500012</v>
           </cell>
           <cell r="B140" t="str">
-            <v>【月】</v>
+            <v>【剛毅】</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>500020</v>
+            <v>500013</v>
           </cell>
           <cell r="B141" t="str">
-            <v>【太陽】</v>
+            <v>【刑死者】</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>500021</v>
+            <v>500014</v>
           </cell>
           <cell r="B142" t="str">
-            <v>【審判】</v>
+            <v>【死神】</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
+            <v>500015</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>【節制】</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>500016</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>【悪魔】</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>500017</v>
+          </cell>
+          <cell r="B145" t="str">
+            <v>【塔】</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>500018</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>【星】</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147">
+            <v>500019</v>
+          </cell>
+          <cell r="B147" t="str">
+            <v>【月】</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>500020</v>
+          </cell>
+          <cell r="B148" t="str">
+            <v>【太陽】</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>500021</v>
+          </cell>
+          <cell r="B149" t="str">
+            <v>【審判】</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
             <v>500022</v>
           </cell>
-          <cell r="B143" t="str">
+          <cell r="B150" t="str">
             <v>【世界】</v>
           </cell>
         </row>
@@ -2433,8 +2489,8 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3069,16 +3125,16 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
         <v>20</v>
       </c>
-      <c r="H17">
-        <v>30</v>
-      </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3104,16 +3160,16 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
         <v>20</v>
       </c>
-      <c r="H18">
-        <v>30</v>
-      </c>
       <c r="I18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3139,16 +3195,16 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
         <v>20</v>
       </c>
-      <c r="H19">
-        <v>30</v>
-      </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3174,16 +3230,16 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
         <v>20</v>
       </c>
-      <c r="H20">
-        <v>30</v>
-      </c>
       <c r="I20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3209,19 +3265,19 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
         <v>20</v>
       </c>
-      <c r="H21">
-        <v>30</v>
-      </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -3244,16 +3300,16 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
         <v>20</v>
       </c>
-      <c r="H22">
-        <v>30</v>
-      </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3279,16 +3335,16 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
         <v>20</v>
       </c>
-      <c r="H23">
-        <v>30</v>
-      </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3314,19 +3370,19 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
         <v>20</v>
       </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3349,16 +3405,16 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
         <v>20</v>
       </c>
-      <c r="H25">
-        <v>30</v>
-      </c>
       <c r="I25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3384,19 +3440,19 @@
         <v>20</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
         <v>20</v>
       </c>
-      <c r="H26">
-        <v>30</v>
-      </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3422,16 +3478,16 @@
         <v>20</v>
       </c>
       <c r="F27">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
         <v>20</v>
       </c>
-      <c r="H27">
-        <v>30</v>
-      </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3460,16 +3516,16 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
         <v>20</v>
       </c>
-      <c r="H28">
-        <v>30</v>
-      </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3498,16 +3554,16 @@
         <v>20</v>
       </c>
       <c r="F29">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
         <v>20</v>
       </c>
-      <c r="H29">
-        <v>30</v>
-      </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3536,16 +3592,16 @@
         <v>20</v>
       </c>
       <c r="F30">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
         <v>20</v>
       </c>
-      <c r="H30">
-        <v>30</v>
-      </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3574,16 +3630,16 @@
         <v>20</v>
       </c>
       <c r="F31">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G31">
+        <v>10</v>
+      </c>
+      <c r="H31">
         <v>20</v>
       </c>
-      <c r="H31">
-        <v>30</v>
-      </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3612,16 +3668,16 @@
         <v>20</v>
       </c>
       <c r="F32">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32">
         <v>20</v>
       </c>
-      <c r="H32">
-        <v>30</v>
-      </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3650,16 +3706,16 @@
         <v>20</v>
       </c>
       <c r="F33">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G33">
+        <v>10</v>
+      </c>
+      <c r="H33">
         <v>20</v>
       </c>
-      <c r="H33">
-        <v>30</v>
-      </c>
       <c r="I33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3688,16 +3744,16 @@
         <v>20</v>
       </c>
       <c r="F34">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
         <v>20</v>
       </c>
-      <c r="H34">
-        <v>30</v>
-      </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3726,13 +3782,13 @@
         <v>20</v>
       </c>
       <c r="F35">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35">
         <v>20</v>
-      </c>
-      <c r="H35">
-        <v>30</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3754,10 +3810,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -4756,17 +4812,17 @@
         <v>101</v>
       </c>
       <c r="B56">
-        <v>3010</v>
+        <v>1010</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B56,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4774,281 +4830,281 @@
         <v>101</v>
       </c>
       <c r="B57">
-        <v>3060</v>
+        <v>1040</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B57,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+        <v>ソードアダプト</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58">
-        <v>2010</v>
+        <v>200110</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B58,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>マイトレインフォース</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59">
-        <v>2060</v>
+        <v>200120</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B59,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>イラプション</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B60">
-        <v>1010</v>
+        <v>200130</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B60,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>ダエーワ(タルウィ)</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61">
-        <v>1040</v>
+        <v>3010</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B61,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B62">
-        <v>1010</v>
+        <v>13070</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B62,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>アシッドラッシュ</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B63">
-        <v>1050</v>
+        <v>200210</v>
       </c>
       <c r="C63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B63,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+        <v>ダブルアクセル</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B64">
-        <v>12010</v>
+        <v>200220</v>
       </c>
       <c r="C64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B64,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>マグネティック</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B65">
-        <v>4010</v>
+        <v>200230</v>
       </c>
       <c r="C65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B65,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>ダエーワ(サルワ)</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B66">
-        <v>4050</v>
+        <v>2010</v>
       </c>
       <c r="C66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B66,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B67">
-        <v>14010</v>
+        <v>2060</v>
       </c>
       <c r="C67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B67,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B68">
-        <v>2010</v>
+        <v>10040</v>
       </c>
       <c r="C68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B68,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>ダエーワ(ザリチュ)</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B69">
-        <v>2050</v>
+        <v>1010</v>
       </c>
       <c r="C69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B69,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B70">
-        <v>5010</v>
+        <v>1050</v>
       </c>
       <c r="C70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B70,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>メルトバースト</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B71">
-        <v>5060</v>
+        <v>12010</v>
       </c>
       <c r="C71" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B71,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+        <v>エクステンション</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B72">
-        <v>5010</v>
+        <v>4010</v>
       </c>
       <c r="C72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B72,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -5059,14 +5115,14 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B73">
-        <v>5050</v>
+        <v>4050</v>
       </c>
       <c r="C73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B73,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>べネディクション</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5077,61 +5133,61 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B74">
-        <v>3010</v>
+        <v>14010</v>
       </c>
       <c r="C74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B74,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B75">
-        <v>3070</v>
+        <v>2010</v>
       </c>
       <c r="C75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B75,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B76">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="C76" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B76,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>トラストチェイン</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B77">
         <v>5010</v>
@@ -5144,181 +5200,181 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B78">
-        <v>15030</v>
+        <v>5060</v>
       </c>
       <c r="C78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B78,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>ダークネス</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B79">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="C79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B79,[1]TextData!A:A))</f>
-        <v>ユーサネイジア</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B80">
-        <v>100510</v>
+        <v>5050</v>
       </c>
       <c r="C80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B80,[1]TextData!A:A))</f>
-        <v>シェイディークラウド</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B81">
-        <v>100511</v>
+        <v>3010</v>
       </c>
       <c r="C81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B81,[1]TextData!A:A))</f>
-        <v>ムーンライトレイ</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="B82">
-        <v>2010</v>
+        <v>3070</v>
       </c>
       <c r="C82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B82,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="B83">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B83,[1]TextData!A:A))</f>
-        <v>ライトニングウェブ</v>
+        <v>アクセラレイト</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84">
-        <v>100210</v>
+        <v>5010</v>
       </c>
       <c r="C84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B84,[1]TextData!A:A))</f>
-        <v>セイクリッドバリア</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B85">
-        <v>100211</v>
+        <v>15030</v>
       </c>
       <c r="C85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B85,[1]TextData!A:A))</f>
-        <v>レヴェリー</v>
+        <v>ネガティブドレイン</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B86">
-        <v>3010</v>
+        <v>5020</v>
       </c>
       <c r="C86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B86,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ユーサネイジア</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B87">
-        <v>3020</v>
+        <v>100510</v>
       </c>
       <c r="C87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B87,[1]TextData!A:A))</f>
-        <v>カウンターオーラ</v>
+        <v>シェイディークラウド</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -5329,14 +5385,14 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B88">
-        <v>3050</v>
+        <v>100511</v>
       </c>
       <c r="C88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B88,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>ムーンライトレイ</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5347,32 +5403,32 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B89">
-        <v>100310</v>
+        <v>2010</v>
       </c>
       <c r="C89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B89,[1]TextData!A:A))</f>
-        <v>アゲインストレイジ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B90">
-        <v>100311</v>
+        <v>2020</v>
       </c>
       <c r="C90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B90,[1]TextData!A:A))</f>
-        <v>フロストニードル</v>
+        <v>ライトニングウェブ</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -5383,128 +5439,128 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B91">
-        <v>4010</v>
+        <v>100210</v>
       </c>
       <c r="C91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B91,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>セイクリッドバリア</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B92">
-        <v>14040</v>
+        <v>100211</v>
       </c>
       <c r="C92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B92,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>レヴェリー</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B93">
-        <v>100410</v>
+        <v>3010</v>
       </c>
       <c r="C93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B93,[1]TextData!A:A))</f>
-        <v>アバンデンス</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B94">
-        <v>100411</v>
+        <v>3020</v>
       </c>
       <c r="C94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B94,[1]TextData!A:A))</f>
-        <v>ハーヴェスト</v>
+        <v>カウンターオーラ</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B95">
-        <v>14010</v>
+        <v>3050</v>
       </c>
       <c r="C95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B95,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B96">
-        <v>12010</v>
+        <v>100310</v>
       </c>
       <c r="C96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B96,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>アゲインストレイジ</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B97">
-        <v>4050</v>
+        <v>100311</v>
       </c>
       <c r="C97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B97,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>フロストニードル</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5512,11 +5568,11 @@
         <v>204</v>
       </c>
       <c r="B98">
-        <v>4060</v>
+        <v>4010</v>
       </c>
       <c r="C98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B98,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5530,11 +5586,11 @@
         <v>204</v>
       </c>
       <c r="B99">
-        <v>14070</v>
+        <v>14040</v>
       </c>
       <c r="C99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B99,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+        <v>リジェネレーション</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5545,14 +5601,14 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B100">
-        <v>1010</v>
+        <v>100410</v>
       </c>
       <c r="C100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B100,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>アバンデンス</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5563,50 +5619,50 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B101">
-        <v>1020</v>
+        <v>100411</v>
       </c>
       <c r="C101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B101,[1]TextData!A:A))</f>
-        <v>バーンストーム</v>
+        <v>ハーヴェスト</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B102">
-        <v>100110</v>
+        <v>14010</v>
       </c>
       <c r="C102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B102,[1]TextData!A:A))</f>
-        <v>ソーイングアームド</v>
+        <v>ディバインシールド</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B103">
-        <v>100111</v>
+        <v>12010</v>
       </c>
       <c r="C103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B103,[1]TextData!A:A))</f>
-        <v>エターナルロンド</v>
+        <v>エクステンション</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5617,32 +5673,32 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B104">
-        <v>12010</v>
+        <v>4050</v>
       </c>
       <c r="C104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B104,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>べネディクション</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B105">
-        <v>2010</v>
+        <v>4060</v>
       </c>
       <c r="C105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B105,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>ホーリーグレイス</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -5653,68 +5709,68 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B106">
-        <v>2070</v>
+        <v>14070</v>
       </c>
       <c r="C106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B106,[1]TextData!A:A))</f>
-        <v>リフレクセス</v>
+        <v>ホーミングクルセイド</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B107">
-        <v>100610</v>
+        <v>1010</v>
       </c>
       <c r="C107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B107,[1]TextData!A:A))</f>
-        <v>フルバースト</v>
+        <v>ファイアボール</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B108">
-        <v>100611</v>
+        <v>1020</v>
       </c>
       <c r="C108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B108,[1]TextData!A:A))</f>
-        <v>コウソクテンショウ</v>
+        <v>バーンストーム</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B109">
-        <v>12010</v>
+        <v>100110</v>
       </c>
       <c r="C109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B109,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ソーイングアームド</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5725,104 +5781,104 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B110">
-        <v>5010</v>
+        <v>100111</v>
       </c>
       <c r="C110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B110,[1]TextData!A:A))</f>
-        <v>ダークプリズン</v>
+        <v>ソーイングアームド+</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B111">
-        <v>5050</v>
+        <v>12010</v>
       </c>
       <c r="C111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B111,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+        <v>エクステンション</v>
       </c>
       <c r="D111">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B112">
-        <v>15040</v>
+        <v>2010</v>
       </c>
       <c r="C112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B112,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B113">
-        <v>100710</v>
+        <v>2070</v>
       </c>
       <c r="C113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B113,[1]TextData!A:A))</f>
-        <v>セメタリーコール</v>
+        <v>リフレクセス</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B114">
-        <v>100711</v>
+        <v>100610</v>
       </c>
       <c r="C114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B114,[1]TextData!A:A))</f>
-        <v>セルフカット</v>
+        <v>フルバースト</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="B115">
-        <v>2010</v>
+        <v>100611</v>
       </c>
       <c r="C115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B115,[1]TextData!A:A))</f>
-        <v>ディスチャージ</v>
+        <v>コウソクテンショウ</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5833,104 +5889,104 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="B116">
-        <v>6010</v>
+        <v>12010</v>
       </c>
       <c r="C116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B116,[1]TextData!A:A))</f>
-        <v>エンドオブサイクル</v>
+        <v>エクステンション</v>
       </c>
       <c r="D116">
         <v>1</v>
       </c>
       <c r="E116">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="B117">
-        <v>12010</v>
+        <v>5010</v>
       </c>
       <c r="C117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B117,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>ダークプリズン</v>
       </c>
       <c r="D117">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B118">
-        <v>3010</v>
+        <v>5050</v>
       </c>
       <c r="C118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B118,[1]TextData!A:A))</f>
-        <v>アイスブレイド</v>
+        <v>ディプラヴィティ</v>
       </c>
       <c r="D118">
         <v>1</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B119">
-        <v>3050</v>
+        <v>15040</v>
       </c>
       <c r="C119" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B119,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
+        <v>スカルグラッジ</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B120">
-        <v>3070</v>
+        <v>100710</v>
       </c>
       <c r="C120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B120,[1]TextData!A:A))</f>
-        <v>アクアミラージュ</v>
+        <v>セメタリーコール</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B121">
-        <v>100320</v>
+        <v>100711</v>
       </c>
       <c r="C121" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B121,[1]TextData!A:A))</f>
-        <v>アンチドード</v>
+        <v>セルフカット</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5941,146 +5997,146 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="B122">
-        <v>100321</v>
+        <v>2010</v>
       </c>
       <c r="C122" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B122,[1]TextData!A:A))</f>
-        <v>コオリノセカイヘ</v>
+        <v>ディスチャージ</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="B123">
-        <v>4010</v>
+        <v>6010</v>
       </c>
       <c r="C123" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B123,[1]TextData!A:A))</f>
-        <v>セイントレーザー</v>
+        <v>シェイディークラウド</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="B124">
-        <v>14040</v>
+        <v>12010</v>
       </c>
       <c r="C124" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B124,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
+        <v>エクステンション</v>
       </c>
       <c r="D124">
         <v>1</v>
       </c>
       <c r="E124">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B125">
-        <v>100420</v>
+        <v>3010</v>
       </c>
       <c r="C125" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B125,[1]TextData!A:A))</f>
-        <v>ブレークザウォール</v>
+        <v>アイスブレイド</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B126">
-        <v>100421</v>
+        <v>3050</v>
       </c>
       <c r="C126" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B126,[1]TextData!A:A))</f>
-        <v>トリニティレイ</v>
+        <v>ディープフリーズ</v>
       </c>
       <c r="D126">
         <v>1</v>
       </c>
       <c r="E126">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B127">
-        <v>14080</v>
+        <v>3070</v>
       </c>
       <c r="C127" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B127,[1]TextData!A:A))</f>
-        <v>スペリオール</v>
+        <v>アクアミラージュ</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B128">
-        <v>12010</v>
+        <v>100320</v>
       </c>
       <c r="C128" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B128,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>アンチドード</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B129">
-        <v>4070</v>
+        <v>100321</v>
       </c>
       <c r="C129" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B129,[1]TextData!A:A))</f>
-        <v>プリズムリフレクター</v>
+        <v>コオリノセカイヘ</v>
       </c>
       <c r="D129">
         <v>1</v>
       </c>
       <c r="E129">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -6088,17 +6144,17 @@
         <v>214</v>
       </c>
       <c r="B130">
-        <v>4060</v>
+        <v>4010</v>
       </c>
       <c r="C130" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B130,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+        <v>セイントレーザー</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -6106,16 +6162,142 @@
         <v>214</v>
       </c>
       <c r="B131">
-        <v>14070</v>
+        <v>14040</v>
       </c>
       <c r="C131" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(B131,[1]TextData!A:A))</f>
+        <v>リジェネレーション</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>214</v>
+      </c>
+      <c r="B132">
+        <v>100420</v>
+      </c>
+      <c r="C132" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B132,[1]TextData!A:A))</f>
+        <v>ブレークザウォール</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>214</v>
+      </c>
+      <c r="B133">
+        <v>100421</v>
+      </c>
+      <c r="C133" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B133,[1]TextData!A:A))</f>
+        <v>トリニティレイ</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>214</v>
+      </c>
+      <c r="B134">
+        <v>14080</v>
+      </c>
+      <c r="C134" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B134,[1]TextData!A:A))</f>
+        <v>スペリオール</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>214</v>
+      </c>
+      <c r="B135">
+        <v>12010</v>
+      </c>
+      <c r="C135" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B135,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>214</v>
+      </c>
+      <c r="B136">
+        <v>4070</v>
+      </c>
+      <c r="C136" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B136,[1]TextData!A:A))</f>
+        <v>プリズムリフレクター</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>214</v>
+      </c>
+      <c r="B137">
+        <v>4060</v>
+      </c>
+      <c r="C137" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B137,[1]TextData!A:A))</f>
+        <v>ホーリーグレイス</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>214</v>
+      </c>
+      <c r="B138">
+        <v>14070</v>
+      </c>
+      <c r="C138" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(B138,[1]TextData!A:A))</f>
         <v>ホーミングクルセイド</v>
       </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
         <v>30</v>
       </c>
     </row>
@@ -6131,7 +6313,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -6325,16 +6507,16 @@
         <v>101</v>
       </c>
       <c r="B9">
-        <v>3060</v>
+        <v>1040</v>
       </c>
       <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6630,8 +6812,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,10 @@
     <t>タルウィ</t>
   </si>
   <si>
+    <t>サルワ</t>
+  </si>
+  <si>
     <t>ザリチュ</t>
-  </si>
-  <si>
-    <t>サルワ</t>
   </si>
   <si>
     <t>タローマティ</t>
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -315,81 +315,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -405,8 +330,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,6 +371,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,21 +393,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -450,9 +413,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,7 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,13 +479,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,7 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,61 +569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,55 +587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,13 +617,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,15 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,6 +672,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +733,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -738,26 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2489,7 +2489,7 @@
   <sheetPr/>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I29" sqref="I29:K34"/>
     </sheetView>
   </sheetViews>
@@ -3812,8 +3812,8 @@
   <sheetPr/>
   <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -6812,7 +6812,7 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -300,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -316,91 +316,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,16 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +352,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -451,10 +390,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -467,7 +467,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +575,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,121 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,25 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +658,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -672,24 +683,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,26 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -758,6 +731,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,145 +766,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2019,178 +2019,178 @@
         </row>
         <row r="129">
           <cell r="A129">
-            <v>500001</v>
+            <v>500010</v>
           </cell>
           <cell r="B129" t="str">
-            <v>【愚者】</v>
+            <v>軍神の采配</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>500002</v>
+            <v>500020</v>
           </cell>
           <cell r="B130" t="str">
-            <v>【魔術師】</v>
+            <v>蛮勇の狼煙</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>500003</v>
+            <v>500030</v>
           </cell>
           <cell r="B131" t="str">
-            <v>【女教皇】</v>
+            <v>戦神の剣</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>500004</v>
+            <v>500040</v>
           </cell>
           <cell r="B132" t="str">
-            <v>【女帝】</v>
+            <v>不死鳥の聖炎</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>500005</v>
+            <v>500050</v>
           </cell>
           <cell r="B133" t="str">
-            <v>【皇帝】</v>
+            <v>女神の抱擁</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>500006</v>
+            <v>500060</v>
           </cell>
           <cell r="B134" t="str">
-            <v>【法王】</v>
+            <v>戦士の奮起</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>500007</v>
+            <v>500070</v>
           </cell>
           <cell r="B135" t="str">
-            <v>【恋愛】</v>
+            <v>闘神の鼓舞</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>500008</v>
+            <v>500080</v>
           </cell>
           <cell r="B136" t="str">
-            <v>【戦車】</v>
+            <v>回避の加護</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>500009</v>
+            <v>500090</v>
           </cell>
           <cell r="B137" t="str">
-            <v>【正義】</v>
+            <v>戦神の盾</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>500010</v>
+            <v>500100</v>
           </cell>
           <cell r="B138" t="str">
-            <v>【隠者】</v>
+            <v>戦神の加護</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>500011</v>
+            <v>500110</v>
           </cell>
           <cell r="B139" t="str">
-            <v>【運命】</v>
+            <v>闘神の守護</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>500012</v>
+            <v>500120</v>
           </cell>
           <cell r="B140" t="str">
-            <v>【剛毅】</v>
+            <v>天使の竪琴</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>500013</v>
+            <v>500130</v>
           </cell>
           <cell r="B141" t="str">
-            <v>【刑死者】</v>
+            <v>命中の加護</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>500014</v>
+            <v>500140</v>
           </cell>
           <cell r="B142" t="str">
-            <v>【死神】</v>
+            <v>神速の風</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>500015</v>
+            <v>500150</v>
           </cell>
           <cell r="B143" t="str">
-            <v>【節制】</v>
+            <v>龍神の松明</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>500016</v>
+            <v>500160</v>
           </cell>
           <cell r="B144" t="str">
-            <v>【悪魔】</v>
+            <v>聖龍の咆哮</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>500017</v>
+            <v>500170</v>
           </cell>
           <cell r="B145" t="str">
-            <v>【塔】</v>
+            <v>ジャッジレイン</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>500018</v>
+            <v>500180</v>
           </cell>
           <cell r="B146" t="str">
-            <v>【星】</v>
+            <v>霊王の聖棺</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>500019</v>
+            <v>500190</v>
           </cell>
           <cell r="B147" t="str">
-            <v>【月】</v>
+            <v>黄泉の歌声</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>500020</v>
+            <v>500200</v>
           </cell>
           <cell r="B148" t="str">
-            <v>【太陽】</v>
+            <v>戦女神の刃</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>500021</v>
+            <v>500210</v>
           </cell>
           <cell r="B149" t="str">
-            <v>【審判】</v>
+            <v>天怒の閃光</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>500022</v>
+            <v>500220</v>
           </cell>
           <cell r="B150" t="str">
-            <v>【世界】</v>
+            <v>シャイントルネード</v>
           </cell>
         </row>
       </sheetData>
@@ -6812,8 +6812,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="1"/>

--- a/Assets/Data/Enemies.xlsx
+++ b/Assets/Data/Enemies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="1" r:id="rId1"/>
@@ -300,8 +300,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -314,9 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,26 +328,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -359,9 +343,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +360,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,31 +387,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,18 +410,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,13 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,55 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,19 +509,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,6 +545,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -587,7 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,13 +593,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,37 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,17 +658,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -683,6 +672,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,17 +700,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,18 +726,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,19 +766,19 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,124 +787,124 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1171,23 +1171,23 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>3010</v>
+            <v>2090</v>
           </cell>
           <cell r="B23" t="str">
-            <v>アイスブレイド</v>
+            <v>カースドブレイド</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>3020</v>
+            <v>3010</v>
           </cell>
           <cell r="B24" t="str">
-            <v>カウンターオーラ</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>3021</v>
+            <v>3020</v>
           </cell>
           <cell r="B25" t="str">
             <v>カウンターオーラ</v>
@@ -1195,1001 +1195,1017 @@
         </row>
         <row r="26">
           <cell r="A26">
-            <v>3030</v>
+            <v>3021</v>
           </cell>
           <cell r="B26" t="str">
-            <v>シールドスペル</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>3040</v>
+            <v>3030</v>
           </cell>
           <cell r="B27" t="str">
-            <v>エスコートソール</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>3050</v>
+            <v>3040</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ディープフリーズ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>3060</v>
+            <v>3050</v>
           </cell>
           <cell r="B29" t="str">
-            <v>バブルブロウ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>3070</v>
+            <v>3060</v>
           </cell>
           <cell r="B30" t="str">
-            <v>アクアミラージュ</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>4010</v>
+            <v>3070</v>
           </cell>
           <cell r="B31" t="str">
-            <v>セイントレーザー</v>
+            <v>アクアミラージュ</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>4020</v>
+            <v>4010</v>
           </cell>
           <cell r="B32" t="str">
-            <v>ペネトレイト</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>4030</v>
+            <v>4020</v>
           </cell>
           <cell r="B33" t="str">
-            <v>ヒーリング</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>4040</v>
+            <v>4030</v>
           </cell>
           <cell r="B34" t="str">
-            <v>リフレッシュ</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>4050</v>
+            <v>4040</v>
           </cell>
           <cell r="B35" t="str">
-            <v>べネディクション</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>4060</v>
+            <v>4050</v>
           </cell>
           <cell r="B36" t="str">
-            <v>ホーリーグレイス</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>4070</v>
+            <v>4060</v>
           </cell>
           <cell r="B37" t="str">
-            <v>プリズムリフレクター</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>4080</v>
+            <v>4070</v>
           </cell>
           <cell r="B38" t="str">
-            <v>アバイドフラッシュ</v>
+            <v>プリズムリフレクター</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>5010</v>
+            <v>4080</v>
           </cell>
           <cell r="B39" t="str">
-            <v>ダークプリズン</v>
+            <v>アバイドフラッシュ</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>5020</v>
+            <v>5010</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ユーサネイジア</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>5030</v>
+            <v>5020</v>
           </cell>
           <cell r="B41" t="str">
-            <v>ドレインヒール</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>5040</v>
+            <v>5030</v>
           </cell>
           <cell r="B42" t="str">
-            <v>デリートマジック</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>5050</v>
+            <v>5040</v>
           </cell>
           <cell r="B43" t="str">
-            <v>ディプラヴィティ</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>5060</v>
+            <v>5050</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ダークネス</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>5070</v>
+            <v>5060</v>
           </cell>
           <cell r="B45" t="str">
-            <v>シェイディークラウド</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>7010</v>
+            <v>5070</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ウェイトユニゾン</v>
+            <v>シェイディークラウド</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>10010</v>
+            <v>5080</v>
           </cell>
           <cell r="B47" t="str">
-            <v>アンデッド</v>
+            <v>ディスペアースカル</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>10020</v>
+            <v>7010</v>
           </cell>
           <cell r="B48" t="str">
-            <v>クリーチャー</v>
+            <v>ウェイトユニゾン</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>10030</v>
+            <v>10010</v>
           </cell>
           <cell r="B49" t="str">
-            <v>ダエーワ(サルワ)</v>
+            <v>アンデッド</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>10040</v>
+            <v>10020</v>
           </cell>
           <cell r="B50" t="str">
-            <v>ダエーワ(ザリチュ)</v>
+            <v>クリーチャー</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>11010</v>
+            <v>10030</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ウルフソウル</v>
+            <v>ダエーワ(サルワ)</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>11020</v>
+            <v>10040</v>
           </cell>
           <cell r="B52" t="str">
-            <v>プリディカメント</v>
+            <v>ダエーワ(ザリチュ)</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>11030</v>
+            <v>11010</v>
           </cell>
           <cell r="B53" t="str">
-            <v>アサルトシフト</v>
+            <v>ウルフソウル</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>11040</v>
+            <v>11020</v>
           </cell>
           <cell r="B54" t="str">
-            <v>スタートダッシュ</v>
+            <v>プリディカメント</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>11050</v>
+            <v>11030</v>
           </cell>
           <cell r="B55" t="str">
-            <v>ライズアップマインド</v>
+            <v>アサルトシフト</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>11060</v>
+            <v>11040</v>
           </cell>
           <cell r="B56" t="str">
-            <v>イグナイテッド</v>
+            <v>スタートダッシュ</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>11070</v>
+            <v>11050</v>
           </cell>
           <cell r="B57" t="str">
-            <v>アフターバーナー</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>12010</v>
+            <v>11060</v>
           </cell>
           <cell r="B58" t="str">
-            <v>エクステンション</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>12020</v>
+            <v>11070</v>
           </cell>
           <cell r="B59" t="str">
-            <v>スパークフォグ</v>
+            <v>アフターバーナー</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>12030</v>
+            <v>12010</v>
           </cell>
           <cell r="B60" t="str">
-            <v>スウィフトカレント</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>12040</v>
+            <v>12020</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ファストキャスター</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>12050</v>
+            <v>12030</v>
           </cell>
           <cell r="B62" t="str">
-            <v>ヘブンリーラック</v>
+            <v>スウィフトカレント</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>12060</v>
+            <v>12040</v>
           </cell>
           <cell r="B63" t="str">
-            <v>クイックアクト</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>12070</v>
+            <v>12050</v>
           </cell>
           <cell r="B64" t="str">
-            <v>リベリオススプリッツ</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="65">
           <cell 